--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\США\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -7794,25 +7794,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" style="10" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" style="10" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1351</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="47"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="56"/>
       <c r="C2" s="40" t="s">
@@ -7862,7 +7862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1900</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1901</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>1902</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>1903</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>1904</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1905</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1906</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>1907</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>1908</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>1909</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>1909</v>
       </c>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1909</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>1910</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>1911</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1912</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>1913</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>1914</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>1915</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>1916</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>1917</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>1918</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>1919</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>1920</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>1921</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>1922</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1922</v>
       </c>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>1923</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>1924</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>1925</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>1926</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>1927</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>1928</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>1929</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>1930</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>1931</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>1932</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>1933</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1934</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>1935</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>1936</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>1937</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>1938</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>1939</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1940</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>1941</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>1942</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1943</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>1944</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>1945</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>1946</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>1947</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>1948</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>1949</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>1950</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>1951</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>1952</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>1953</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>1954</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>1955</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>1956</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>1957</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>1958</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>1959</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>1960</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>1960</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1961</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>1962</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>1963</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>1964</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>1965</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>1966</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>1967</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>1968</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>1969</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>1970</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>1971</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>1972</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>1973</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>1974</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>1975</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>1976</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>1977</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>1978</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>1979</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>1980</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>1981</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>1982</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>1983</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>1984</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>1985</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>1986</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>1987</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>1988</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>1989</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>1990</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <v>1991</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>1992</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>1993</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>1994</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>1995</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
         <v>1996</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <v>1997</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <v>1998</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>1999</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <v>2000</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>2001</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>2002</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>2003</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>2004</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>2005</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>2006</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>2007</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>2008</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>2009</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <v>2009</v>
       </c>
@@ -12223,7 +12223,7 @@
       </c>
       <c r="U117" s="3"/>
     </row>
-    <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>2009</v>
       </c>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="U118" s="3"/>
     </row>
-    <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
         <v>2009</v>
       </c>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="U119" s="3"/>
     </row>
-    <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
         <v>2010</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21">
         <v>2011</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>2012</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
         <v>2013</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
         <v>2014</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21">
         <v>2015</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21">
         <v>2016</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21">
         <v>2017</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21">
         <v>2018</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21">
         <v>2019</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130"/>
@@ -12662,211 +12662,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U131" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U132" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U133" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U134" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U135" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U136" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U137" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U138" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U139" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U140" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U141" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U142" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U143" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U144" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U145" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U146" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U147" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U148" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U149" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U150" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U151" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U152" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U153" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U154" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U155" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U156" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U157" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U158" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U159" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U160" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U161" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U162" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U163" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U164" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="21:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U165" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13003,7 +13003,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13">
+  <conditionalFormatting sqref="J13 H13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13107,18 +13107,18 @@
       <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" style="10" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="25" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" style="10" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1351</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="56"/>
       <c r="C2" s="40" t="s">
@@ -13176,7 +13176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1900</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1901</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>1902</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>1903</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>1904</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1905</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1906</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>1907</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>1908</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>1909</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>1910</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1911</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>1912</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>1913</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1913</v>
       </c>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>1914</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>1915</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>1916</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>1917</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>1918</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>1919</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>1920</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>1921</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>1922</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>1923</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1924</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>1925</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>1926</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>1927</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>1928</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>1929</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>1930</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>1931</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>1932</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>1933</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>1934</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>1935</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1936</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>1937</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>1938</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>1938</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>1939</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>1940</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1941</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>1942</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>1942</v>
       </c>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1943</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>1944</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>1945</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>1946</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>1947</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>1948</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>1949</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>1950</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>1951</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>1952</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>1953</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>1954</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>1955</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>1956</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>1957</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>1958</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>1959</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>1960</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>1961</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1962</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>1963</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>1964</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>1965</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>1966</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>1967</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>1968</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>1969</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>1970</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>1971</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>1972</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>1973</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>1974</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>1975</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>1976</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>1977</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>1978</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>1979</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>1980</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>1981</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>1982</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>1983</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>1984</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>1985</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>1986</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>1987</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>1988</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>1989</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>1990</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>1991</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <v>1992</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>1993</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>1994</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>1995</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>1996</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
         <v>1997</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <v>1998</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <v>1999</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>2000</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <v>2001</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>2002</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>2003</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>2004</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>2004</v>
       </c>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="T111" s="3"/>
     </row>
-    <row r="112" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>2005</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>2005</v>
       </c>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="T113" s="3"/>
     </row>
-    <row r="114" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>2006</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>2007</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>2008</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <v>2009</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>2010</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
         <v>2011</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
         <v>2012</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21">
         <v>2013</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>2014</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
         <v>2015</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
         <v>2016</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21">
         <v>2017</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21">
         <v>2018</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21">
         <v>2019</v>
       </c>
@@ -17903,67 +17903,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T128" s="3" t="str">
         <f>IF((OR(AND(I128&gt;0,J128&gt;0),AND(I128&gt;0,J128="-"),AND(J128&gt;0,I128="-"))),"2",IF(OR(AND(I128=0,J128=0),AND(I128=0,J128="-"),AND(J128=0,I128="-"),AND(J128="-",I128="-")),"0","1"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T129" s="3" t="str">
         <f t="shared" ref="T129:T138" si="5">IF((OR(AND(I129&gt;0,J129&gt;0),AND(I129&gt;0,J129="-"),AND(J129&gt;0,I129="-"))),"2",IF(OR(AND(I129=0,J129=0),AND(I129=0,J129="-"),AND(J129=0,I129="-"),AND(J129="-",I129="-")),"0","1"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T135" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T136" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T137" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T138" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -18403,18 +18403,18 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="10" customWidth="1"/>
-    <col min="9" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
-    <col min="14" max="28" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="10" customWidth="1"/>
+    <col min="9" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1351</v>
       </c>
@@ -18438,7 +18438,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="56"/>
       <c r="C2" s="40" t="s">
@@ -18472,7 +18472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1900</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1901</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>1902</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>1903</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>1904</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1905</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1906</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>1907</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>1908</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>1909</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>1910</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1911</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>1912</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>1913</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1914</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>1915</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>1916</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>1916</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>1917</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>1918</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>1919</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>1920</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>1921</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>1922</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>1923</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1924</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>1925</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>1926</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>1927</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>1928</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>1929</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>1930</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>1931</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>1932</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>1933</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>1934</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>1935</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1936</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>1937</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>1938</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>1939</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>1940</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>1941</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1942</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>1943</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>1944</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1945</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>1946</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>1947</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>1948</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>1949</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>1950</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>1951</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>1952</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>1953</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>1954</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>1955</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>1956</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>1957</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>1958</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>1959</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>1960</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>1961</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>1962</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>1963</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1964</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>1965</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>1966</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>1967</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>1968</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>1969</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>1970</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>1971</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>1972</v>
       </c>
@@ -21644,7 +21644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>1973</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>1974</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>1975</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>1976</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>1977</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>1978</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>1979</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>1980</v>
       </c>
@@ -21996,7 +21996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>1981</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>1982</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>1983</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>1984</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>1985</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>1986</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>1987</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>1988</v>
       </c>
@@ -22348,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>1989</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>1990</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>1991</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>1992</v>
       </c>
@@ -22524,7 +22524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>1993</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <v>1994</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>1995</v>
       </c>
@@ -22656,7 +22656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>1996</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>1997</v>
       </c>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>1998</v>
       </c>
@@ -22788,7 +22788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
         <v>1999</v>
       </c>
@@ -22832,7 +22832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <v>2000</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <v>2001</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>2002</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <v>2003</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>2004</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>2005</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>2006</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>2007</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>2008</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>2009</v>
       </c>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>2010</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>2011</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>2012</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <v>2013</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>2014</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
         <v>2015</v>
       </c>
@@ -23536,7 +23536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
         <v>2016</v>
       </c>
@@ -23580,7 +23580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21">
         <v>2017</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>2018</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
         <v>2019</v>
       </c>
@@ -23712,43 +23712,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W124" s="3" t="str">
         <f t="shared" ref="W124:W130" si="8">IF((OR(AND(J124&gt;0,K124&gt;0),AND(J124&gt;0,K124="-"),AND(K124&gt;0,J124="-"))),"2",IF(OR(AND(J124=0,K124=0),AND(J124=0,K124="-"),AND(K124=0,J124="-"),AND(K124="-",J124="-")),"0","1"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W125" s="3" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W126" s="3" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W127" s="3" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W128" s="3" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W129" s="3" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="23:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W130" s="3" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24111,19 +24111,19 @@
       <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="10" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="6" customWidth="1"/>
-    <col min="14" max="27" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="10" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="6" customWidth="1"/>
+    <col min="14" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1351</v>
       </c>
@@ -24147,7 +24147,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="56"/>
       <c r="C2" s="40" t="s">
@@ -24181,7 +24181,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1900</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1901</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>1902</v>
       </c>
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>1903</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>1904</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1905</v>
       </c>
@@ -24433,7 +24433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1906</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>1907</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>1908</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>1909</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>1910</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1911</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>1912</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>1913</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1914</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>1915</v>
       </c>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>1916</v>
       </c>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>1916</v>
       </c>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>1917</v>
       </c>
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>1918</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>1919</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>1920</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>1921</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>1922</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>1923</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1924</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>1925</v>
       </c>
@@ -25332,7 +25332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>1926</v>
       </c>
@@ -25376,7 +25376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>1927</v>
       </c>
@@ -25420,7 +25420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>1928</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>1929</v>
       </c>
@@ -25508,7 +25508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>1930</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>1931</v>
       </c>
@@ -25598,7 +25598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>1932</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>1933</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>1934</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>1935</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1936</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>1937</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>1938</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>1939</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>1940</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>1941</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1942</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>1943</v>
       </c>
@@ -26150,7 +26150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>1944</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>1945</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>1946</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>1947</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>1948</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>1949</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>1950</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>1951</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>1952</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>1953</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>1954</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>1955</v>
       </c>
@@ -26702,7 +26702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>1956</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>1957</v>
       </c>
@@ -26794,7 +26794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>1958</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>1959</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>1960</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>1961</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>1962</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>1963</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>1964</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>1965</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>1966</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>1967</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>1968</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>1969</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>1970</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>1971</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>1972</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>1973</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>1974</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>1975</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>1975</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>1976</v>
       </c>
@@ -27699,7 +27699,7 @@
       </c>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>1976</v>
       </c>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>1977</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>1978</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>1979</v>
       </c>
@@ -27877,7 +27877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>1980</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>1981</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>1982</v>
       </c>
@@ -28009,7 +28009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>1983</v>
       </c>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>1984</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>1985</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>1986</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>1987</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>1988</v>
       </c>
@@ -28273,7 +28273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>1989</v>
       </c>
@@ -28317,7 +28317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>1990</v>
       </c>
@@ -28361,7 +28361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>1991</v>
       </c>
@@ -28405,7 +28405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <v>1992</v>
       </c>
@@ -28449,7 +28449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>1993</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>1994</v>
       </c>
@@ -28537,7 +28537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>1995</v>
       </c>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>1996</v>
       </c>
@@ -28625,7 +28625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
         <v>1997</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <v>1998</v>
       </c>
@@ -29264,26 +29264,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="E2:L2"/>
+      <selection pane="bottomRight" activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="12" customWidth="1"/>
-    <col min="9" max="12" width="3.81640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="6" customWidth="1"/>
-    <col min="14" max="27" width="8.7265625" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="14.453125" style="6"/>
+    <col min="1" max="1" width="5.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="12" customWidth="1"/>
+    <col min="9" max="12" width="3.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="6" customWidth="1"/>
+    <col min="14" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1351</v>
       </c>
@@ -29307,7 +29307,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="56"/>
       <c r="C2" s="40" t="s">
@@ -29341,7 +29341,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>1900</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>1901</v>
       </c>
@@ -29425,7 +29425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>1902</v>
       </c>
@@ -29467,7 +29467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>1903</v>
       </c>
@@ -29509,7 +29509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>1904</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>1905</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>1906</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>1907</v>
       </c>
@@ -29677,7 +29677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>1908</v>
       </c>
@@ -29719,7 +29719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>1909</v>
       </c>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>1910</v>
       </c>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>1911</v>
       </c>
@@ -29845,7 +29845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>1912</v>
       </c>
@@ -29887,7 +29887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>1913</v>
       </c>
@@ -29929,7 +29929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>1914</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>1915</v>
       </c>
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>1916</v>
       </c>
@@ -30055,7 +30055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>1917</v>
       </c>
@@ -30097,7 +30097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>1917</v>
       </c>
@@ -30138,7 +30138,7 @@
       </c>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>1917</v>
       </c>
@@ -30179,7 +30179,7 @@
       </c>
       <c r="V22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>1918</v>
       </c>
@@ -30221,7 +30221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>1919</v>
       </c>
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>1920</v>
       </c>
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>1921</v>
       </c>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>1922</v>
       </c>
@@ -30393,7 +30393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>1923</v>
       </c>
@@ -30435,7 +30435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>1924</v>
       </c>
@@ -30481,7 +30481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>1925</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>1926</v>
       </c>
@@ -30573,7 +30573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>1927</v>
       </c>
@@ -30615,7 +30615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>1928</v>
       </c>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>1929</v>
       </c>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>1930</v>
       </c>
@@ -30745,7 +30745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>1931</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>1932</v>
       </c>
@@ -30837,7 +30837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <v>1933</v>
       </c>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>1934</v>
       </c>
@@ -30921,7 +30921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <v>1935</v>
       </c>
@@ -30963,7 +30963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>1936</v>
       </c>
@@ -31005,7 +31005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>1937</v>
       </c>
@@ -31047,7 +31047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>1938</v>
       </c>
@@ -31089,7 +31089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>1939</v>
       </c>
@@ -31131,7 +31131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>1940</v>
       </c>
@@ -31173,7 +31173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>1941</v>
       </c>
@@ -31215,7 +31215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>1942</v>
       </c>
@@ -31257,7 +31257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>1943</v>
       </c>
@@ -31299,7 +31299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>1944</v>
       </c>
@@ -31341,7 +31341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>1945</v>
       </c>
@@ -31383,7 +31383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>1946</v>
       </c>
@@ -31425,7 +31425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>1947</v>
       </c>
@@ -31467,7 +31467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>1948</v>
       </c>
@@ -31509,7 +31509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>1949</v>
       </c>
@@ -31551,7 +31551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>1950</v>
       </c>
@@ -31593,7 +31593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>1951</v>
       </c>
@@ -31635,7 +31635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>1952</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>1953</v>
       </c>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>1954</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>1955</v>
       </c>
@@ -31803,7 +31803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>1956</v>
       </c>
@@ -31845,7 +31845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35">
         <v>1957</v>
       </c>
@@ -31887,7 +31887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>1958</v>
       </c>
@@ -31929,7 +31929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35">
         <v>1959</v>
       </c>
@@ -31971,7 +31971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <v>1960</v>
       </c>
@@ -32013,7 +32013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35">
         <v>1961</v>
       </c>
@@ -32055,7 +32055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <v>1962</v>
       </c>
@@ -32097,7 +32097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
         <v>1963</v>
       </c>
@@ -32139,7 +32139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <v>1964</v>
       </c>
@@ -32183,7 +32183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
         <v>1965</v>
       </c>
@@ -32227,7 +32227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <v>1966</v>
       </c>
@@ -32271,7 +32271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
         <v>1967</v>
       </c>
@@ -32315,7 +32315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>1968</v>
       </c>
@@ -32359,7 +32359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
         <v>1969</v>
       </c>
@@ -32403,7 +32403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>1970</v>
       </c>
@@ -32447,7 +32447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
         <v>1971</v>
       </c>
@@ -32491,7 +32491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>1972</v>
       </c>
@@ -32535,7 +32535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
         <v>1973</v>
       </c>
@@ -32579,7 +32579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <v>1974</v>
       </c>
@@ -32623,7 +32623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="35">
         <v>1975</v>
       </c>
@@ -32664,7 +32664,7 @@
       </c>
       <c r="V80" s="11"/>
     </row>
-    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <v>1975</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
         <v>1976</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>1976</v>
       </c>
@@ -32787,7 +32787,7 @@
       </c>
       <c r="V83" s="11"/>
     </row>
-    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
         <v>1977</v>
       </c>
@@ -32831,7 +32831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <v>1978</v>
       </c>
@@ -32875,7 +32875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="35">
         <v>1979</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>1980</v>
       </c>
@@ -32963,7 +32963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
         <v>1981</v>
       </c>
@@ -33007,7 +33007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>1982</v>
       </c>
@@ -33051,7 +33051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
         <v>1983</v>
       </c>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>1984</v>
       </c>
@@ -33139,7 +33139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
         <v>1985</v>
       </c>
@@ -33183,7 +33183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <v>1986</v>
       </c>
@@ -33227,7 +33227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="35">
         <v>1987</v>
       </c>
@@ -33271,7 +33271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <v>1988</v>
       </c>
@@ -33315,7 +33315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="35">
         <v>1989</v>
       </c>
@@ -33359,7 +33359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <v>1990</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
         <v>1991</v>
       </c>
@@ -33447,7 +33447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <v>1992</v>
       </c>
@@ -33491,7 +33491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="35">
         <v>1993</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <v>1994</v>
       </c>
@@ -33579,7 +33579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="35">
         <v>1995</v>
       </c>
@@ -33623,7 +33623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="35">
         <v>1996</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35">
         <v>1997</v>
       </c>
@@ -33711,7 +33711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="35">
         <v>1998</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="35">
         <v>1999</v>
       </c>
@@ -33799,7 +33799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
         <v>2000</v>
       </c>
@@ -33843,7 +33843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="35">
         <v>2001</v>
       </c>
@@ -33887,7 +33887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="35">
         <v>2002</v>
       </c>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="35">
         <v>2003</v>
       </c>
@@ -33975,7 +33975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="35">
         <v>2004</v>
       </c>
@@ -34019,7 +34019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="35">
         <v>2005</v>
       </c>
@@ -34063,7 +34063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="35">
         <v>2006</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="35">
         <v>2007</v>
       </c>
@@ -34151,7 +34151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
         <v>2008</v>
       </c>
@@ -34195,7 +34195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="35">
         <v>2009</v>
       </c>
@@ -34239,7 +34239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="35">
         <v>2010</v>
       </c>
@@ -34283,7 +34283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="35">
         <v>2011</v>
       </c>
@@ -34327,7 +34327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="35">
         <v>2012</v>
       </c>
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="35">
         <v>2013</v>
       </c>
@@ -34415,7 +34415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="35">
         <v>2014</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="35">
         <v>2015</v>
       </c>
@@ -34503,7 +34503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
         <v>2016</v>
       </c>
@@ -34530,7 +34530,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="33" t="s">
         <v>3</v>
@@ -34544,10 +34544,10 @@
       </c>
       <c r="V123" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="35">
         <v>2017</v>
       </c>
@@ -34591,7 +34591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="35">
         <v>2018</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="33" t="s">
         <v>3</v>
@@ -34632,10 +34632,10 @@
       </c>
       <c r="V125" s="11" t="str">
         <f>IF((OR(AND(J125&gt;0,K125&gt;0),AND(J125&gt;0,K125="-"),AND(K125&gt;0,J125="-"))),"2",IF(OR(AND(J125=0,K125=0),AND(J125=0,K125="-"),AND(K125=0,J125="-"),AND(K125="-",J125="-")),"0","1"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="35">
         <v>2019</v>
       </c>
@@ -34662,7 +34662,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K126" s="33" t="s">
         <v>3</v>
@@ -34672,86 +34672,86 @@
       </c>
       <c r="M126" s="20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
       <c r="V126" s="11" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V127" s="11" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V128" s="11" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V129" s="11" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V130" s="11" t="str">
         <f t="shared" ref="V130:V139" si="4">IF((OR(AND(J130&gt;0,K130&gt;0),AND(J130&gt;0,K130="-"),AND(K130&gt;0,J130="-"))),"2",IF(OR(AND(J130=0,K130=0),AND(J130=0,K130="-"),AND(K130=0,J130="-"),AND(K130="-",J130="-")),"0","1"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V131" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V132" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V133" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V134" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V135" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V136" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V137" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V138" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V139" s="11" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -35387,18 +35387,18 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
-    <col min="14" max="21" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>1351</v>
       </c>
@@ -35422,7 +35422,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="56"/>
       <c r="C2" s="40" t="s">
@@ -35456,7 +35456,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>1900</v>
       </c>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>1901</v>
       </c>
@@ -35540,7 +35540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>1902</v>
       </c>
@@ -35582,7 +35582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>1903</v>
       </c>
@@ -35624,7 +35624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1904</v>
       </c>
@@ -35666,7 +35666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>1905</v>
       </c>
@@ -35712,7 +35712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>1906</v>
       </c>
@@ -35758,7 +35758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>1907</v>
       </c>
@@ -35804,7 +35804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>1908</v>
       </c>
@@ -35850,7 +35850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>1909</v>
       </c>
@@ -35896,7 +35896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>1910</v>
       </c>
@@ -35942,7 +35942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>1911</v>
       </c>
@@ -35988,7 +35988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>1912</v>
       </c>
@@ -36034,7 +36034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>1913</v>
       </c>
@@ -36080,7 +36080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>1914</v>
       </c>
@@ -36126,7 +36126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>1915</v>
       </c>
@@ -36172,7 +36172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>1916</v>
       </c>
@@ -36218,7 +36218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>1917</v>
       </c>
@@ -36264,7 +36264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>1918</v>
       </c>
@@ -36310,7 +36310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>1919</v>
       </c>
@@ -36356,7 +36356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>1920</v>
       </c>
@@ -36402,7 +36402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>1921</v>
       </c>
@@ -36444,7 +36444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>1921</v>
       </c>
@@ -36486,7 +36486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>1922</v>
       </c>
@@ -36528,7 +36528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>1923</v>
       </c>
@@ -36570,7 +36570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>1924</v>
       </c>
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>1925</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>1926</v>
       </c>
@@ -36696,7 +36696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>1927</v>
       </c>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>1928</v>
       </c>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>1929</v>
       </c>
@@ -36826,7 +36826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>1930</v>
       </c>
@@ -36872,7 +36872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>1931</v>
       </c>
@@ -36918,7 +36918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>1932</v>
       </c>
@@ -36964,7 +36964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>1933</v>
       </c>
@@ -37010,7 +37010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>1934</v>
       </c>
@@ -37052,7 +37052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>1935</v>
       </c>
@@ -37094,7 +37094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>1936</v>
       </c>
@@ -37140,7 +37140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>1937</v>
       </c>
@@ -37186,7 +37186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>1938</v>
       </c>
@@ -37232,7 +37232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>1939</v>
       </c>
@@ -37278,7 +37278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>1940</v>
       </c>
@@ -37324,7 +37324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>1941</v>
       </c>
@@ -37370,7 +37370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>1942</v>
       </c>
@@ -37416,7 +37416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>1943</v>
       </c>
@@ -37462,7 +37462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>1944</v>
       </c>
@@ -37508,7 +37508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>1945</v>
       </c>
@@ -37554,7 +37554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>1946</v>
       </c>
@@ -37600,7 +37600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>1947</v>
       </c>
@@ -37646,7 +37646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>1948</v>
       </c>
@@ -37692,7 +37692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>1949</v>
       </c>
@@ -37738,7 +37738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>1950</v>
       </c>
@@ -37784,7 +37784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>1951</v>
       </c>
@@ -37830,7 +37830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>1952</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>1953</v>
       </c>
@@ -37922,7 +37922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>1954</v>
       </c>
@@ -37968,7 +37968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>1955</v>
       </c>
@@ -38014,7 +38014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>1956</v>
       </c>
@@ -38060,7 +38060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>1957</v>
       </c>
@@ -38106,7 +38106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>1958</v>
       </c>
@@ -38152,7 +38152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>1959</v>
       </c>
@@ -38198,7 +38198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>1960</v>
       </c>
@@ -38244,7 +38244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>1961</v>
       </c>
@@ -38290,7 +38290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>1962</v>
       </c>
@@ -38336,7 +38336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>1963</v>
       </c>
@@ -38382,7 +38382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>1964</v>
       </c>
@@ -38428,7 +38428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>1965</v>
       </c>
@@ -38474,7 +38474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>1966</v>
       </c>
@@ -38520,7 +38520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>1967</v>
       </c>
@@ -38566,7 +38566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>1968</v>
       </c>
@@ -38612,7 +38612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>1969</v>
       </c>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>1970</v>
       </c>
@@ -38704,7 +38704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>1971</v>
       </c>
@@ -38748,7 +38748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>1972</v>
       </c>
@@ -38792,7 +38792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>1973</v>
       </c>
@@ -38836,7 +38836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>1974</v>
       </c>
@@ -38880,7 +38880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>1975</v>
       </c>
@@ -38924,7 +38924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>1976</v>
       </c>
@@ -38960,7 +38960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>1977</v>
       </c>
@@ -39004,7 +39004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>1978</v>
       </c>
@@ -39048,7 +39048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>1979</v>
       </c>
@@ -39090,7 +39090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>1980</v>
       </c>
@@ -39132,7 +39132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>1981</v>
       </c>
@@ -39174,7 +39174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>1982</v>
       </c>
@@ -39220,7 +39220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>1983</v>
       </c>
@@ -39266,7 +39266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>1984</v>
       </c>
@@ -39312,7 +39312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>1985</v>
       </c>
@@ -39358,7 +39358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>1986</v>
       </c>
@@ -39404,7 +39404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>1987</v>
       </c>
@@ -39450,7 +39450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>1988</v>
       </c>
@@ -39496,7 +39496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>1989</v>
       </c>
@@ -39542,7 +39542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>1990</v>
       </c>
@@ -39588,7 +39588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>1991</v>
       </c>
@@ -39634,7 +39634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>1992</v>
       </c>
@@ -39680,7 +39680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>1993</v>
       </c>
@@ -39726,7 +39726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>1994</v>
       </c>
@@ -39772,7 +39772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>1995</v>
       </c>
@@ -39818,7 +39818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>1996</v>
       </c>
@@ -39864,7 +39864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>1997</v>
       </c>
@@ -39910,7 +39910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>1998</v>
       </c>
@@ -39956,7 +39956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>1999</v>
       </c>
@@ -40543,14 +40543,14 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1372</v>
       </c>
@@ -40561,7 +40561,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -40572,7 +40572,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -40583,7 +40583,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -40594,7 +40594,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -40605,7 +40605,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -40616,7 +40616,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="37"/>
       <c r="C7" s="14"/>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365FD7FE-3BBC-4713-96CD-F821D47E89AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B53375-4E5D-4FBC-8ED1-5B6A82A9801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -5098,9 +5098,6 @@
     <t>Proof only</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Barber Half Dollar</t>
   </si>
   <si>
@@ -5453,6 +5450,9 @@
   </si>
   <si>
     <t>27,800,000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -6000,6 +6000,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="177">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7392,15 +7401,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7746,9 +7746,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="175" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="174"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -8019,11 +8019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I131" sqref="I131"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8042,10 +8042,10 @@
         <v>1327</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1329</v>
+        <v>1447</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="56" t="s">
@@ -8063,10 +8063,10 @@
       <c r="A2" s="53"/>
       <c r="B2" s="60"/>
       <c r="C2" s="40" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>1374</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>1375</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>0</v>
@@ -8092,10 +8092,10 @@
         <v>1900</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="22" t="s">
@@ -8130,10 +8130,10 @@
         <v>1901</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="22" t="s">
@@ -8168,10 +8168,10 @@
         <v>1902</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="22" t="s">
@@ -8206,10 +8206,10 @@
         <v>1903</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="22" t="s">
@@ -8244,10 +8244,10 @@
         <v>1904</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="22" t="s">
@@ -8282,10 +8282,10 @@
         <v>1905</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="22" t="s">
@@ -8320,10 +8320,10 @@
         <v>1906</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="22" t="s">
@@ -8358,10 +8358,10 @@
         <v>1907</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="22" t="s">
@@ -8396,10 +8396,10 @@
         <v>1908</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="22" t="s">
@@ -8434,10 +8434,10 @@
         <v>1909</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>1363</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>1364</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="22" t="s">
@@ -8472,13 +8472,13 @@
         <v>1909</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>1365</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="D13" s="42" t="s">
         <v>1366</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>1367</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>1303</v>
@@ -8507,10 +8507,10 @@
         <v>1909</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="22" t="s">
@@ -8545,10 +8545,10 @@
         <v>1910</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="22" t="s">
@@ -8583,10 +8583,10 @@
         <v>1911</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="22" t="s">
@@ -8621,10 +8621,10 @@
         <v>1912</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="22" t="s">
@@ -8659,10 +8659,10 @@
         <v>1913</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="22" t="s">
@@ -8697,10 +8697,10 @@
         <v>1914</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="22" t="s">
@@ -8735,10 +8735,10 @@
         <v>1915</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="22" t="s">
@@ -8774,10 +8774,10 @@
         <v>1916</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="22" t="s">
@@ -8812,10 +8812,10 @@
         <v>1917</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="22" t="s">
@@ -8850,10 +8850,10 @@
         <v>1918</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="22" t="s">
@@ -8888,10 +8888,10 @@
         <v>1919</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="22" t="s">
@@ -8926,10 +8926,10 @@
         <v>1920</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="22" t="s">
@@ -8964,10 +8964,10 @@
         <v>1921</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="22" t="s">
@@ -9002,10 +9002,10 @@
         <v>1922</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="23" t="s">
@@ -9040,13 +9040,13 @@
         <v>1922</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>1365</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>1366</v>
-      </c>
       <c r="D28" s="42" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>3</v>
@@ -9075,10 +9075,10 @@
         <v>1923</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="22" t="s">
@@ -9113,10 +9113,10 @@
         <v>1924</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="22" t="s">
@@ -9151,10 +9151,10 @@
         <v>1925</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="22" t="s">
@@ -9189,10 +9189,10 @@
         <v>1926</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C32" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="22" t="s">
@@ -9227,10 +9227,10 @@
         <v>1927</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="22" t="s">
@@ -9265,10 +9265,10 @@
         <v>1928</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="22" t="s">
@@ -9303,10 +9303,10 @@
         <v>1929</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="22" t="s">
@@ -9341,10 +9341,10 @@
         <v>1930</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="22" t="s">
@@ -9379,10 +9379,10 @@
         <v>1931</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C37" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="22" t="s">
@@ -9417,10 +9417,10 @@
         <v>1932</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="22" t="s">
@@ -9455,10 +9455,10 @@
         <v>1933</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="22" t="s">
@@ -9493,10 +9493,10 @@
         <v>1934</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="22" t="s">
@@ -9531,10 +9531,10 @@
         <v>1935</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="22" t="s">
@@ -9569,10 +9569,10 @@
         <v>1936</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C42" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="22" t="s">
@@ -9607,10 +9607,10 @@
         <v>1937</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C43" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="22" t="s">
@@ -9645,10 +9645,10 @@
         <v>1938</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="22" t="s">
@@ -9683,10 +9683,10 @@
         <v>1939</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="22" t="s">
@@ -9721,10 +9721,10 @@
         <v>1940</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C46" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="22" t="s">
@@ -9759,10 +9759,10 @@
         <v>1941</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="22" t="s">
@@ -9797,10 +9797,10 @@
         <v>1942</v>
       </c>
       <c r="B48" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="22" t="s">
@@ -9835,10 +9835,10 @@
         <v>1943</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="22" t="s">
@@ -9873,10 +9873,10 @@
         <v>1944</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="22" t="s">
@@ -9911,10 +9911,10 @@
         <v>1945</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="22" t="s">
@@ -9949,10 +9949,10 @@
         <v>1946</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="22" t="s">
@@ -9987,10 +9987,10 @@
         <v>1947</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D53" s="42"/>
       <c r="E53" s="22" t="s">
@@ -10025,10 +10025,10 @@
         <v>1948</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D54" s="42"/>
       <c r="E54" s="22" t="s">
@@ -10063,10 +10063,10 @@
         <v>1949</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="22" t="s">
@@ -10101,10 +10101,10 @@
         <v>1950</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="22" t="s">
@@ -10139,10 +10139,10 @@
         <v>1951</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="22" t="s">
@@ -10177,10 +10177,10 @@
         <v>1952</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C58" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D58" s="42"/>
       <c r="E58" s="22" t="s">
@@ -10215,10 +10215,10 @@
         <v>1953</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D59" s="42"/>
       <c r="E59" s="22" t="s">
@@ -10253,10 +10253,10 @@
         <v>1954</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D60" s="42"/>
       <c r="E60" s="22" t="s">
@@ -10294,10 +10294,10 @@
         <v>1955</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="22" t="s">
@@ -10332,10 +10332,10 @@
         <v>1956</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="22" t="s">
@@ -10370,10 +10370,10 @@
         <v>1957</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C63" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D63" s="42"/>
       <c r="E63" s="22" t="s">
@@ -10408,10 +10408,10 @@
         <v>1958</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>1365</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>1366</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="22" t="s">
@@ -10446,10 +10446,10 @@
         <v>1959</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="22" t="s">
@@ -10484,10 +10484,10 @@
         <v>1960</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D66" s="42"/>
       <c r="E66" s="47" t="s">
@@ -10522,10 +10522,10 @@
         <v>1960</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D67" s="42"/>
       <c r="E67" s="48"/>
@@ -10556,10 +10556,10 @@
         <v>1961</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="22" t="s">
@@ -10594,10 +10594,10 @@
         <v>1962</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="22" t="s">
@@ -10632,10 +10632,10 @@
         <v>1963</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="22" t="s">
@@ -10670,10 +10670,10 @@
         <v>1964</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="22" t="s">
@@ -10708,10 +10708,10 @@
         <v>1965</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="22" t="s">
@@ -10746,10 +10746,10 @@
         <v>1966</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="22" t="s">
@@ -10784,10 +10784,10 @@
         <v>1967</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="22" t="s">
@@ -10822,10 +10822,10 @@
         <v>1968</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="22" t="s">
@@ -10860,10 +10860,10 @@
         <v>1969</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="22" t="s">
@@ -10898,10 +10898,10 @@
         <v>1970</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="22" t="s">
@@ -10936,10 +10936,10 @@
         <v>1971</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="24" t="s">
@@ -10974,10 +10974,10 @@
         <v>1972</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="22" t="s">
@@ -11012,10 +11012,10 @@
         <v>1973</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="22" t="s">
@@ -11050,10 +11050,10 @@
         <v>1974</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="22" t="s">
@@ -11088,10 +11088,10 @@
         <v>1975</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D82" s="42"/>
       <c r="E82" s="22" t="s">
@@ -11126,10 +11126,10 @@
         <v>1976</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D83" s="42"/>
       <c r="E83" s="22" t="s">
@@ -11164,10 +11164,10 @@
         <v>1977</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D84" s="42"/>
       <c r="E84" s="22" t="s">
@@ -11202,10 +11202,10 @@
         <v>1978</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D85" s="42"/>
       <c r="E85" s="22" t="s">
@@ -11240,10 +11240,10 @@
         <v>1979</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D86" s="42"/>
       <c r="E86" s="22" t="s">
@@ -11278,10 +11278,10 @@
         <v>1980</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D87" s="42"/>
       <c r="E87" s="22" t="s">
@@ -11316,10 +11316,10 @@
         <v>1981</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D88" s="42"/>
       <c r="E88" s="22" t="s">
@@ -11354,10 +11354,10 @@
         <v>1982</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C89" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D89" s="42"/>
       <c r="E89" s="22" t="s">
@@ -11392,10 +11392,10 @@
         <v>1983</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C90" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D90" s="42"/>
       <c r="E90" s="22" t="s">
@@ -11430,10 +11430,10 @@
         <v>1984</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C91" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D91" s="42"/>
       <c r="E91" s="22" t="s">
@@ -11468,10 +11468,10 @@
         <v>1985</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C92" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="22" t="s">
@@ -11506,10 +11506,10 @@
         <v>1986</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C93" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D93" s="42"/>
       <c r="E93" s="22" t="s">
@@ -11544,10 +11544,10 @@
         <v>1987</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C94" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D94" s="42"/>
       <c r="E94" s="22" t="s">
@@ -11582,10 +11582,10 @@
         <v>1988</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C95" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D95" s="42"/>
       <c r="E95" s="22" t="s">
@@ -11620,10 +11620,10 @@
         <v>1989</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C96" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="22" t="s">
@@ -11658,10 +11658,10 @@
         <v>1990</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C97" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D97" s="42"/>
       <c r="E97" s="22" t="s">
@@ -11696,10 +11696,10 @@
         <v>1991</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C98" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D98" s="42"/>
       <c r="E98" s="22" t="s">
@@ -11734,10 +11734,10 @@
         <v>1992</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C99" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="22" t="s">
@@ -11772,10 +11772,10 @@
         <v>1993</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C100" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="22" t="s">
@@ -11810,10 +11810,10 @@
         <v>1994</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C101" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D101" s="42"/>
       <c r="E101" s="22" t="s">
@@ -11848,10 +11848,10 @@
         <v>1995</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C102" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D102" s="42"/>
       <c r="E102" s="22" t="s">
@@ -11886,10 +11886,10 @@
         <v>1996</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C103" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D103" s="42"/>
       <c r="E103" s="22" t="s">
@@ -11924,10 +11924,10 @@
         <v>1997</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C104" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D104" s="42"/>
       <c r="E104" s="22" t="s">
@@ -11962,10 +11962,10 @@
         <v>1998</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C105" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D105" s="42"/>
       <c r="E105" s="22" t="s">
@@ -12000,10 +12000,10 @@
         <v>1999</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C106" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D106" s="42"/>
       <c r="E106" s="22" t="s">
@@ -12038,10 +12038,10 @@
         <v>2000</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C107" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D107" s="42"/>
       <c r="E107" s="22" t="s">
@@ -12076,10 +12076,10 @@
         <v>2001</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C108" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C108" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D108" s="42"/>
       <c r="E108" s="22" t="s">
@@ -12114,10 +12114,10 @@
         <v>2002</v>
       </c>
       <c r="B109" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C109" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C109" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D109" s="42"/>
       <c r="E109" s="22" t="s">
@@ -12152,10 +12152,10 @@
         <v>2003</v>
       </c>
       <c r="B110" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C110" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C110" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D110" s="42"/>
       <c r="E110" s="22" t="s">
@@ -12190,10 +12190,10 @@
         <v>2004</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C111" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C111" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D111" s="42"/>
       <c r="E111" s="22" t="s">
@@ -12228,10 +12228,10 @@
         <v>2005</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C112" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C112" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D112" s="42"/>
       <c r="E112" s="22" t="s">
@@ -12266,10 +12266,10 @@
         <v>2006</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C113" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C113" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D113" s="42"/>
       <c r="E113" s="22" t="s">
@@ -12304,10 +12304,10 @@
         <v>2007</v>
       </c>
       <c r="B114" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C114" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D114" s="42"/>
       <c r="E114" s="22" t="s">
@@ -12342,10 +12342,10 @@
         <v>2008</v>
       </c>
       <c r="B115" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C115" s="42" t="s">
         <v>1371</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>1372</v>
       </c>
       <c r="D115" s="42"/>
       <c r="E115" s="22" t="s">
@@ -12749,10 +12749,10 @@
       <c r="C126" s="42"/>
       <c r="D126" s="42"/>
       <c r="E126" s="24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F126" s="24" t="s">
         <v>1405</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>1406</v>
       </c>
       <c r="G126" s="23" t="s">
         <v>1328</v>
@@ -12785,10 +12785,10 @@
       <c r="C127" s="42"/>
       <c r="D127" s="42"/>
       <c r="E127" s="45" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G127" s="23" t="s">
         <v>1328</v>
@@ -12821,10 +12821,10 @@
       <c r="C128" s="42"/>
       <c r="D128" s="42"/>
       <c r="E128" s="45" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F128" s="45" t="s">
         <v>1420</v>
-      </c>
-      <c r="F128" s="45" t="s">
-        <v>1421</v>
       </c>
       <c r="G128" s="23" t="s">
         <v>1328</v>
@@ -12857,10 +12857,10 @@
       <c r="C129" s="42"/>
       <c r="D129" s="42"/>
       <c r="E129" s="45" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F129" s="45" t="s">
         <v>1422</v>
-      </c>
-      <c r="F129" s="45" t="s">
-        <v>1423</v>
       </c>
       <c r="G129" s="23" t="s">
         <v>1328</v>
@@ -12893,10 +12893,10 @@
       <c r="C130" s="42"/>
       <c r="D130" s="42"/>
       <c r="E130" s="45" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F130" s="45" t="s">
         <v>1424</v>
-      </c>
-      <c r="F130" s="45" t="s">
-        <v>1425</v>
       </c>
       <c r="G130" s="23" t="s">
         <v>1328</v>
@@ -13144,7 +13144,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H3:H12 J11:J12 J14 H14 H15:J125">
-    <cfRule type="containsText" dxfId="173" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13161,7 +13161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:J102">
-    <cfRule type="containsText" dxfId="172" priority="40" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="40" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13178,7 +13178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:J125">
-    <cfRule type="containsText" dxfId="171" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H119))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13195,7 +13195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126">
-    <cfRule type="containsText" dxfId="170" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13212,7 +13212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126">
-    <cfRule type="containsText" dxfId="169" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13229,7 +13229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12 J4:J10 I14">
-    <cfRule type="containsText" dxfId="168" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -13244,7 +13244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="167" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13259,11 +13259,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13 J13">
-    <cfRule type="containsText" dxfId="166" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13">
+  <conditionalFormatting sqref="J13 H13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13276,7 +13276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="165" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -13291,7 +13291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:J128 H130:J131">
-    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13308,7 +13308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:J128 H130:J131">
-    <cfRule type="containsText" dxfId="163" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13325,7 +13325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:J129">
-    <cfRule type="containsText" dxfId="162" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13342,7 +13342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:J129">
-    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13381,7 +13381,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13400,10 +13400,10 @@
         <v>1327</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1329</v>
+        <v>1447</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
@@ -13425,10 +13425,10 @@
       <c r="A2" s="53"/>
       <c r="B2" s="60"/>
       <c r="C2" s="40" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>1374</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>1375</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>0</v>
@@ -13926,10 +13926,10 @@
         <v>1913</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>1376</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>1377</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="26" t="s">
@@ -13964,10 +13964,10 @@
         <v>1913</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="26" t="s">
@@ -13999,10 +13999,10 @@
         <v>1914</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="26" t="s">
@@ -14037,10 +14037,10 @@
         <v>1915</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="26" t="s">
@@ -14076,10 +14076,10 @@
         <v>1916</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="26" t="s">
@@ -14114,10 +14114,10 @@
         <v>1917</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="26" t="s">
@@ -14152,10 +14152,10 @@
         <v>1918</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="26" t="s">
@@ -14190,10 +14190,10 @@
         <v>1919</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="26" t="s">
@@ -14228,10 +14228,10 @@
         <v>1920</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="26" t="s">
@@ -14266,10 +14266,10 @@
         <v>1921</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="26" t="s">
@@ -14344,10 +14344,10 @@
         <v>1923</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="26" t="s">
@@ -14382,10 +14382,10 @@
         <v>1924</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="26" t="s">
@@ -14420,10 +14420,10 @@
         <v>1925</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="26" t="s">
@@ -14458,10 +14458,10 @@
         <v>1926</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="26" t="s">
@@ -14496,10 +14496,10 @@
         <v>1927</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="26" t="s">
@@ -14534,10 +14534,10 @@
         <v>1928</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="26" t="s">
@@ -14572,10 +14572,10 @@
         <v>1929</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="26" t="s">
@@ -14610,10 +14610,10 @@
         <v>1930</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="26" t="s">
@@ -14648,10 +14648,10 @@
         <v>1931</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="23" t="s">
@@ -14766,10 +14766,10 @@
         <v>1934</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="26" t="s">
@@ -14804,10 +14804,10 @@
         <v>1935</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="26" t="s">
@@ -14842,10 +14842,10 @@
         <v>1936</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="26" t="s">
@@ -14880,10 +14880,10 @@
         <v>1937</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="26" t="s">
@@ -14918,10 +14918,10 @@
         <v>1938</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="23" t="s">
@@ -14956,10 +14956,10 @@
         <v>1938</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C43" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="26" t="s">
@@ -14994,10 +14994,10 @@
         <v>1939</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="26" t="s">
@@ -15032,10 +15032,10 @@
         <v>1940</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="26" t="s">
@@ -15070,10 +15070,10 @@
         <v>1941</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C46" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="26" t="s">
@@ -15108,10 +15108,10 @@
         <v>1942</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="26" t="s">
@@ -15146,10 +15146,10 @@
         <v>1942</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="26" t="s">
@@ -15181,10 +15181,10 @@
         <v>1943</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="26" t="s">
@@ -15219,10 +15219,10 @@
         <v>1944</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="26" t="s">
@@ -15257,10 +15257,10 @@
         <v>1945</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="26" t="s">
@@ -15295,10 +15295,10 @@
         <v>1946</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="26" t="s">
@@ -15333,10 +15333,10 @@
         <v>1947</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D53" s="42"/>
       <c r="E53" s="26" t="s">
@@ -15371,10 +15371,10 @@
         <v>1948</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D54" s="42"/>
       <c r="E54" s="26" t="s">
@@ -15409,10 +15409,10 @@
         <v>1949</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="26" t="s">
@@ -15447,10 +15447,10 @@
         <v>1950</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="26" t="s">
@@ -15485,10 +15485,10 @@
         <v>1951</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="26" t="s">
@@ -15523,10 +15523,10 @@
         <v>1952</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C58" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D58" s="42"/>
       <c r="E58" s="26" t="s">
@@ -15561,10 +15561,10 @@
         <v>1953</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D59" s="42"/>
       <c r="E59" s="26" t="s">
@@ -15599,10 +15599,10 @@
         <v>1954</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D60" s="42"/>
       <c r="E60" s="26" t="s">
@@ -15637,10 +15637,10 @@
         <v>1955</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="26" t="s">
@@ -15675,10 +15675,10 @@
         <v>1956</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="26" t="s">
@@ -15713,10 +15713,10 @@
         <v>1957</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C63" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D63" s="42"/>
       <c r="E63" s="26" t="s">
@@ -15751,10 +15751,10 @@
         <v>1958</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="26" t="s">
@@ -15789,10 +15789,10 @@
         <v>1959</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C65" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="26" t="s">
@@ -15827,10 +15827,10 @@
         <v>1960</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C66" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D66" s="42"/>
       <c r="E66" s="26" t="s">
@@ -15865,10 +15865,10 @@
         <v>1961</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D67" s="42"/>
       <c r="E67" s="26" t="s">
@@ -15903,10 +15903,10 @@
         <v>1962</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="26" t="s">
@@ -15941,10 +15941,10 @@
         <v>1963</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="26" t="s">
@@ -15979,10 +15979,10 @@
         <v>1964</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="26" t="s">
@@ -16017,10 +16017,10 @@
         <v>1965</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C71" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="26" t="s">
@@ -16055,10 +16055,10 @@
         <v>1966</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C72" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="26" t="s">
@@ -16093,10 +16093,10 @@
         <v>1967</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C73" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="26" t="s">
@@ -16131,10 +16131,10 @@
         <v>1968</v>
       </c>
       <c r="B74" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C74" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="23" t="s">
@@ -16169,10 +16169,10 @@
         <v>1969</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C75" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="23" t="s">
@@ -16207,10 +16207,10 @@
         <v>1970</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C76" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="23" t="s">
@@ -16245,10 +16245,10 @@
         <v>1971</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C77" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="26" t="s">
@@ -16283,10 +16283,10 @@
         <v>1972</v>
       </c>
       <c r="B78" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C78" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="26" t="s">
@@ -16321,10 +16321,10 @@
         <v>1973</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C79" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="26" t="s">
@@ -16359,10 +16359,10 @@
         <v>1974</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C80" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C80" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="26" t="s">
@@ -16397,10 +16397,10 @@
         <v>1975</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C81" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="26" t="s">
@@ -16435,10 +16435,10 @@
         <v>1976</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C82" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D82" s="42"/>
       <c r="E82" s="26" t="s">
@@ -16473,10 +16473,10 @@
         <v>1977</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C83" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D83" s="42"/>
       <c r="E83" s="26" t="s">
@@ -16511,10 +16511,10 @@
         <v>1978</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C84" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D84" s="42"/>
       <c r="E84" s="26" t="s">
@@ -16549,10 +16549,10 @@
         <v>1979</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C85" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D85" s="42"/>
       <c r="E85" s="26" t="s">
@@ -16587,10 +16587,10 @@
         <v>1980</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C86" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D86" s="42"/>
       <c r="E86" s="26" t="s">
@@ -16625,10 +16625,10 @@
         <v>1981</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C87" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D87" s="42"/>
       <c r="E87" s="26" t="s">
@@ -16663,10 +16663,10 @@
         <v>1982</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C88" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D88" s="42"/>
       <c r="E88" s="26" t="s">
@@ -16701,10 +16701,10 @@
         <v>1983</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C89" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D89" s="42"/>
       <c r="E89" s="26" t="s">
@@ -16739,10 +16739,10 @@
         <v>1984</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C90" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D90" s="42"/>
       <c r="E90" s="26" t="s">
@@ -16777,10 +16777,10 @@
         <v>1985</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C91" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D91" s="42"/>
       <c r="E91" s="26" t="s">
@@ -16815,10 +16815,10 @@
         <v>1986</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C92" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="26" t="s">
@@ -16853,10 +16853,10 @@
         <v>1987</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C93" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D93" s="42"/>
       <c r="E93" s="26" t="s">
@@ -16891,10 +16891,10 @@
         <v>1988</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C94" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D94" s="42"/>
       <c r="E94" s="26" t="s">
@@ -16929,10 +16929,10 @@
         <v>1989</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C95" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D95" s="42"/>
       <c r="E95" s="26" t="s">
@@ -16967,10 +16967,10 @@
         <v>1990</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C96" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="26" t="s">
@@ -17005,10 +17005,10 @@
         <v>1991</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C97" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D97" s="42"/>
       <c r="E97" s="26" t="s">
@@ -17043,10 +17043,10 @@
         <v>1992</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C98" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D98" s="42"/>
       <c r="E98" s="26" t="s">
@@ -17081,10 +17081,10 @@
         <v>1993</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C99" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="26" t="s">
@@ -17119,10 +17119,10 @@
         <v>1994</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C100" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="26" t="s">
@@ -17157,10 +17157,10 @@
         <v>1995</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C101" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D101" s="42"/>
       <c r="E101" s="26" t="s">
@@ -17195,10 +17195,10 @@
         <v>1996</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C102" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D102" s="42"/>
       <c r="E102" s="26" t="s">
@@ -17233,10 +17233,10 @@
         <v>1997</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C103" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D103" s="42"/>
       <c r="E103" s="26" t="s">
@@ -17271,10 +17271,10 @@
         <v>1998</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C104" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D104" s="42"/>
       <c r="E104" s="26" t="s">
@@ -17309,10 +17309,10 @@
         <v>1999</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C105" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D105" s="42"/>
       <c r="E105" s="26" t="s">
@@ -17347,10 +17347,10 @@
         <v>2000</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C106" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D106" s="42"/>
       <c r="E106" s="26" t="s">
@@ -17385,10 +17385,10 @@
         <v>2001</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C107" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D107" s="42"/>
       <c r="E107" s="26" t="s">
@@ -17423,10 +17423,10 @@
         <v>2002</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C108" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C108" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D108" s="42"/>
       <c r="E108" s="26" t="s">
@@ -17461,10 +17461,10 @@
         <v>2003</v>
       </c>
       <c r="B109" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C109" s="42" t="s">
         <v>1379</v>
-      </c>
-      <c r="C109" s="42" t="s">
-        <v>1380</v>
       </c>
       <c r="D109" s="42"/>
       <c r="E109" s="26" t="s">
@@ -17579,10 +17579,10 @@
         <v>2006</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D112" s="42"/>
       <c r="E112" s="26" t="s">
@@ -17617,10 +17617,10 @@
         <v>2007</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D113" s="42"/>
       <c r="E113" s="26" t="s">
@@ -17655,10 +17655,10 @@
         <v>2008</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D114" s="42"/>
       <c r="E114" s="26" t="s">
@@ -17693,10 +17693,10 @@
         <v>2009</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D115" s="42"/>
       <c r="E115" s="26" t="s">
@@ -17731,10 +17731,10 @@
         <v>2010</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D116" s="42"/>
       <c r="E116" s="22" t="s">
@@ -17769,10 +17769,10 @@
         <v>2011</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D117" s="42"/>
       <c r="E117" s="22" t="s">
@@ -17807,10 +17807,10 @@
         <v>2012</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D118" s="42"/>
       <c r="E118" s="22" t="s">
@@ -17845,10 +17845,10 @@
         <v>2013</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D119" s="42"/>
       <c r="E119" s="22" t="s">
@@ -17883,10 +17883,10 @@
         <v>2014</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D120" s="42"/>
       <c r="E120" s="22" t="s">
@@ -17921,10 +17921,10 @@
         <v>2015</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D121" s="42"/>
       <c r="E121" s="22" t="s">
@@ -17959,10 +17959,10 @@
         <v>2016</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D122" s="42"/>
       <c r="E122" s="24" t="s">
@@ -17997,10 +17997,10 @@
         <v>2017</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D123" s="42"/>
       <c r="E123" s="24" t="s">
@@ -18035,10 +18035,10 @@
         <v>2018</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D124" s="42"/>
       <c r="E124" s="24" t="s">
@@ -18073,17 +18073,17 @@
         <v>2019</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D125" s="42"/>
       <c r="E125" s="24" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F125" s="24" t="s">
         <v>1407</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>1408</v>
       </c>
       <c r="G125" s="23" t="s">
         <v>1328</v>
@@ -18111,17 +18111,17 @@
         <v>2020</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D126" s="42"/>
       <c r="E126" s="45" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F126" s="45" t="s">
         <v>1434</v>
-      </c>
-      <c r="F126" s="45" t="s">
-        <v>1435</v>
       </c>
       <c r="G126" s="23" t="s">
         <v>1328</v>
@@ -18149,17 +18149,17 @@
         <v>2021</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D127" s="42"/>
       <c r="E127" s="45" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F127" s="45" t="s">
         <v>1436</v>
-      </c>
-      <c r="F127" s="45" t="s">
-        <v>1437</v>
       </c>
       <c r="G127" s="23" t="s">
         <v>1328</v>
@@ -18187,17 +18187,17 @@
         <v>2022</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D128" s="42"/>
       <c r="E128" s="45" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F128" s="45" t="s">
         <v>1438</v>
-      </c>
-      <c r="F128" s="45" t="s">
-        <v>1439</v>
       </c>
       <c r="G128" s="23" t="s">
         <v>1328</v>
@@ -18225,17 +18225,17 @@
         <v>2023</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D129" s="42"/>
       <c r="E129" s="45" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F129" s="45" t="s">
         <v>1440</v>
-      </c>
-      <c r="F129" s="45" t="s">
-        <v>1441</v>
       </c>
       <c r="G129" s="23" t="s">
         <v>1328</v>
@@ -18263,10 +18263,10 @@
         <v>2024</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D130" s="42"/>
       <c r="E130" s="45"/>
@@ -18338,7 +18338,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I49:J51 H52:J109 H112:J125 H127:J127 H129:J130">
-    <cfRule type="containsText" dxfId="160" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="101">
@@ -18353,7 +18353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H15 H25 H27 H34 I38 J25 H28:I33 H39:J41 H42:I42 H15:J24 H110:J111">
-    <cfRule type="containsText" dxfId="159" priority="92" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="92" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18370,7 +18370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14">
-    <cfRule type="containsText" dxfId="158" priority="90" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="90" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="91">
@@ -18385,7 +18385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J14">
-    <cfRule type="containsText" dxfId="157" priority="88" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="88" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="89">
@@ -18400,7 +18400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="156" priority="86" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="86" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="87">
@@ -18415,7 +18415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="155" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="84" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -18430,7 +18430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="154" priority="82" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="82" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="83">
@@ -18445,7 +18445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="153" priority="76" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="76" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="77">
@@ -18460,7 +18460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="152" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="79">
@@ -18475,7 +18475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="151" priority="74" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="74" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -18490,7 +18490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="150" priority="72" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="72" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="73">
@@ -18505,7 +18505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="149" priority="70" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="70" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="71">
@@ -18520,7 +18520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="148" priority="68" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="68" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -18535,7 +18535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="147" priority="66" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="66" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="67">
@@ -18550,7 +18550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="146" priority="64" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="64" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -18565,7 +18565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="145" priority="62" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="62" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="63">
@@ -18580,7 +18580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="144" priority="60" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="60" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="61">
@@ -18595,7 +18595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="143" priority="58" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="58" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="59">
@@ -18610,7 +18610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J35">
-    <cfRule type="containsText" dxfId="142" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18627,7 +18627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="141" priority="42" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="42" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="43">
@@ -18642,7 +18642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="140" priority="40" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="40" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18659,7 +18659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="139" priority="38" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="38" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="39">
@@ -18674,7 +18674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:J44 J45:J46 H45:I47 H48:H51">
-    <cfRule type="containsText" dxfId="138" priority="36" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="36" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="37">
@@ -18689,7 +18689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="137" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18706,7 +18706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="136" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18723,7 +18723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="135" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -18738,7 +18738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126 H128:J128">
-    <cfRule type="containsText" dxfId="134" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18755,7 +18755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126 H128:J128">
-    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18794,7 +18794,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B135" sqref="B135"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18813,10 +18813,10 @@
         <v>1327</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1329</v>
+        <v>1447</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
@@ -18836,10 +18836,10 @@
       <c r="A2" s="53"/>
       <c r="B2" s="60"/>
       <c r="C2" s="40" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>1374</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>1375</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>0</v>
@@ -20855,10 +20855,10 @@
         <v>1946</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C50" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="8" t="s">
@@ -20899,10 +20899,10 @@
         <v>1947</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C51" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="8" t="s">
@@ -20943,10 +20943,10 @@
         <v>1948</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="8" t="s">
@@ -20987,10 +20987,10 @@
         <v>1949</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D53" s="42"/>
       <c r="E53" s="8" t="s">
@@ -21031,10 +21031,10 @@
         <v>1950</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D54" s="42"/>
       <c r="E54" s="8" t="s">
@@ -21075,10 +21075,10 @@
         <v>1951</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="8" t="s">
@@ -21119,10 +21119,10 @@
         <v>1952</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="8" t="s">
@@ -21163,10 +21163,10 @@
         <v>1953</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="8" t="s">
@@ -21207,10 +21207,10 @@
         <v>1954</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C58" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D58" s="42"/>
       <c r="E58" s="8" t="s">
@@ -21251,10 +21251,10 @@
         <v>1955</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D59" s="42"/>
       <c r="E59" s="8" t="s">
@@ -21295,10 +21295,10 @@
         <v>1956</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D60" s="42"/>
       <c r="E60" s="8" t="s">
@@ -21339,10 +21339,10 @@
         <v>1957</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="8" t="s">
@@ -21383,10 +21383,10 @@
         <v>1958</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="8" t="s">
@@ -21427,10 +21427,10 @@
         <v>1959</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C63" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D63" s="42"/>
       <c r="E63" s="8" t="s">
@@ -21471,10 +21471,10 @@
         <v>1960</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="8" t="s">
@@ -21515,10 +21515,10 @@
         <v>1961</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C65" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="8" t="s">
@@ -21559,10 +21559,10 @@
         <v>1962</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C66" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D66" s="42"/>
       <c r="E66" s="8" t="s">
@@ -21603,10 +21603,10 @@
         <v>1963</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D67" s="42"/>
       <c r="E67" s="8" t="s">
@@ -21647,10 +21647,10 @@
         <v>1964</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>1383</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>1384</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="8" t="s">
@@ -21691,10 +21691,10 @@
         <v>1965</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="8" t="s">
@@ -21735,10 +21735,10 @@
         <v>1966</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="8" t="s">
@@ -21779,10 +21779,10 @@
         <v>1967</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="8" t="s">
@@ -21823,10 +21823,10 @@
         <v>1968</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="8" t="s">
@@ -21867,10 +21867,10 @@
         <v>1969</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="8" t="s">
@@ -21911,10 +21911,10 @@
         <v>1970</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="8" t="s">
@@ -21955,10 +21955,10 @@
         <v>1971</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="8" t="s">
@@ -21999,10 +21999,10 @@
         <v>1972</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="8" t="s">
@@ -22043,10 +22043,10 @@
         <v>1973</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="8" t="s">
@@ -22087,10 +22087,10 @@
         <v>1974</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="8" t="s">
@@ -22131,10 +22131,10 @@
         <v>1975</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="8" t="s">
@@ -22175,10 +22175,10 @@
         <v>1976</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="8" t="s">
@@ -22219,10 +22219,10 @@
         <v>1977</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="8" t="s">
@@ -22263,10 +22263,10 @@
         <v>1978</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D82" s="42"/>
       <c r="E82" s="8" t="s">
@@ -22307,10 +22307,10 @@
         <v>1979</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D83" s="42"/>
       <c r="E83" s="8" t="s">
@@ -22351,10 +22351,10 @@
         <v>1980</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D84" s="42"/>
       <c r="E84" s="8" t="s">
@@ -22395,10 +22395,10 @@
         <v>1981</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D85" s="42"/>
       <c r="E85" s="8" t="s">
@@ -22439,10 +22439,10 @@
         <v>1982</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D86" s="42"/>
       <c r="E86" s="8" t="s">
@@ -22483,10 +22483,10 @@
         <v>1983</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D87" s="42"/>
       <c r="E87" s="8" t="s">
@@ -22527,10 +22527,10 @@
         <v>1984</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D88" s="42"/>
       <c r="E88" s="8" t="s">
@@ -22571,10 +22571,10 @@
         <v>1985</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D89" s="42"/>
       <c r="E89" s="8" t="s">
@@ -22615,10 +22615,10 @@
         <v>1986</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D90" s="42"/>
       <c r="E90" s="8" t="s">
@@ -22659,10 +22659,10 @@
         <v>1987</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D91" s="42"/>
       <c r="E91" s="8" t="s">
@@ -22703,10 +22703,10 @@
         <v>1988</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="8" t="s">
@@ -22747,10 +22747,10 @@
         <v>1989</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D93" s="42"/>
       <c r="E93" s="8" t="s">
@@ -22791,10 +22791,10 @@
         <v>1990</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D94" s="42"/>
       <c r="E94" s="8" t="s">
@@ -22835,10 +22835,10 @@
         <v>1991</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D95" s="42"/>
       <c r="E95" s="8" t="s">
@@ -22879,10 +22879,10 @@
         <v>1992</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="8" t="s">
@@ -22923,10 +22923,10 @@
         <v>1993</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D97" s="42"/>
       <c r="E97" s="8" t="s">
@@ -22967,10 +22967,10 @@
         <v>1994</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D98" s="42"/>
       <c r="E98" s="8" t="s">
@@ -23011,10 +23011,10 @@
         <v>1995</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="8" t="s">
@@ -23055,10 +23055,10 @@
         <v>1996</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="8" t="s">
@@ -23099,10 +23099,10 @@
         <v>1997</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D101" s="42"/>
       <c r="E101" s="8" t="s">
@@ -23143,10 +23143,10 @@
         <v>1998</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D102" s="42"/>
       <c r="E102" s="8" t="s">
@@ -23187,10 +23187,10 @@
         <v>1999</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D103" s="42"/>
       <c r="E103" s="8" t="s">
@@ -23231,10 +23231,10 @@
         <v>2000</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D104" s="42"/>
       <c r="E104" s="8" t="s">
@@ -23275,10 +23275,10 @@
         <v>2001</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D105" s="42"/>
       <c r="E105" s="8" t="s">
@@ -23319,10 +23319,10 @@
         <v>2002</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D106" s="42"/>
       <c r="E106" s="8" t="s">
@@ -23363,10 +23363,10 @@
         <v>2003</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D107" s="42"/>
       <c r="E107" s="8" t="s">
@@ -23407,10 +23407,10 @@
         <v>2004</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D108" s="42"/>
       <c r="E108" s="8" t="s">
@@ -23451,10 +23451,10 @@
         <v>2005</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D109" s="42"/>
       <c r="E109" s="8" t="s">
@@ -23495,10 +23495,10 @@
         <v>2006</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D110" s="42"/>
       <c r="E110" s="8" t="s">
@@ -23539,10 +23539,10 @@
         <v>2007</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D111" s="42"/>
       <c r="E111" s="8" t="s">
@@ -23583,10 +23583,10 @@
         <v>2008</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D112" s="42"/>
       <c r="E112" s="8" t="s">
@@ -23627,10 +23627,10 @@
         <v>2009</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D113" s="42"/>
       <c r="E113" s="8" t="s">
@@ -23671,10 +23671,10 @@
         <v>2010</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D114" s="42"/>
       <c r="E114" s="8" t="s">
@@ -23715,10 +23715,10 @@
         <v>2011</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D115" s="42"/>
       <c r="E115" s="8" t="s">
@@ -23759,10 +23759,10 @@
         <v>2012</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D116" s="42"/>
       <c r="E116" s="8" t="s">
@@ -23803,10 +23803,10 @@
         <v>2013</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D117" s="42"/>
       <c r="E117" s="8" t="s">
@@ -23847,10 +23847,10 @@
         <v>2014</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D118" s="42"/>
       <c r="E118" s="8" t="s">
@@ -23891,10 +23891,10 @@
         <v>2015</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D119" s="42"/>
       <c r="E119" s="8" t="s">
@@ -23935,10 +23935,10 @@
         <v>2016</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D120" s="42"/>
       <c r="E120" s="8" t="s">
@@ -23979,10 +23979,10 @@
         <v>2017</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D121" s="42"/>
       <c r="E121" s="7" t="s">
@@ -24023,10 +24023,10 @@
         <v>2018</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D122" s="42"/>
       <c r="E122" s="7" t="s">
@@ -24067,17 +24067,17 @@
         <v>2019</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D123" s="42"/>
       <c r="E123" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>1409</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>1410</v>
       </c>
       <c r="G123" s="23" t="s">
         <v>1328</v>
@@ -24111,17 +24111,17 @@
         <v>2020</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D124" s="42"/>
       <c r="E124" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>1427</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>1428</v>
       </c>
       <c r="G124" s="23" t="s">
         <v>1328</v>
@@ -24155,17 +24155,17 @@
         <v>2021</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D125" s="42"/>
       <c r="E125" s="7" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G125" s="23" t="s">
         <v>1328</v>
@@ -24199,17 +24199,17 @@
         <v>2022</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D126" s="42"/>
       <c r="E126" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>1430</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>1431</v>
       </c>
       <c r="G126" s="23" t="s">
         <v>1328</v>
@@ -24243,17 +24243,17 @@
         <v>2023</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D127" s="42"/>
       <c r="E127" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>1432</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>1433</v>
       </c>
       <c r="G127" s="23" t="s">
         <v>1328</v>
@@ -24287,10 +24287,10 @@
         <v>2024</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D128" s="42"/>
       <c r="E128" s="7"/>
@@ -24344,7 +24344,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J38:J48 K39:K48 I49:K123 L3:L11 I125:K125 I127:K127">
-    <cfRule type="containsText" dxfId="132" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24361,7 +24361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I16 I9:J15 I17:J17 I27:I35 I18:I25 K25:K26 K37:K38">
-    <cfRule type="containsText" dxfId="131" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24378,7 +24378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="130" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24395,7 +24395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="129" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24412,7 +24412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="128" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24429,7 +24429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="127" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24446,7 +24446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K19">
-    <cfRule type="containsText" dxfId="126" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24463,7 +24463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L123 L125 L127">
-    <cfRule type="containsText" dxfId="125" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24480,7 +24480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="124" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24497,7 +24497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsText" dxfId="123" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24514,7 +24514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J37">
-    <cfRule type="containsText" dxfId="122" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24531,7 +24531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I48">
-    <cfRule type="containsText" dxfId="121" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24548,7 +24548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24565,7 +24565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="119" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24582,7 +24582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24599,7 +24599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35 K27:K34">
-    <cfRule type="containsText" dxfId="117" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24616,7 +24616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J33">
-    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24633,7 +24633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J25 K20:K24">
-    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24650,7 +24650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24667,7 +24667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124:K124 I126:K126">
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24684,11 +24684,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124 L126">
-    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
+  <conditionalFormatting sqref="L126 L124">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24701,7 +24701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:K128">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24718,7 +24718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24757,7 +24757,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -24777,10 +24777,10 @@
         <v>1327</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1329</v>
+        <v>1447</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
@@ -24800,10 +24800,10 @@
       <c r="A2" s="53"/>
       <c r="B2" s="60"/>
       <c r="C2" s="40" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>1374</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>1375</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>1916</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>1386</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>1387</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="8" t="s">
@@ -25590,10 +25590,10 @@
         <v>1917</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>1386</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>1387</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="8" t="s">
@@ -25634,10 +25634,10 @@
         <v>1918</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="8" t="s">
@@ -25678,10 +25678,10 @@
         <v>1919</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="8" t="s">
@@ -25722,10 +25722,10 @@
         <v>1920</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="8" t="s">
@@ -25766,10 +25766,10 @@
         <v>1921</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="8" t="s">
@@ -25810,10 +25810,10 @@
         <v>1922</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="9" t="s">
@@ -25854,10 +25854,10 @@
         <v>1923</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="8" t="s">
@@ -25898,10 +25898,10 @@
         <v>1924</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="8" t="s">
@@ -25942,10 +25942,10 @@
         <v>1925</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="8" t="s">
@@ -25986,10 +25986,10 @@
         <v>1926</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="8" t="s">
@@ -26030,10 +26030,10 @@
         <v>1927</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="8" t="s">
@@ -26074,10 +26074,10 @@
         <v>1928</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="8" t="s">
@@ -26118,10 +26118,10 @@
         <v>1929</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="8" t="s">
@@ -26162,10 +26162,10 @@
         <v>1930</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="8" t="s">
@@ -26252,13 +26252,13 @@
         <v>1932</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="D36" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>858</v>
@@ -26344,13 +26344,13 @@
         <v>1934</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="D38" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>861</v>
@@ -26390,13 +26390,13 @@
         <v>1935</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="D39" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>863</v>
@@ -26436,13 +26436,13 @@
         <v>1936</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="D40" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>866</v>
@@ -26482,13 +26482,13 @@
         <v>1937</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="D41" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>869</v>
@@ -26528,13 +26528,13 @@
         <v>1938</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C42" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="D42" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>872</v>
@@ -26574,13 +26574,13 @@
         <v>1939</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C43" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="D43" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>874</v>
@@ -26620,13 +26620,13 @@
         <v>1940</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="D44" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>877</v>
@@ -26666,13 +26666,13 @@
         <v>1941</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="D45" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>880</v>
@@ -26712,13 +26712,13 @@
         <v>1942</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C46" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="D46" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>883</v>
@@ -26758,13 +26758,13 @@
         <v>1943</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="D47" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>886</v>
@@ -26804,13 +26804,13 @@
         <v>1944</v>
       </c>
       <c r="B48" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="D48" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>889</v>
@@ -26850,13 +26850,13 @@
         <v>1945</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C49" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="D49" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>892</v>
@@ -26896,13 +26896,13 @@
         <v>1946</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C50" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="D50" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>895</v>
@@ -26942,13 +26942,13 @@
         <v>1947</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C51" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="D51" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>898</v>
@@ -26988,13 +26988,13 @@
         <v>1948</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="D52" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>901</v>
@@ -27034,13 +27034,13 @@
         <v>1949</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="D53" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>904</v>
@@ -27080,13 +27080,13 @@
         <v>1950</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="D54" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>906</v>
@@ -27126,13 +27126,13 @@
         <v>1951</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="D55" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>909</v>
@@ -27172,13 +27172,13 @@
         <v>1952</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="D56" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>912</v>
@@ -27218,13 +27218,13 @@
         <v>1953</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="D57" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>915</v>
@@ -27264,13 +27264,13 @@
         <v>1954</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C58" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="D58" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>918</v>
@@ -27310,13 +27310,13 @@
         <v>1955</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="D59" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D59" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>921</v>
@@ -27356,13 +27356,13 @@
         <v>1956</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="D60" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>923</v>
@@ -27402,13 +27402,13 @@
         <v>1957</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="D61" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>925</v>
@@ -27448,13 +27448,13 @@
         <v>1958</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="D62" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>927</v>
@@ -27494,13 +27494,13 @@
         <v>1959</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C63" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="D63" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>929</v>
@@ -27540,13 +27540,13 @@
         <v>1960</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="D64" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D64" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>931</v>
@@ -27586,13 +27586,13 @@
         <v>1961</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C65" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="D65" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>933</v>
@@ -27632,13 +27632,13 @@
         <v>1962</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C66" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="D66" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>935</v>
@@ -27678,13 +27678,13 @@
         <v>1963</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="D67" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D67" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>937</v>
@@ -27724,13 +27724,13 @@
         <v>1964</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="D68" s="42" t="s">
         <v>1390</v>
-      </c>
-      <c r="D68" s="42" t="s">
-        <v>1391</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>939</v>
@@ -27770,13 +27770,13 @@
         <v>1965</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D69" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>941</v>
@@ -27816,13 +27816,13 @@
         <v>1966</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D70" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>942</v>
@@ -27862,13 +27862,13 @@
         <v>1967</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C71" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D71" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>943</v>
@@ -27908,13 +27908,13 @@
         <v>1968</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C72" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D72" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>944</v>
@@ -27954,13 +27954,13 @@
         <v>1969</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C73" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C73" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D73" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>946</v>
@@ -28000,13 +28000,13 @@
         <v>1970</v>
       </c>
       <c r="B74" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C74" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C74" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D74" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>948</v>
@@ -28046,13 +28046,13 @@
         <v>1971</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C75" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C75" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D75" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>950</v>
@@ -28092,13 +28092,13 @@
         <v>1972</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C76" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C76" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D76" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>952</v>
@@ -28138,13 +28138,13 @@
         <v>1973</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C77" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C77" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D77" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>954</v>
@@ -28184,13 +28184,13 @@
         <v>1974</v>
       </c>
       <c r="B78" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C78" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>1390</v>
-      </c>
       <c r="D78" s="42" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>956</v>
@@ -28230,13 +28230,13 @@
         <v>1975</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C79" s="42" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D79" s="42" t="s">
         <v>1393</v>
-      </c>
-      <c r="D79" s="42" t="s">
-        <v>1394</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>3</v>
@@ -28276,10 +28276,10 @@
         <v>1975</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="69" t="s">
@@ -28320,10 +28320,10 @@
         <v>1976</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="70"/>
@@ -28353,13 +28353,13 @@
         <v>1976</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C82" s="42" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D82" s="42" t="s">
         <v>1393</v>
-      </c>
-      <c r="D82" s="42" t="s">
-        <v>1394</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>3</v>
@@ -28399,10 +28399,10 @@
         <v>1977</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C83" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D83" s="42"/>
       <c r="E83" s="8" t="s">
@@ -28443,10 +28443,10 @@
         <v>1978</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C84" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D84" s="42"/>
       <c r="E84" s="8" t="s">
@@ -28487,10 +28487,10 @@
         <v>1979</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C85" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D85" s="42"/>
       <c r="E85" s="8" t="s">
@@ -28531,10 +28531,10 @@
         <v>1980</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C86" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D86" s="42"/>
       <c r="E86" s="8" t="s">
@@ -28575,10 +28575,10 @@
         <v>1981</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C87" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D87" s="42"/>
       <c r="E87" s="8" t="s">
@@ -28619,10 +28619,10 @@
         <v>1982</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C88" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D88" s="42"/>
       <c r="E88" s="8" t="s">
@@ -28663,10 +28663,10 @@
         <v>1983</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C89" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D89" s="42"/>
       <c r="E89" s="8" t="s">
@@ -28707,10 +28707,10 @@
         <v>1984</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C90" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D90" s="42"/>
       <c r="E90" s="8" t="s">
@@ -28751,10 +28751,10 @@
         <v>1985</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C91" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D91" s="42"/>
       <c r="E91" s="8" t="s">
@@ -28795,10 +28795,10 @@
         <v>1986</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C92" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="8" t="s">
@@ -28839,10 +28839,10 @@
         <v>1987</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C93" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D93" s="42"/>
       <c r="E93" s="8" t="s">
@@ -28883,10 +28883,10 @@
         <v>1988</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C94" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D94" s="42"/>
       <c r="E94" s="8" t="s">
@@ -28927,10 +28927,10 @@
         <v>1989</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C95" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D95" s="42"/>
       <c r="E95" s="8" t="s">
@@ -28971,10 +28971,10 @@
         <v>1990</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C96" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="8" t="s">
@@ -29015,10 +29015,10 @@
         <v>1991</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C97" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D97" s="42"/>
       <c r="E97" s="8" t="s">
@@ -29059,10 +29059,10 @@
         <v>1992</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C98" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D98" s="42"/>
       <c r="E98" s="8" t="s">
@@ -29103,10 +29103,10 @@
         <v>1993</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C99" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="8" t="s">
@@ -29147,10 +29147,10 @@
         <v>1994</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C100" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="8" t="s">
@@ -29191,10 +29191,10 @@
         <v>1995</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C101" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D101" s="42"/>
       <c r="E101" s="8" t="s">
@@ -29235,10 +29235,10 @@
         <v>1996</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C102" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D102" s="42"/>
       <c r="E102" s="8" t="s">
@@ -29279,10 +29279,10 @@
         <v>1997</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C103" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D103" s="42"/>
       <c r="E103" s="8" t="s">
@@ -29323,17 +29323,17 @@
         <v>1998</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C104" s="42" t="s">
         <v>1389</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>1390</v>
       </c>
       <c r="D104" s="42"/>
       <c r="E104" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>1411</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>1412</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>1328</v>
@@ -30245,20 +30245,20 @@
         <v>2020</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D126" s="42"/>
       <c r="E126" s="7" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F126" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>1418</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>1419</v>
       </c>
       <c r="H126" s="9" t="s">
         <v>3</v>
@@ -30293,7 +30293,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I38:I48 J43:J48 J38:J41 K45:K48 L13:L19 I21:K24 K81 L21:L78 I49:K78 I80:K80 L80:L125 I82:K125">
-    <cfRule type="containsText" dxfId="111" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30310,7 +30310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15 I14:K14 I13:J13 I3:J9 I10:K12 I16:K18 K14:K15 I25 I27 I29 I34 I28:K28 K27 I30:K30 I31:J33 K31:K34 I19:J19 I20">
-    <cfRule type="containsText" dxfId="110" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30327,7 +30327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="109" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30344,7 +30344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L12 K3:K6">
-    <cfRule type="containsText" dxfId="108" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30361,7 +30361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="107" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30378,7 +30378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="106" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30395,7 +30395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="105" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30412,7 +30412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="104" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30429,7 +30429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="103" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30446,7 +30446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="102" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30463,7 +30463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="101" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30480,7 +30480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="100" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30497,7 +30497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="99" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30514,7 +30514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="98" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30531,7 +30531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="97" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30548,7 +30548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="96" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30565,7 +30565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="95" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30582,7 +30582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="94" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30599,7 +30599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30616,7 +30616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="92" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30633,7 +30633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="91" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30650,12 +30650,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K44">
-    <cfRule type="containsText" dxfId="90" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="89" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30672,7 +30672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="88" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30689,7 +30689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="containsText" dxfId="87" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30706,7 +30706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="86" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30723,7 +30723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="85" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30740,7 +30740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="84" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30757,7 +30757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30786,7 +30786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L20">
-    <cfRule type="containsText" dxfId="82" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30803,7 +30803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:L79">
-    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30820,7 +30820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L126">
-    <cfRule type="containsText" dxfId="80" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30837,7 +30837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30854,7 +30854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126">
-    <cfRule type="containsText" dxfId="78" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30871,7 +30871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30907,7 +30907,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30927,10 +30927,10 @@
         <v>1327</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1329</v>
+        <v>1447</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
@@ -30940,7 +30940,7 @@
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
       <c r="I1" s="67" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -30950,10 +30950,10 @@
       <c r="A2" s="53"/>
       <c r="B2" s="60"/>
       <c r="C2" s="40" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>1374</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>1375</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>0</v>
@@ -30985,7 +30985,7 @@
         <v>1900</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -31027,7 +31027,7 @@
         <v>1901</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -31069,7 +31069,7 @@
         <v>1902</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -31111,7 +31111,7 @@
         <v>1903</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -31153,7 +31153,7 @@
         <v>1904</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -31195,7 +31195,7 @@
         <v>1905</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -31237,7 +31237,7 @@
         <v>1906</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -31279,7 +31279,7 @@
         <v>1907</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -31321,7 +31321,7 @@
         <v>1908</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -31363,7 +31363,7 @@
         <v>1909</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -31405,7 +31405,7 @@
         <v>1910</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -31447,7 +31447,7 @@
         <v>1911</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -31489,7 +31489,7 @@
         <v>1912</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
@@ -31531,7 +31531,7 @@
         <v>1913</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -31573,7 +31573,7 @@
         <v>1914</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -31615,7 +31615,7 @@
         <v>1915</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -31657,7 +31657,7 @@
         <v>1916</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -31699,7 +31699,7 @@
         <v>1917</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -31741,20 +31741,20 @@
         <v>1917</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="30" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>1334</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>1335</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>3</v>
@@ -31782,20 +31782,20 @@
         <v>1917</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>1332</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>1333</v>
       </c>
       <c r="H22" s="32" t="s">
         <v>3</v>
@@ -31823,7 +31823,7 @@
         <v>1918</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
@@ -31865,7 +31865,7 @@
         <v>1919</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -31907,7 +31907,7 @@
         <v>1920</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -31949,7 +31949,7 @@
         <v>1921</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
@@ -32037,7 +32037,7 @@
         <v>1923</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -32217,7 +32217,7 @@
         <v>1927</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -32259,7 +32259,7 @@
         <v>1928</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
@@ -32301,7 +32301,7 @@
         <v>1929</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
@@ -32481,7 +32481,7 @@
         <v>1933</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
@@ -32523,7 +32523,7 @@
         <v>1934</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
@@ -32565,7 +32565,7 @@
         <v>1935</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
@@ -32607,7 +32607,7 @@
         <v>1936</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
@@ -32649,7 +32649,7 @@
         <v>1937</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
@@ -32691,7 +32691,7 @@
         <v>1938</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -32733,7 +32733,7 @@
         <v>1939</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
@@ -32775,7 +32775,7 @@
         <v>1940</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
@@ -32817,7 +32817,7 @@
         <v>1941</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
@@ -32859,7 +32859,7 @@
         <v>1942</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
@@ -32901,7 +32901,7 @@
         <v>1943</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
@@ -32943,7 +32943,7 @@
         <v>1944</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="42"/>
@@ -32985,7 +32985,7 @@
         <v>1945</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
@@ -33027,7 +33027,7 @@
         <v>1946</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="42"/>
@@ -33069,7 +33069,7 @@
         <v>1947</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="42"/>
@@ -33111,7 +33111,7 @@
         <v>1948</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C53" s="42"/>
       <c r="D53" s="42"/>
@@ -33153,7 +33153,7 @@
         <v>1949</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -33195,7 +33195,7 @@
         <v>1950</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="42"/>
@@ -33237,7 +33237,7 @@
         <v>1951</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
@@ -33279,7 +33279,7 @@
         <v>1952</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
@@ -33321,7 +33321,7 @@
         <v>1953</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
@@ -33363,7 +33363,7 @@
         <v>1954</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
@@ -33405,7 +33405,7 @@
         <v>1955</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
@@ -33447,7 +33447,7 @@
         <v>1956</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="42"/>
@@ -33489,7 +33489,7 @@
         <v>1957</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
@@ -33531,7 +33531,7 @@
         <v>1958</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
@@ -33573,7 +33573,7 @@
         <v>1959</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
@@ -33615,7 +33615,7 @@
         <v>1960</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
@@ -33657,7 +33657,7 @@
         <v>1961</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
@@ -33699,7 +33699,7 @@
         <v>1962</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="42"/>
@@ -33741,7 +33741,7 @@
         <v>1963</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="42"/>
@@ -33783,10 +33783,10 @@
         <v>1964</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>1397</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>1398</v>
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="30" t="s">
@@ -33827,10 +33827,10 @@
         <v>1965</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="30" t="s">
@@ -33871,10 +33871,10 @@
         <v>1966</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="30" t="s">
@@ -33915,10 +33915,10 @@
         <v>1967</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="30" t="s">
@@ -33959,10 +33959,10 @@
         <v>1968</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="32" t="s">
@@ -34003,10 +34003,10 @@
         <v>1969</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="32" t="s">
@@ -34047,17 +34047,17 @@
         <v>1970</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G75" s="34" t="s">
         <v>1328</v>
@@ -34091,10 +34091,10 @@
         <v>1971</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="30" t="s">
@@ -34135,10 +34135,10 @@
         <v>1972</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="30" t="s">
@@ -34179,10 +34179,10 @@
         <v>1973</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="30" t="s">
@@ -34223,10 +34223,10 @@
         <v>1974</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="30" t="s">
@@ -34267,13 +34267,13 @@
         <v>1975</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E80" s="32" t="s">
         <v>3</v>
@@ -34308,10 +34308,10 @@
         <v>1975</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="74" t="s">
@@ -34352,10 +34352,10 @@
         <v>1976</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D82" s="42"/>
       <c r="E82" s="75"/>
@@ -34388,13 +34388,13 @@
         <v>1976</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E83" s="32" t="s">
         <v>3</v>
@@ -34431,10 +34431,10 @@
         <v>1977</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D84" s="42"/>
       <c r="E84" s="30" t="s">
@@ -34475,10 +34475,10 @@
         <v>1978</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D85" s="42"/>
       <c r="E85" s="30" t="s">
@@ -34519,10 +34519,10 @@
         <v>1979</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D86" s="42"/>
       <c r="E86" s="30" t="s">
@@ -34563,10 +34563,10 @@
         <v>1980</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D87" s="42"/>
       <c r="E87" s="30" t="s">
@@ -34607,10 +34607,10 @@
         <v>1981</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D88" s="42"/>
       <c r="E88" s="30" t="s">
@@ -34651,10 +34651,10 @@
         <v>1982</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D89" s="42"/>
       <c r="E89" s="30" t="s">
@@ -34695,10 +34695,10 @@
         <v>1983</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D90" s="42"/>
       <c r="E90" s="30" t="s">
@@ -34739,10 +34739,10 @@
         <v>1984</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D91" s="42"/>
       <c r="E91" s="30" t="s">
@@ -34783,10 +34783,10 @@
         <v>1985</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="30" t="s">
@@ -34827,10 +34827,10 @@
         <v>1986</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D93" s="42"/>
       <c r="E93" s="30" t="s">
@@ -34871,17 +34871,17 @@
         <v>1987</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D94" s="42"/>
       <c r="E94" s="30" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G94" s="34" t="s">
         <v>1328</v>
@@ -34915,10 +34915,10 @@
         <v>1988</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D95" s="42"/>
       <c r="E95" s="30" t="s">
@@ -34959,10 +34959,10 @@
         <v>1989</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="30" t="s">
@@ -35003,10 +35003,10 @@
         <v>1990</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D97" s="42"/>
       <c r="E97" s="30" t="s">
@@ -35047,10 +35047,10 @@
         <v>1991</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D98" s="42"/>
       <c r="E98" s="30" t="s">
@@ -35091,10 +35091,10 @@
         <v>1992</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="30" t="s">
@@ -35104,7 +35104,7 @@
         <v>1187</v>
       </c>
       <c r="G99" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H99" s="32" t="s">
         <v>3</v>
@@ -35135,10 +35135,10 @@
         <v>1993</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="30" t="s">
@@ -35148,7 +35148,7 @@
         <v>1189</v>
       </c>
       <c r="G100" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H100" s="32" t="s">
         <v>3</v>
@@ -35179,10 +35179,10 @@
         <v>1994</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D101" s="42"/>
       <c r="E101" s="30" t="s">
@@ -35192,7 +35192,7 @@
         <v>1191</v>
       </c>
       <c r="G101" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H101" s="32" t="s">
         <v>3</v>
@@ -35223,10 +35223,10 @@
         <v>1995</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D102" s="42"/>
       <c r="E102" s="30" t="s">
@@ -35236,7 +35236,7 @@
         <v>1193</v>
       </c>
       <c r="G102" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H102" s="32" t="s">
         <v>3</v>
@@ -35267,10 +35267,10 @@
         <v>1996</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D103" s="42"/>
       <c r="E103" s="30" t="s">
@@ -35280,7 +35280,7 @@
         <v>1195</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H103" s="32" t="s">
         <v>3</v>
@@ -35311,10 +35311,10 @@
         <v>1997</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D104" s="42"/>
       <c r="E104" s="30" t="s">
@@ -35324,7 +35324,7 @@
         <v>1197</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H104" s="32" t="s">
         <v>3</v>
@@ -35355,10 +35355,10 @@
         <v>1998</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D105" s="42"/>
       <c r="E105" s="30" t="s">
@@ -35368,7 +35368,7 @@
         <v>1199</v>
       </c>
       <c r="G105" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H105" s="32" t="s">
         <v>3</v>
@@ -35399,10 +35399,10 @@
         <v>1999</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D106" s="42"/>
       <c r="E106" s="30" t="s">
@@ -35412,7 +35412,7 @@
         <v>1201</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H106" s="32" t="s">
         <v>3</v>
@@ -35443,10 +35443,10 @@
         <v>2000</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D107" s="42"/>
       <c r="E107" s="30" t="s">
@@ -35456,7 +35456,7 @@
         <v>1201</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H107" s="32" t="s">
         <v>3</v>
@@ -35487,10 +35487,10 @@
         <v>2001</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D108" s="42"/>
       <c r="E108" s="30" t="s">
@@ -35500,7 +35500,7 @@
         <v>1203</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H108" s="32" t="s">
         <v>3</v>
@@ -35531,10 +35531,10 @@
         <v>2002</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D109" s="42"/>
       <c r="E109" s="30" t="s">
@@ -35544,7 +35544,7 @@
         <v>1205</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H109" s="32" t="s">
         <v>3</v>
@@ -35575,10 +35575,10 @@
         <v>2003</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D110" s="42"/>
       <c r="E110" s="30" t="s">
@@ -35588,7 +35588,7 @@
         <v>1205</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H110" s="32" t="s">
         <v>3</v>
@@ -35619,10 +35619,10 @@
         <v>2004</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D111" s="42"/>
       <c r="E111" s="30" t="s">
@@ -35632,7 +35632,7 @@
         <v>1206</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H111" s="32" t="s">
         <v>3</v>
@@ -35663,10 +35663,10 @@
         <v>2005</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D112" s="42"/>
       <c r="E112" s="30" t="s">
@@ -35676,7 +35676,7 @@
         <v>787</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H112" s="32" t="s">
         <v>3</v>
@@ -35707,10 +35707,10 @@
         <v>2006</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D113" s="42"/>
       <c r="E113" s="30" t="s">
@@ -35720,7 +35720,7 @@
         <v>1209</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H113" s="32" t="s">
         <v>3</v>
@@ -35751,10 +35751,10 @@
         <v>2007</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D114" s="42"/>
       <c r="E114" s="30" t="s">
@@ -35764,7 +35764,7 @@
         <v>1208</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H114" s="32" t="s">
         <v>3</v>
@@ -35795,10 +35795,10 @@
         <v>2008</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D115" s="42"/>
       <c r="E115" s="30" t="s">
@@ -35808,7 +35808,7 @@
         <v>1210</v>
       </c>
       <c r="G115" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H115" s="32" t="s">
         <v>3</v>
@@ -35839,10 +35839,10 @@
         <v>2009</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D116" s="42"/>
       <c r="E116" s="30" t="s">
@@ -35852,7 +35852,7 @@
         <v>1211</v>
       </c>
       <c r="G116" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H116" s="32" t="s">
         <v>3</v>
@@ -35883,10 +35883,10 @@
         <v>2010</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D117" s="42"/>
       <c r="E117" s="30" t="s">
@@ -35896,7 +35896,7 @@
         <v>1210</v>
       </c>
       <c r="G117" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H117" s="32" t="s">
         <v>3</v>
@@ -35927,10 +35927,10 @@
         <v>2011</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D118" s="42"/>
       <c r="E118" s="30" t="s">
@@ -35940,7 +35940,7 @@
         <v>1210</v>
       </c>
       <c r="G118" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H118" s="32" t="s">
         <v>3</v>
@@ -35971,10 +35971,10 @@
         <v>2012</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D119" s="42"/>
       <c r="E119" s="30" t="s">
@@ -35984,7 +35984,7 @@
         <v>1210</v>
       </c>
       <c r="G119" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H119" s="32" t="s">
         <v>3</v>
@@ -36015,10 +36015,10 @@
         <v>2013</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D120" s="42"/>
       <c r="E120" s="30" t="s">
@@ -36028,7 +36028,7 @@
         <v>1215</v>
       </c>
       <c r="G120" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H120" s="32" t="s">
         <v>3</v>
@@ -36059,10 +36059,10 @@
         <v>2014</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D121" s="42"/>
       <c r="E121" s="30" t="s">
@@ -36072,7 +36072,7 @@
         <v>1012</v>
       </c>
       <c r="G121" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H121" s="32" t="s">
         <v>3</v>
@@ -36103,10 +36103,10 @@
         <v>2015</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D122" s="42"/>
       <c r="E122" s="30" t="s">
@@ -36116,7 +36116,7 @@
         <v>1216</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H122" s="32" t="s">
         <v>3</v>
@@ -36147,10 +36147,10 @@
         <v>2016</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D123" s="42"/>
       <c r="E123" s="30" t="s">
@@ -36160,7 +36160,7 @@
         <v>1012</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H123" s="32" t="s">
         <v>3</v>
@@ -36191,10 +36191,10 @@
         <v>2017</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D124" s="42"/>
       <c r="E124" s="31" t="s">
@@ -36204,7 +36204,7 @@
         <v>1206</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H124" s="32" t="s">
         <v>3</v>
@@ -36235,10 +36235,10 @@
         <v>2018</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D125" s="42"/>
       <c r="E125" s="31" t="s">
@@ -36248,7 +36248,7 @@
         <v>1298</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H125" s="32" t="s">
         <v>3</v>
@@ -36279,10 +36279,10 @@
         <v>2019</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D126" s="42"/>
       <c r="E126" s="31" t="s">
@@ -36292,7 +36292,7 @@
         <v>1210</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H126" s="32" t="s">
         <v>3</v>
@@ -36323,20 +36323,20 @@
         <v>2020</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D127" s="42"/>
       <c r="E127" s="31" t="s">
         <v>1216</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H127" s="32" t="s">
         <v>3</v>
@@ -36367,20 +36367,20 @@
         <v>2021</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D128" s="42"/>
       <c r="E128" s="31" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F128" s="31" t="s">
         <v>1442</v>
       </c>
-      <c r="F128" s="31" t="s">
-        <v>1443</v>
-      </c>
       <c r="G128" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H128" s="32" t="s">
         <v>3</v>
@@ -36411,20 +36411,20 @@
         <v>2022</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D129" s="42"/>
       <c r="E129" s="31" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F129" s="31" t="s">
         <v>1444</v>
       </c>
-      <c r="F129" s="31" t="s">
-        <v>1445</v>
-      </c>
       <c r="G129" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H129" s="32" t="s">
         <v>3</v>
@@ -36455,20 +36455,20 @@
         <v>2023</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D130" s="42"/>
       <c r="E130" s="31" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F130" s="31" t="s">
         <v>1446</v>
       </c>
-      <c r="F130" s="31" t="s">
-        <v>1447</v>
-      </c>
       <c r="G130" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H130" s="32" t="s">
         <v>3</v>
@@ -36499,16 +36499,16 @@
         <v>2024</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D131" s="42"/>
       <c r="E131" s="31"/>
       <c r="F131" s="31"/>
       <c r="G131" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H131" s="32" t="s">
         <v>3</v>
@@ -36595,7 +36595,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I50:K54 I39:I49 I55:J55 J46:J49 K44:K49 L13:L20 I56:K79 K82 I84:K126 I81:K81">
-    <cfRule type="containsText" dxfId="76" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36612,7 +36612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I17 J14:J16 K3:K17 L3:L12 I18:K19 K32:K34 I23:K26 I20">
-    <cfRule type="containsText" dxfId="75" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36629,7 +36629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L79 L84:L126 L81:L82">
-    <cfRule type="containsText" dxfId="74" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36646,7 +36646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="73" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36663,7 +36663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="72" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36680,7 +36680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="71" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36697,7 +36697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="70" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36714,7 +36714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36731,7 +36731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="68" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36748,7 +36748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36765,7 +36765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I38">
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36782,7 +36782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J38">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36799,7 +36799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36816,7 +36816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36833,7 +36833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J44 K39:K42">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36850,7 +36850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36867,7 +36867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K31">
-    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36884,7 +36884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36901,7 +36901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36918,7 +36918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36935,7 +36935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36952,7 +36952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="55" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36969,7 +36969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="containsText" dxfId="54" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36986,7 +36986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37003,7 +37003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37020,7 +37020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37037,7 +37037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37054,7 +37054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="49" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37071,7 +37071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37088,7 +37088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37105,7 +37105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37122,7 +37122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:K83">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37139,7 +37139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37156,7 +37156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:K80">
-    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37173,7 +37173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37190,7 +37190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:K127">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37207,7 +37207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L127">
-    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37224,7 +37224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:K128">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37241,7 +37241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37258,7 +37258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129:K129">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37275,7 +37275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L129">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37292,7 +37292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:K130">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37309,7 +37309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L130">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37326,7 +37326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:K131">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37343,7 +37343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L131">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37379,7 +37379,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37398,10 +37398,10 @@
         <v>1327</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1329</v>
+        <v>1447</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
@@ -37411,7 +37411,7 @@
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
       <c r="I1" s="67" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -37421,10 +37421,10 @@
       <c r="A2" s="53"/>
       <c r="B2" s="60"/>
       <c r="C2" s="40" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>1374</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>1375</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>0</v>
@@ -37456,12 +37456,12 @@
         <v>1900</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="8" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>3</v>
@@ -37498,7 +37498,7 @@
         <v>1901</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -37540,7 +37540,7 @@
         <v>1902</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -37582,7 +37582,7 @@
         <v>1903</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -37624,7 +37624,7 @@
         <v>1904</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -38402,7 +38402,7 @@
         <v>1921</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -38444,7 +38444,7 @@
         <v>1921</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -38486,7 +38486,7 @@
         <v>1922</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
@@ -38528,7 +38528,7 @@
         <v>1923</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -38570,7 +38570,7 @@
         <v>1924</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -38612,7 +38612,7 @@
         <v>1925</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -38654,7 +38654,7 @@
         <v>1926</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -38696,7 +38696,7 @@
         <v>1927</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -38738,7 +38738,7 @@
         <v>1928</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -39010,7 +39010,7 @@
         <v>1934</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
@@ -39052,7 +39052,7 @@
         <v>1935</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
@@ -40704,10 +40704,10 @@
         <v>1971</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="8" t="s">
@@ -40717,7 +40717,7 @@
         <v>1258</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>3</v>
@@ -40748,10 +40748,10 @@
         <v>1972</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="8" t="s">
@@ -40761,7 +40761,7 @@
         <v>1260</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>3</v>
@@ -40792,10 +40792,10 @@
         <v>1973</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="8" t="s">
@@ -40805,7 +40805,7 @@
         <v>1261</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>3</v>
@@ -40836,10 +40836,10 @@
         <v>1974</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="8" t="s">
@@ -40849,7 +40849,7 @@
         <v>1263</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>3</v>
@@ -40880,10 +40880,10 @@
         <v>1975</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="69" t="s">
@@ -40893,7 +40893,7 @@
         <v>1265</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>3</v>
@@ -40924,16 +40924,16 @@
         <v>1976</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="70"/>
       <c r="F80" s="70"/>
       <c r="G80" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>3</v>
@@ -40960,10 +40960,10 @@
         <v>1977</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="8" t="s">
@@ -41004,10 +41004,10 @@
         <v>1978</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D82" s="42"/>
       <c r="E82" s="8" t="s">
@@ -41048,7 +41048,7 @@
         <v>1979</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C83" s="42"/>
       <c r="D83" s="42"/>
@@ -41090,7 +41090,7 @@
         <v>1980</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
@@ -41132,7 +41132,7 @@
         <v>1981</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C85" s="42"/>
       <c r="D85" s="42"/>
@@ -41956,7 +41956,7 @@
         <v>1999</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C103" s="42"/>
       <c r="D103" s="42"/>
@@ -42006,7 +42006,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I40:K79 I81:K103 K80">
-    <cfRule type="containsText" dxfId="39" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42023,7 +42023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:K24 I25 I28:I29 I32 I39 I38:J38 I30:J31 I26:J27 K39 K26:K32">
-    <cfRule type="containsText" dxfId="38" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42040,7 +42040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L103">
-    <cfRule type="containsText" dxfId="37" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42057,7 +42057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42074,7 +42074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42091,7 +42091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42108,7 +42108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42125,7 +42125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42142,7 +42142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42159,7 +42159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42176,7 +42176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42193,7 +42193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I23">
-    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42210,7 +42210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J23">
-    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42227,7 +42227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42244,7 +42244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42261,7 +42261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42278,7 +42278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42295,7 +42295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K23">
-    <cfRule type="containsText" dxfId="22" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42312,7 +42312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42329,7 +42329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42346,7 +42346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I37">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42363,7 +42363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42380,7 +42380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42397,7 +42397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42414,7 +42414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J37">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42431,7 +42431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42448,7 +42448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42465,7 +42465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K37">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42482,7 +42482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42499,7 +42499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42531,7 +42531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -42547,13 +42547,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1350</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -42561,10 +42561,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>1352</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -42572,10 +42572,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>1354</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -42583,10 +42583,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -42594,10 +42594,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -42605,10 +42605,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B53375-4E5D-4FBC-8ED1-5B6A82A9801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E105CB5-0165-4AC0-A7AA-1BF2121A67FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="16750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -13263,7 +13263,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13 H13">
+  <conditionalFormatting sqref="H13 J13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18790,11 +18790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N81" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="O126" sqref="O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -24177,7 +24177,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="18" t="s">
         <v>3</v>
@@ -24191,7 +24191,7 @@
       </c>
       <c r="W125" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24688,7 +24688,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126 L124">
+  <conditionalFormatting sqref="L124 L126">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -42531,8 +42531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E105CB5-0165-4AC0-A7AA-1BF2121A67FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6107EC9-6938-43F5-B6E3-D145DD309F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="16750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -8019,11 +8019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L81" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10500,7 +10500,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" s="2">
         <v>2</v>
@@ -10648,7 +10648,7 @@
         <v>3</v>
       </c>
       <c r="H70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" s="2">
         <v>1</v>
@@ -10800,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>3</v>
@@ -10876,7 +10876,7 @@
         <v>173</v>
       </c>
       <c r="H76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2">
         <v>1</v>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="K76" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="U76" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10914,7 +10914,7 @@
         <v>176</v>
       </c>
       <c r="H77" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77" s="2">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>179</v>
       </c>
       <c r="H78" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I78" s="2">
         <v>2</v>
@@ -10990,7 +10990,7 @@
         <v>182</v>
       </c>
       <c r="H79" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I79" s="2">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>1328</v>
       </c>
       <c r="H82" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I82" s="2">
         <v>4</v>
@@ -11142,7 +11142,7 @@
         <v>1328</v>
       </c>
       <c r="H83" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I83" s="2">
         <v>1</v>
@@ -11218,7 +11218,7 @@
         <v>1328</v>
       </c>
       <c r="H85" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I85" s="2">
         <v>2</v>
@@ -11525,7 +11525,7 @@
         <v>3</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>3</v>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="U93" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11639,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>3</v>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="U96" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>3</v>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="U99" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>3</v>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="U100" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>3</v>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="U103" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>3</v>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="U104" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12171,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>3</v>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="U110" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>3</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="U112" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>3</v>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="U113" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>3</v>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="U114" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>3</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="U115" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>3</v>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="U117" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12686,7 +12686,7 @@
         <v>1328</v>
       </c>
       <c r="H124" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" s="2">
         <v>1</v>
@@ -13378,10 +13378,10 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15349,7 +15349,7 @@
         <v>364</v>
       </c>
       <c r="H53" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="18">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="18">
         <v>0</v>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="18" t="s">
         <v>3</v>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="T108" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="18" t="s">
         <v>3</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="T112" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17937,7 +17937,7 @@
         <v>1328</v>
       </c>
       <c r="H121" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" s="18">
         <v>0</v>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="K121" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="T121" s="3" t="str">
         <f t="shared" si="4"/>
@@ -18051,7 +18051,7 @@
         <v>1328</v>
       </c>
       <c r="H124" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" s="18">
         <v>2</v>
@@ -18790,11 +18790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N99" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O126" sqref="O126"/>
+      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23162,10 +23162,10 @@
         <v>3</v>
       </c>
       <c r="I102" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="18" t="s">
         <v>3</v>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="W102" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -23253,7 +23253,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="18" t="s">
         <v>3</v>
@@ -23267,7 +23267,7 @@
       </c>
       <c r="W104" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -23297,7 +23297,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="18" t="s">
         <v>3</v>
@@ -23311,7 +23311,7 @@
       </c>
       <c r="W105" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -23385,7 +23385,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="18" t="s">
         <v>3</v>
@@ -23399,7 +23399,7 @@
       </c>
       <c r="W107" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -23558,7 +23558,7 @@
         <v>3</v>
       </c>
       <c r="I111" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="18">
         <v>0</v>
@@ -23571,7 +23571,7 @@
       </c>
       <c r="M111" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="W111" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23822,7 +23822,7 @@
         <v>3</v>
       </c>
       <c r="I117" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" s="18">
         <v>0</v>
@@ -23835,7 +23835,7 @@
       </c>
       <c r="M117" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="W117" s="3" t="str">
         <f t="shared" si="7"/>
@@ -24042,7 +24042,7 @@
         <v>3</v>
       </c>
       <c r="I122" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" s="18">
         <v>0</v>
@@ -24055,7 +24055,7 @@
       </c>
       <c r="M122" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="W122" s="3" t="str">
         <f>IF((OR(AND(J122&gt;0,K122&gt;0),AND(J122&gt;0,K122="-"),AND(K122&gt;0,J122="-"))),"2",IF(OR(AND(J122=0,K122=0),AND(J122=0,K122="-"),AND(K122=0,J122="-"),AND(K122="-",J122="-")),"0","1"))</f>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6107EC9-6938-43F5-B6E3-D145DD309F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607283AA-8E38-4113-ABF3-5C378D2040D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -1109,7 +1109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5509" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="1448">
   <si>
     <t>P</t>
   </si>
@@ -5782,7 +5782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5994,12 +5994,23 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="178">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -7746,9 +7757,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -8019,7 +8030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13144,7 +13155,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H3:H12 J11:J12 J14 H14 H15:J125">
-    <cfRule type="containsText" dxfId="176" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13161,7 +13172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:J102">
-    <cfRule type="containsText" dxfId="175" priority="40" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="40" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13178,7 +13189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:J125">
-    <cfRule type="containsText" dxfId="174" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H119))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13195,7 +13206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126">
-    <cfRule type="containsText" dxfId="173" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13212,7 +13223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126">
-    <cfRule type="containsText" dxfId="172" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13229,7 +13240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12 J4:J10 I14">
-    <cfRule type="containsText" dxfId="171" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -13244,7 +13255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="170" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13259,11 +13270,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13 J13">
-    <cfRule type="containsText" dxfId="169" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13">
+  <conditionalFormatting sqref="J13 H13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13276,7 +13287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="168" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -13291,7 +13302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:J128 H130:J131">
-    <cfRule type="containsText" dxfId="167" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13308,7 +13319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:J128 H130:J131">
-    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13325,7 +13336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:J129">
-    <cfRule type="containsText" dxfId="165" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13342,7 +13353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:J129">
-    <cfRule type="containsText" dxfId="164" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18338,7 +18349,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I49:J51 H52:J109 H112:J125 H127:J127 H129:J130">
-    <cfRule type="containsText" dxfId="163" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="101">
@@ -18353,7 +18364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H15 H25 H27 H34 I38 J25 H28:I33 H39:J41 H42:I42 H15:J24 H110:J111">
-    <cfRule type="containsText" dxfId="162" priority="92" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="92" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18370,7 +18381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14">
-    <cfRule type="containsText" dxfId="161" priority="90" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="90" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="91">
@@ -18385,7 +18396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J14">
-    <cfRule type="containsText" dxfId="160" priority="88" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="88" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="89">
@@ -18400,7 +18411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="159" priority="86" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="86" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="87">
@@ -18415,7 +18426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="158" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="84" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -18430,7 +18441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="157" priority="82" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="82" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="83">
@@ -18445,7 +18456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="156" priority="76" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="76" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="77">
@@ -18460,7 +18471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="155" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="79">
@@ -18475,7 +18486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="154" priority="74" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="74" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -18490,7 +18501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="153" priority="72" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="72" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="73">
@@ -18505,7 +18516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="152" priority="70" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="70" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="71">
@@ -18520,7 +18531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="151" priority="68" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="68" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -18535,7 +18546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="150" priority="66" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="66" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="67">
@@ -18550,7 +18561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="149" priority="64" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="64" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -18565,7 +18576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="148" priority="62" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="62" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="63">
@@ -18580,7 +18591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="147" priority="60" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="60" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="61">
@@ -18595,7 +18606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="146" priority="58" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="58" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="59">
@@ -18610,7 +18621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J35">
-    <cfRule type="containsText" dxfId="145" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18627,7 +18638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="144" priority="42" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="42" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="43">
@@ -18642,7 +18653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="143" priority="40" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="40" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18659,7 +18670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="142" priority="38" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="38" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="39">
@@ -18674,7 +18685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:J44 J45:J46 H45:I47 H48:H51">
-    <cfRule type="containsText" dxfId="141" priority="36" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="36" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="37">
@@ -18689,7 +18700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="140" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18706,7 +18717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="139" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18723,7 +18734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="138" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -18738,7 +18749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126 H128:J128">
-    <cfRule type="containsText" dxfId="137" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18755,7 +18766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:J126 H128:J128">
-    <cfRule type="containsText" dxfId="136" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24344,7 +24355,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J38:J48 K39:K48 I49:K123 L3:L11 I125:K125 I127:K127">
-    <cfRule type="containsText" dxfId="135" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24361,7 +24372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I16 I9:J15 I17:J17 I27:I35 I18:I25 K25:K26 K37:K38">
-    <cfRule type="containsText" dxfId="134" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24378,7 +24389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="133" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24395,7 +24406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="132" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24412,7 +24423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="131" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24429,7 +24440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="130" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24446,7 +24457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K19">
-    <cfRule type="containsText" dxfId="129" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24463,7 +24474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L123 L125 L127">
-    <cfRule type="containsText" dxfId="128" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24480,7 +24491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="127" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24497,7 +24508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsText" dxfId="126" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24514,7 +24525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J37">
-    <cfRule type="containsText" dxfId="125" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24531,7 +24542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I48">
-    <cfRule type="containsText" dxfId="124" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24548,7 +24559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="123" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24565,7 +24576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="122" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24582,7 +24593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="121" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24599,7 +24610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35 K27:K34">
-    <cfRule type="containsText" dxfId="120" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24616,7 +24627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J33">
-    <cfRule type="containsText" dxfId="119" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24633,7 +24644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J25 K20:K24">
-    <cfRule type="containsText" dxfId="118" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24650,7 +24661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="117" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24667,7 +24678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124:K124 I126:K126">
-    <cfRule type="containsText" dxfId="116" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24684,11 +24695,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124 L126">
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
+  <conditionalFormatting sqref="L126 L124">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24701,7 +24712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:K128">
-    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24718,7 +24729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24753,11 +24764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30257,7 +30268,7 @@
       <c r="F126" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G126" s="77" t="s">
         <v>1418</v>
       </c>
       <c r="H126" s="9" t="s">
@@ -30269,8 +30280,8 @@
       <c r="J126" s="18">
         <v>3</v>
       </c>
-      <c r="K126" s="18">
-        <v>0</v>
+      <c r="K126" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="L126" s="18" t="s">
         <v>3</v>
@@ -30293,11 +30304,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I38:I48 J43:J48 J38:J41 K45:K48 L13:L19 I21:K24 K81 L21:L78 I49:K78 I80:K80 L80:L125 I82:K125">
-    <cfRule type="containsText" dxfId="112" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I48 J43:J48 J38:J41 K45:K48 L13:L19 I21:K24 K81 L21:L78 I49:K78 I80:K80 L80:L125 I82:K125">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15 I14:K14 I13:J13 I3:J9 I10:K12 I16:K18 K14:K15 I25 I27 I29 I34 I28:K28 K27 I30:K30 I31:J33 K31:K34 I19:J19 I20">
+    <cfRule type="containsText" dxfId="112" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:K14 I15 I13:J13 I3:J9 I10:K12 I16:K18 K14:K15 I25 I27 I29 I34 I28:K28 K27 I30:K30 I31:J33 K31:K34 I19:J19 I20">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30309,13 +30337,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15 I14:K14 I13:J13 I3:J9 I10:K12 I16:K18 K14:K15 I25 I27 I29 I34 I28:K28 K27 I30:K30 I31:J33 K31:K34 I19:J19 I20">
-    <cfRule type="containsText" dxfId="111" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="111" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:K14 I15 I13:J13 I3:J9 I10:K12 I16:K18 K14:K15 I25 I27 I29 I34 I28:K28 K27 I30:K30 I31:J33 K31:K34 I19:J19 I20">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -30326,12 +30354,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="110" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
+  <conditionalFormatting sqref="L3:L12 K3:K6">
+    <cfRule type="containsText" dxfId="110" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="L3:L12 K3:K6">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="109" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="108" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="107" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="106" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30343,80 +30439,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L12 K3:K6">
-    <cfRule type="containsText" dxfId="109" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="105" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L12 K3:K6">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="108" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="107" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="106" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="105" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
+  <conditionalFormatting sqref="K8">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30428,12 +30456,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="I26">
     <cfRule type="containsText" dxfId="104" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="I26">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30445,12 +30473,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="J25">
     <cfRule type="containsText" dxfId="103" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30462,12 +30490,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J26">
     <cfRule type="containsText" dxfId="102" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J26">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30479,12 +30507,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="J27">
     <cfRule type="containsText" dxfId="101" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30496,12 +30524,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J29">
     <cfRule type="containsText" dxfId="100" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30513,12 +30541,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="J34">
     <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30530,12 +30558,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="K25">
     <cfRule type="containsText" dxfId="98" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30547,12 +30575,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K26">
     <cfRule type="containsText" dxfId="97" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K26">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30564,12 +30592,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="K29">
     <cfRule type="containsText" dxfId="96" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="K29">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30581,12 +30609,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="I36">
     <cfRule type="containsText" dxfId="95" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="I36">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30598,12 +30626,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I35">
     <cfRule type="containsText" dxfId="94" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30615,12 +30643,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="I37">
     <cfRule type="containsText" dxfId="93" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="I37">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30632,12 +30660,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="92" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+  <conditionalFormatting sqref="K39:K44">
+    <cfRule type="containsText" dxfId="92" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="91" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30649,17 +30682,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K44">
-    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="containsText" dxfId="90" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="90" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="K35">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30671,12 +30699,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
+  <conditionalFormatting sqref="J36:K36">
     <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
+  <conditionalFormatting sqref="J36:K36">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30688,12 +30716,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K36">
+  <conditionalFormatting sqref="J37">
     <cfRule type="containsText" dxfId="88" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K36">
+  <conditionalFormatting sqref="J37">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30705,12 +30733,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J42">
     <cfRule type="containsText" dxfId="87" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J42">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30722,12 +30750,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="K37">
     <cfRule type="containsText" dxfId="86" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="K37">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30739,12 +30767,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="K38">
     <cfRule type="containsText" dxfId="85" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="K38">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30756,13 +30784,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="K39:K44">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -30773,7 +30796,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K44">
+  <conditionalFormatting sqref="J20:L20">
+    <cfRule type="containsText" dxfId="84" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:L20">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30785,12 +30813,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:L20">
+  <conditionalFormatting sqref="I79:L79">
     <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:L20">
+  <conditionalFormatting sqref="I79:L79">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30802,12 +30830,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:L79">
+  <conditionalFormatting sqref="L126">
     <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L126))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:L79">
+  <conditionalFormatting sqref="L126">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30819,12 +30847,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126">
+  <conditionalFormatting sqref="I126">
     <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L126))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I126))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126">
+  <conditionalFormatting sqref="I126">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30836,12 +30864,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126">
+  <conditionalFormatting sqref="J126">
     <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I126))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126">
+  <conditionalFormatting sqref="J126">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30853,25 +30881,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J126">
-    <cfRule type="containsText" dxfId="79" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J126">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36595,7 +36606,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I50:K54 I39:I49 I55:J55 J46:J49 K44:K49 L13:L20 I56:K79 K82 I84:K126 I81:K81">
-    <cfRule type="containsText" dxfId="77" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36612,7 +36623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I17 J14:J16 K3:K17 L3:L12 I18:K19 K32:K34 I23:K26 I20">
-    <cfRule type="containsText" dxfId="76" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36629,7 +36640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L79 L84:L126 L81:L82">
-    <cfRule type="containsText" dxfId="75" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36646,7 +36657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="74" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36663,7 +36674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36680,7 +36691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="72" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36697,7 +36708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="71" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36714,7 +36725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36731,7 +36742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36748,7 +36759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36765,7 +36776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I38">
-    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36782,7 +36793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J38">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36799,7 +36810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36816,7 +36827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36833,7 +36844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J44 K39:K42">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36850,7 +36861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="62" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36867,7 +36878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K31">
-    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36884,7 +36895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="60" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36901,7 +36912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36918,7 +36929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="58" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36935,7 +36946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36952,7 +36963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="56" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36969,7 +36980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="containsText" dxfId="55" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36986,7 +36997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37003,7 +37014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="53" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37020,7 +37031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37037,7 +37048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="51" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37054,7 +37065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37071,7 +37082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37088,7 +37099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37105,7 +37116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37122,7 +37133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:K83">
-    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37139,7 +37150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37156,7 +37167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:K80">
-    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37173,7 +37184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37190,7 +37201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:K127">
-    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37207,7 +37218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L127">
-    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37224,7 +37235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:K128">
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37241,7 +37252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37258,7 +37269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129:K129">
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37275,7 +37286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L129">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37292,7 +37303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:K130">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37309,7 +37320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L130">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37326,7 +37337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:K131">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37343,7 +37354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L131">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42006,7 +42017,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I40:K79 I81:K103 K80">
-    <cfRule type="containsText" dxfId="32" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42023,7 +42034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:K24 I25 I28:I29 I32 I39 I38:J38 I30:J31 I26:J27 K39 K26:K32">
-    <cfRule type="containsText" dxfId="31" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42040,7 +42051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L103">
-    <cfRule type="containsText" dxfId="30" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42057,7 +42068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42074,7 +42085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42091,7 +42102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42108,7 +42119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42125,7 +42136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42142,7 +42153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="24" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42159,7 +42170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42176,7 +42187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42193,7 +42204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I23">
-    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42210,7 +42221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J23">
-    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42227,7 +42238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42244,7 +42255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42261,7 +42272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42278,7 +42289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42295,7 +42306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K23">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42312,7 +42323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42329,7 +42340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42346,7 +42357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I37">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42363,7 +42374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42380,7 +42391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42397,7 +42408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42414,7 +42425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J37">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42431,7 +42442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42448,7 +42459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42465,7 +42476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K37">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42482,7 +42493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42499,7 +42510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B19A564-69E5-4013-AD1C-CC8EE4B81B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C54B4-5C1E-4109-9B4F-5D49DC773302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -5912,6 +5912,12 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -5993,12 +5999,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8044,30 +8044,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1447</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="58" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="49" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="51" t="s">
         <v>1300</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="39" t="s">
         <v>1373</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="56" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="23" t="s">
@@ -9057,7 +9057,7 @@
       <c r="E28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="23" t="s">
         <v>3</v>
       </c>
@@ -10496,10 +10496,10 @@
         <v>1365</v>
       </c>
       <c r="D66" s="41"/>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="F66" s="47" t="s">
+      <c r="F66" s="49" t="s">
         <v>156</v>
       </c>
       <c r="G66" s="23" t="s">
@@ -10534,8 +10534,8 @@
         <v>1365</v>
       </c>
       <c r="D67" s="41"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
       <c r="G67" s="23" t="s">
         <v>3</v>
       </c>
@@ -13269,7 +13269,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13">
+  <conditionalFormatting sqref="J13 H13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13383,11 +13383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B139" sqref="B139"/>
+      <selection pane="bottomRight" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13402,34 +13402,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1447</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67" t="s">
         <v>1299</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
       <c r="T1" s="3" t="str">
         <f t="shared" ref="T1:T57" si="0">IF((OR(AND(I1&gt;0,J1&gt;0),AND(I1&gt;0,J1="-"),AND(J1&gt;0,I1="-"))),"2",IF(OR(AND(I1=0,J1=0),AND(I1=0,J1="-"),AND(J1=0,I1="-"),AND(J1="-",I1="-")),"0","1"))</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="39" t="s">
         <v>1373</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>1328</v>
       </c>
       <c r="H84" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="18">
         <v>0</v>
@@ -16951,7 +16951,7 @@
         <v>1328</v>
       </c>
       <c r="H95" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="18">
         <v>0</v>
@@ -18796,11 +18796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18815,32 +18815,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1447</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="69" t="s">
         <v>1320</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="39" t="s">
         <v>1373</v>
       </c>
@@ -22200,7 +22200,7 @@
         <v>3</v>
       </c>
       <c r="I80" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="18">
         <v>0</v>
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="18" t="s">
         <v>3</v>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="W83" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -22816,7 +22816,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="18">
         <v>2</v>
@@ -24694,7 +24694,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
+  <conditionalFormatting sqref="L126 L124">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24779,32 +24779,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1447</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="69" t="s">
         <v>1325</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="39" t="s">
         <v>1373</v>
       </c>
@@ -28288,22 +28288,22 @@
         <v>1392</v>
       </c>
       <c r="D80" s="41"/>
-      <c r="E80" s="69" t="s">
+      <c r="E80" s="71" t="s">
         <v>958</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="71" t="s">
         <v>959</v>
       </c>
-      <c r="G80" s="78" t="s">
+      <c r="G80" s="48" t="s">
         <v>1328</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I80" s="71">
+      <c r="I80" s="73">
         <v>2</v>
       </c>
-      <c r="J80" s="71">
+      <c r="J80" s="73">
         <v>3</v>
       </c>
       <c r="K80" s="18" t="s">
@@ -28332,16 +28332,16 @@
         <v>1392</v>
       </c>
       <c r="D81" s="41"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
       <c r="G81" s="46" t="s">
         <v>1328</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
       <c r="K81" s="18" t="s">
         <v>3</v>
       </c>
@@ -30929,32 +30929,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1447</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="69" t="s">
         <v>1359</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="39" t="s">
         <v>1373</v>
       </c>
@@ -33977,7 +33977,7 @@
       <c r="F73" s="30" t="s">
         <v>1147</v>
       </c>
-      <c r="G73" s="77" t="s">
+      <c r="G73" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H73" s="32" t="s">
@@ -34021,7 +34021,7 @@
       <c r="F74" s="30" t="s">
         <v>1148</v>
       </c>
-      <c r="G74" s="77" t="s">
+      <c r="G74" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H74" s="32" t="s">
@@ -34065,7 +34065,7 @@
       <c r="F75" s="30" t="s">
         <v>1336</v>
       </c>
-      <c r="G75" s="77" t="s">
+      <c r="G75" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H75" s="32" t="s">
@@ -34109,7 +34109,7 @@
       <c r="F76" s="30" t="s">
         <v>1150</v>
       </c>
-      <c r="G76" s="77" t="s">
+      <c r="G76" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H76" s="32" t="s">
@@ -34153,7 +34153,7 @@
       <c r="F77" s="30" t="s">
         <v>1152</v>
       </c>
-      <c r="G77" s="77" t="s">
+      <c r="G77" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H77" s="32" t="s">
@@ -34197,7 +34197,7 @@
       <c r="F78" s="30" t="s">
         <v>1154</v>
       </c>
-      <c r="G78" s="77" t="s">
+      <c r="G78" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H78" s="32" t="s">
@@ -34241,7 +34241,7 @@
       <c r="F79" s="30" t="s">
         <v>1156</v>
       </c>
-      <c r="G79" s="77" t="s">
+      <c r="G79" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H79" s="32" t="s">
@@ -34287,7 +34287,7 @@
       <c r="F80" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="77" t="s">
+      <c r="G80" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H80" s="32"/>
@@ -34320,22 +34320,22 @@
         <v>1401</v>
       </c>
       <c r="D81" s="41"/>
-      <c r="E81" s="74" t="s">
+      <c r="E81" s="76" t="s">
         <v>1157</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F81" s="78" t="s">
         <v>1158</v>
       </c>
-      <c r="G81" s="77" t="s">
+      <c r="G81" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H81" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="72">
-        <v>0</v>
-      </c>
-      <c r="J81" s="72">
+      <c r="I81" s="74">
+        <v>0</v>
+      </c>
+      <c r="J81" s="74">
         <v>0</v>
       </c>
       <c r="K81" s="33" t="s">
@@ -34364,16 +34364,16 @@
         <v>1401</v>
       </c>
       <c r="D82" s="41"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="77" t="s">
+      <c r="E82" s="77"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H82" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
       <c r="K82" s="33" t="s">
         <v>3</v>
       </c>
@@ -34408,7 +34408,7 @@
       <c r="F83" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="77" t="s">
+      <c r="G83" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H83" s="32" t="s">
@@ -34449,7 +34449,7 @@
       <c r="F84" s="30" t="s">
         <v>1160</v>
       </c>
-      <c r="G84" s="77" t="s">
+      <c r="G84" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H84" s="32" t="s">
@@ -34493,7 +34493,7 @@
       <c r="F85" s="30" t="s">
         <v>1162</v>
       </c>
-      <c r="G85" s="77" t="s">
+      <c r="G85" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H85" s="32" t="s">
@@ -34537,7 +34537,7 @@
       <c r="F86" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="G86" s="77" t="s">
+      <c r="G86" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H86" s="32" t="s">
@@ -34581,7 +34581,7 @@
       <c r="F87" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="G87" s="77" t="s">
+      <c r="G87" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H87" s="32" t="s">
@@ -34625,7 +34625,7 @@
       <c r="F88" s="30" t="s">
         <v>1168</v>
       </c>
-      <c r="G88" s="77" t="s">
+      <c r="G88" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H88" s="32" t="s">
@@ -34669,7 +34669,7 @@
       <c r="F89" s="30" t="s">
         <v>1170</v>
       </c>
-      <c r="G89" s="77" t="s">
+      <c r="G89" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H89" s="32" t="s">
@@ -34713,7 +34713,7 @@
       <c r="F90" s="30" t="s">
         <v>1172</v>
       </c>
-      <c r="G90" s="77" t="s">
+      <c r="G90" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H90" s="32" t="s">
@@ -34757,7 +34757,7 @@
       <c r="F91" s="30" t="s">
         <v>1174</v>
       </c>
-      <c r="G91" s="77" t="s">
+      <c r="G91" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H91" s="32" t="s">
@@ -34801,7 +34801,7 @@
       <c r="F92" s="30" t="s">
         <v>1170</v>
       </c>
-      <c r="G92" s="77" t="s">
+      <c r="G92" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H92" s="32" t="s">
@@ -34845,7 +34845,7 @@
       <c r="F93" s="30" t="s">
         <v>1177</v>
       </c>
-      <c r="G93" s="77" t="s">
+      <c r="G93" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H93" s="32" t="s">
@@ -34889,7 +34889,7 @@
       <c r="F94" s="30" t="s">
         <v>1337</v>
       </c>
-      <c r="G94" s="77" t="s">
+      <c r="G94" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H94" s="32" t="s">
@@ -34933,7 +34933,7 @@
       <c r="F95" s="30" t="s">
         <v>1179</v>
       </c>
-      <c r="G95" s="77" t="s">
+      <c r="G95" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H95" s="32" t="s">
@@ -34977,7 +34977,7 @@
       <c r="F96" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="G96" s="77" t="s">
+      <c r="G96" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H96" s="32" t="s">
@@ -35021,7 +35021,7 @@
       <c r="F97" s="30" t="s">
         <v>1183</v>
       </c>
-      <c r="G97" s="77" t="s">
+      <c r="G97" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H97" s="32" t="s">
@@ -35065,7 +35065,7 @@
       <c r="F98" s="30" t="s">
         <v>1185</v>
       </c>
-      <c r="G98" s="77" t="s">
+      <c r="G98" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="H98" s="32" t="s">
@@ -35109,7 +35109,7 @@
       <c r="F99" s="30" t="s">
         <v>1187</v>
       </c>
-      <c r="G99" s="77" t="s">
+      <c r="G99" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H99" s="32" t="s">
@@ -35153,7 +35153,7 @@
       <c r="F100" s="30" t="s">
         <v>1189</v>
       </c>
-      <c r="G100" s="77" t="s">
+      <c r="G100" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H100" s="32" t="s">
@@ -35197,7 +35197,7 @@
       <c r="F101" s="30" t="s">
         <v>1191</v>
       </c>
-      <c r="G101" s="77" t="s">
+      <c r="G101" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H101" s="32" t="s">
@@ -35241,7 +35241,7 @@
       <c r="F102" s="30" t="s">
         <v>1193</v>
       </c>
-      <c r="G102" s="77" t="s">
+      <c r="G102" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H102" s="32" t="s">
@@ -35285,7 +35285,7 @@
       <c r="F103" s="30" t="s">
         <v>1195</v>
       </c>
-      <c r="G103" s="77" t="s">
+      <c r="G103" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H103" s="32" t="s">
@@ -35329,7 +35329,7 @@
       <c r="F104" s="30" t="s">
         <v>1197</v>
       </c>
-      <c r="G104" s="77" t="s">
+      <c r="G104" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H104" s="32" t="s">
@@ -35373,7 +35373,7 @@
       <c r="F105" s="30" t="s">
         <v>1199</v>
       </c>
-      <c r="G105" s="77" t="s">
+      <c r="G105" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H105" s="32" t="s">
@@ -35417,7 +35417,7 @@
       <c r="F106" s="30" t="s">
         <v>1201</v>
       </c>
-      <c r="G106" s="77" t="s">
+      <c r="G106" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H106" s="32" t="s">
@@ -35461,7 +35461,7 @@
       <c r="F107" s="30" t="s">
         <v>1201</v>
       </c>
-      <c r="G107" s="77" t="s">
+      <c r="G107" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H107" s="32" t="s">
@@ -35505,7 +35505,7 @@
       <c r="F108" s="30" t="s">
         <v>1203</v>
       </c>
-      <c r="G108" s="77" t="s">
+      <c r="G108" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H108" s="32" t="s">
@@ -35549,7 +35549,7 @@
       <c r="F109" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="G109" s="77" t="s">
+      <c r="G109" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H109" s="32" t="s">
@@ -35593,7 +35593,7 @@
       <c r="F110" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="G110" s="77" t="s">
+      <c r="G110" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H110" s="32" t="s">
@@ -35637,7 +35637,7 @@
       <c r="F111" s="30" t="s">
         <v>1206</v>
       </c>
-      <c r="G111" s="77" t="s">
+      <c r="G111" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H111" s="32" t="s">
@@ -35681,7 +35681,7 @@
       <c r="F112" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="G112" s="77" t="s">
+      <c r="G112" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H112" s="32" t="s">
@@ -35725,7 +35725,7 @@
       <c r="F113" s="30" t="s">
         <v>1209</v>
       </c>
-      <c r="G113" s="77" t="s">
+      <c r="G113" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H113" s="32" t="s">
@@ -35769,7 +35769,7 @@
       <c r="F114" s="30" t="s">
         <v>1208</v>
       </c>
-      <c r="G114" s="77" t="s">
+      <c r="G114" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H114" s="32" t="s">
@@ -35813,7 +35813,7 @@
       <c r="F115" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="G115" s="77" t="s">
+      <c r="G115" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H115" s="32" t="s">
@@ -35857,7 +35857,7 @@
       <c r="F116" s="30" t="s">
         <v>1211</v>
       </c>
-      <c r="G116" s="77" t="s">
+      <c r="G116" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H116" s="32" t="s">
@@ -35901,7 +35901,7 @@
       <c r="F117" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="G117" s="77" t="s">
+      <c r="G117" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H117" s="32" t="s">
@@ -35945,7 +35945,7 @@
       <c r="F118" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="G118" s="77" t="s">
+      <c r="G118" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H118" s="32" t="s">
@@ -35989,7 +35989,7 @@
       <c r="F119" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="G119" s="77" t="s">
+      <c r="G119" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H119" s="32" t="s">
@@ -36033,7 +36033,7 @@
       <c r="F120" s="30" t="s">
         <v>1215</v>
       </c>
-      <c r="G120" s="77" t="s">
+      <c r="G120" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H120" s="32" t="s">
@@ -36077,7 +36077,7 @@
       <c r="F121" s="30" t="s">
         <v>1012</v>
       </c>
-      <c r="G121" s="77" t="s">
+      <c r="G121" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H121" s="32" t="s">
@@ -36121,7 +36121,7 @@
       <c r="F122" s="30" t="s">
         <v>1216</v>
       </c>
-      <c r="G122" s="77" t="s">
+      <c r="G122" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H122" s="32" t="s">
@@ -36165,7 +36165,7 @@
       <c r="F123" s="30" t="s">
         <v>1012</v>
       </c>
-      <c r="G123" s="77" t="s">
+      <c r="G123" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H123" s="32" t="s">
@@ -36209,7 +36209,7 @@
       <c r="F124" s="31" t="s">
         <v>1206</v>
       </c>
-      <c r="G124" s="77" t="s">
+      <c r="G124" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H124" s="32" t="s">
@@ -36253,7 +36253,7 @@
       <c r="F125" s="31" t="s">
         <v>1298</v>
       </c>
-      <c r="G125" s="77" t="s">
+      <c r="G125" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H125" s="32" t="s">
@@ -36297,7 +36297,7 @@
       <c r="F126" s="31" t="s">
         <v>1210</v>
       </c>
-      <c r="G126" s="77" t="s">
+      <c r="G126" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H126" s="32" t="s">
@@ -36341,7 +36341,7 @@
       <c r="F127" s="31" t="s">
         <v>1414</v>
       </c>
-      <c r="G127" s="77" t="s">
+      <c r="G127" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H127" s="32" t="s">
@@ -36385,7 +36385,7 @@
       <c r="F128" s="31" t="s">
         <v>1442</v>
       </c>
-      <c r="G128" s="77" t="s">
+      <c r="G128" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H128" s="32" t="s">
@@ -36429,7 +36429,7 @@
       <c r="F129" s="31" t="s">
         <v>1444</v>
       </c>
-      <c r="G129" s="77" t="s">
+      <c r="G129" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H129" s="32" t="s">
@@ -36473,7 +36473,7 @@
       <c r="F130" s="31" t="s">
         <v>1446</v>
       </c>
-      <c r="G130" s="77" t="s">
+      <c r="G130" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H130" s="32" t="s">
@@ -36513,7 +36513,7 @@
       <c r="D131" s="41"/>
       <c r="E131" s="31"/>
       <c r="F131" s="31"/>
-      <c r="G131" s="77" t="s">
+      <c r="G131" s="47" t="s">
         <v>1338</v>
       </c>
       <c r="H131" s="32" t="s">
@@ -37400,32 +37400,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1447</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="69" t="s">
         <v>1358</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="39" t="s">
         <v>1373</v>
       </c>
@@ -40892,10 +40892,10 @@
         <v>1392</v>
       </c>
       <c r="D79" s="41"/>
-      <c r="E79" s="69" t="s">
+      <c r="E79" s="71" t="s">
         <v>1264</v>
       </c>
-      <c r="F79" s="69" t="s">
+      <c r="F79" s="71" t="s">
         <v>1265</v>
       </c>
       <c r="G79" s="34" t="s">
@@ -40904,10 +40904,10 @@
       <c r="H79" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="71">
-        <v>0</v>
-      </c>
-      <c r="J79" s="71">
+      <c r="I79" s="73">
+        <v>0</v>
+      </c>
+      <c r="J79" s="73">
         <v>1</v>
       </c>
       <c r="K79" s="18" t="s">
@@ -40936,16 +40936,16 @@
         <v>1392</v>
       </c>
       <c r="D80" s="41"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
       <c r="G80" s="34" t="s">
         <v>1338</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
       <c r="K80" s="18" t="s">
         <v>3</v>
       </c>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C54B4-5C1E-4109-9B4F-5D49DC773302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DEF57B-2315-4238-9E51-24EE47CF51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -13269,7 +13269,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13 H13">
+  <conditionalFormatting sqref="H13 J13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13383,7 +13383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -24694,7 +24694,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126 L124">
+  <conditionalFormatting sqref="L124 L126">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24759,11 +24759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D127" sqref="D127"/>
+      <selection pane="bottomRight" activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30270,7 +30270,7 @@
         <v>3</v>
       </c>
       <c r="I126" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="18">
         <v>3</v>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DEF57B-2315-4238-9E51-24EE47CF51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA429D6-1AD4-4C29-858C-95738BAF0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -8029,7 +8029,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G117" sqref="G117:G131"/>
+      <selection pane="bottomRight" activeCell="Q109" sqref="Q109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>3</v>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="U109" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13269,7 +13269,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13">
+  <conditionalFormatting sqref="J13 H13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18796,11 +18796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N94" sqref="N94"/>
+      <selection pane="bottomRight" activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22511,7 +22511,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="18" t="s">
         <v>3</v>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="W87" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24694,7 +24694,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
+  <conditionalFormatting sqref="L126 L124">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24759,11 +24759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G120" sqref="G120"/>
+      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA429D6-1AD4-4C29-858C-95738BAF0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953B479-B010-4A4E-8003-B45122CF0072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -18796,7 +18796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -24759,11 +24759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="N105" sqref="N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="V101" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29260,10 +29260,10 @@
         <v>3</v>
       </c>
       <c r="I102" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="18" t="s">
         <v>3</v>
@@ -29273,7 +29273,7 @@
       </c>
       <c r="M102" s="20" t="str">
         <f t="shared" si="4"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="V102" s="3" t="str">
         <f t="shared" si="5"/>
@@ -30913,7 +30913,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="U127" sqref="U127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953B479-B010-4A4E-8003-B45122CF0072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD27942E-E5F2-420F-90DE-D0286B089089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -13269,7 +13269,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13 H13">
+  <conditionalFormatting sqref="H13 J13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24694,7 +24694,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126 L124">
+  <conditionalFormatting sqref="L124 L126">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24759,7 +24759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -30909,11 +30909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U127" sqref="U127"/>
+      <selection pane="bottomRight" activeCell="M134" sqref="M134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36520,10 +36520,10 @@
         <v>3</v>
       </c>
       <c r="I131" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="33" t="s">
         <v>3</v>
@@ -36537,7 +36537,7 @@
       </c>
       <c r="V131" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347554AC-A884-4F43-A1F8-3431B804DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6609163-63BE-4229-A321-C992332E9A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -6144,14 +6144,15 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="393">
+  <dxfs count="336">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -6576,463 +6577,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -9619,9 +9163,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="111" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -14306,7 +13850,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H3:H8 I66:J86 H59:H69 H23:J25 J58:J65 J87:J124 H15:I22 H27:J28 H26:I26 I29:J51 I52:I53">
-    <cfRule type="containsText" dxfId="392" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="335" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14323,7 +13867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J101">
-    <cfRule type="containsText" dxfId="391" priority="176" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="334" priority="176" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J94))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14340,7 +13884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J124">
-    <cfRule type="containsText" dxfId="390" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="333" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J118))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14357,7 +13901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="389" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="332" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14374,7 +13918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="388" priority="160" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="331" priority="160" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14391,7 +13935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12 J4:J10 I14">
-    <cfRule type="containsText" dxfId="387" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="330" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -14406,7 +13950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="386" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="329" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="156">
@@ -14421,7 +13965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="384" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="328" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="152">
@@ -14436,7 +13980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J127 J129:J130">
-    <cfRule type="containsText" dxfId="383" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="327" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14453,7 +13997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J127 J129:J130">
-    <cfRule type="containsText" dxfId="382" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="326" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14470,7 +14014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="381" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="325" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14487,7 +14031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="380" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="324" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14504,12 +14048,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:H125">
-    <cfRule type="containsText" dxfId="379" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="323" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H119))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="378" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="322" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14526,7 +14070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H34 H41:H52">
-    <cfRule type="containsText" dxfId="377" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="321" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14543,7 +14087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H40">
-    <cfRule type="containsText" dxfId="376" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="320" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14560,7 +14104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H58">
-    <cfRule type="containsText" dxfId="375" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="319" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14577,7 +14121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="containsText" dxfId="374" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="318" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14594,7 +14138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="containsText" dxfId="373" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="317" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14611,7 +14155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H128 H130">
-    <cfRule type="containsText" dxfId="372" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="316" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14628,7 +14172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H125 H70">
-    <cfRule type="containsText" dxfId="371" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="315" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14657,12 +14201,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="370" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="314" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H128 H130">
-    <cfRule type="containsText" dxfId="369" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="313" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14691,22 +14235,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:H112">
-    <cfRule type="containsText" dxfId="368" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="312" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I65">
-    <cfRule type="containsText" dxfId="367" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="311" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I60))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="containsText" dxfId="366" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="310" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I130))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="365" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="309" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14723,7 +14267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H88">
-    <cfRule type="containsText" dxfId="364" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="308" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14740,7 +14284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H76">
-    <cfRule type="containsText" dxfId="363" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="307" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14757,7 +14301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89:H94">
-    <cfRule type="containsText" dxfId="362" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="306" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14774,7 +14318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H106">
-    <cfRule type="containsText" dxfId="361" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="305" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14803,7 +14347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I59">
-    <cfRule type="containsText" dxfId="360" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="304" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14904,7 +14448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I123">
-    <cfRule type="containsText" dxfId="359" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="303" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I111))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14921,32 +14465,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:I123">
-    <cfRule type="containsText" dxfId="358" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="302" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I118))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:I98">
-    <cfRule type="containsText" dxfId="357" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="301" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I87))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99:I104">
-    <cfRule type="containsText" dxfId="356" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="300" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I99))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105:I110">
-    <cfRule type="containsText" dxfId="355" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="299" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124:I129">
-    <cfRule type="containsText" dxfId="354" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="298" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J22">
-    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="297" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14963,7 +14507,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="296" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14980,7 +14524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J57">
-    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="295" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15015,11 +14559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I123" sqref="I123:I127"/>
+      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19118,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" s="18" t="s">
         <v>3</v>
@@ -19129,7 +18673,7 @@
       </c>
       <c r="S109" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -19236,14 +18780,14 @@
         <v>0</v>
       </c>
       <c r="I112" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" s="18" t="s">
         <v>3</v>
       </c>
       <c r="K112" s="20" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
       <c r="S112" s="3" t="str">
         <f t="shared" si="3"/>
@@ -19983,7 +19527,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O43:O44 H43:H44 M73:M84 M112:M125 O112:O125 H113:J116 M127 O127 H127 M129:M130 O129:O130 H129:J130 M96:M99 M101:M109 O49:O109 H49:J49 H53:J61 H52 J52 H63:J66 H62 J62 H68:J73 H67 J67 H76:J79 H75 J75 H81:J84 H80 J80 H86:J89 H85 J85 H91:J99 H90 J90 H101:J104 H100 J100 H106:J109 H105 J105 H112 J112 H118:J121 H117 J117 H123:J125 H122 J122 J127 H51:J51 H50:I50 H74:I74">
-    <cfRule type="containsText" dxfId="353" priority="382" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="294" priority="382" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="383">
@@ -19998,7 +19542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12 I38 J25 I39:J41 M126 O126 H126:J126 M128 O128 H128:J128 M28:M33 H27:H34 O39:O41 M39:M42 H39:H42 M110:M111 O110:O111 H110:J111 M18:M24 O15:O24 H15:H25 I28:I33 I41:I42 I15:J24">
-    <cfRule type="containsText" dxfId="352" priority="374" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="293" priority="374" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20015,7 +19559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14">
-    <cfRule type="containsText" dxfId="351" priority="372" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="292" priority="372" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="373">
@@ -20030,7 +19574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J14">
-    <cfRule type="containsText" dxfId="350" priority="370" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="291" priority="370" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="371">
@@ -20045,7 +19589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="349" priority="368" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="290" priority="368" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="369">
@@ -20060,7 +19604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="348" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="289" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -20075,7 +19619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="347" priority="364" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="288" priority="364" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="365">
@@ -20090,7 +19634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="346" priority="358" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="287" priority="358" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="359">
@@ -20105,7 +19649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="345" priority="360" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="286" priority="360" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="361">
@@ -20120,7 +19664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="344" priority="356" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="285" priority="356" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="357">
@@ -20135,7 +19679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="343" priority="354" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="284" priority="354" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="355">
@@ -20150,7 +19694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="342" priority="352" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="283" priority="352" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="353">
@@ -20165,7 +19709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="341" priority="350" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="282" priority="350" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="351">
@@ -20180,7 +19724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="340" priority="348" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="281" priority="348" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="349">
@@ -20195,7 +19739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="339" priority="346" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="280" priority="346" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="347">
@@ -20210,7 +19754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="338" priority="344" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="279" priority="344" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="345">
@@ -20225,7 +19769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="337" priority="342" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="278" priority="342" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="343">
@@ -20240,7 +19784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="336" priority="340" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="277" priority="340" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="341">
@@ -20255,7 +19799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J29 J31:J34">
-    <cfRule type="containsText" dxfId="335" priority="338" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="276" priority="338" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20272,7 +19816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="334" priority="324" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="275" priority="324" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="325">
@@ -20287,7 +19831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="333" priority="322" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="274" priority="322" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20304,7 +19848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="332" priority="320" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="273" priority="320" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="321">
@@ -20319,7 +19863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43 J45:J46 I47 I44:I45">
-    <cfRule type="containsText" dxfId="331" priority="318" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="272" priority="318" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="319">
@@ -20334,7 +19878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="330" priority="306" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="271" priority="306" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20351,7 +19895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="329" priority="291" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="270" priority="291" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20368,7 +19912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="328" priority="289" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="269" priority="289" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -20383,12 +19927,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="containsText" dxfId="327" priority="263" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="268" priority="263" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H100))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H17">
-    <cfRule type="containsText" dxfId="326" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="267" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20405,7 +19949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H47 H53:H57">
-    <cfRule type="containsText" dxfId="325" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="266" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20422,7 +19966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H52">
-    <cfRule type="containsText" dxfId="324" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="265" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20439,7 +19983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H62 H68:H72">
-    <cfRule type="containsText" dxfId="323" priority="276" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="264" priority="276" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20456,7 +20000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H67">
-    <cfRule type="containsText" dxfId="322" priority="274" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="263" priority="274" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20473,7 +20017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="321" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="262" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20490,12 +20034,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H90">
-    <cfRule type="containsText" dxfId="320" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="261" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H95">
-    <cfRule type="containsText" dxfId="319" priority="265" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="260" priority="265" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20512,12 +20056,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100">
-    <cfRule type="containsText" dxfId="318" priority="120" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="259" priority="120" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M100))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="containsText" dxfId="317" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="258" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -20532,7 +20076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="containsText" dxfId="316" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="257" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20549,7 +20093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="containsText" dxfId="315" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="256" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="146">
@@ -20564,7 +20108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:O46">
-    <cfRule type="containsText" dxfId="314" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="255" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="144">
@@ -20579,7 +20123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="containsText" dxfId="313" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="254" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="138">
@@ -20594,7 +20138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M17">
-    <cfRule type="containsText" dxfId="312" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="253" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20611,7 +20155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:M47 M53:M57">
-    <cfRule type="containsText" dxfId="311" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="252" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20628,7 +20172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M48:M52">
-    <cfRule type="containsText" dxfId="310" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="251" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20645,17 +20189,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58:M62 M68:M72">
-    <cfRule type="containsText" dxfId="309" priority="126" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="250" priority="126" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M67">
-    <cfRule type="containsText" dxfId="308" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="249" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M63))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M85">
-    <cfRule type="containsText" dxfId="307" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="248" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20672,7 +20216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M86:M90">
-    <cfRule type="containsText" dxfId="306" priority="122" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="247" priority="122" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20689,12 +20233,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:M95">
-    <cfRule type="containsText" dxfId="305" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="246" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M91))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M12 M25 M27 M34 O25">
-    <cfRule type="containsText" dxfId="304" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="245" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20711,7 +20255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O14">
-    <cfRule type="containsText" dxfId="303" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="244" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -20726,7 +20270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="containsText" dxfId="302" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="243" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="180">
@@ -20741,7 +20285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="containsText" dxfId="301" priority="177" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="242" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="178">
@@ -20756,7 +20300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="containsText" dxfId="300" priority="175" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="241" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="176">
@@ -20771,7 +20315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="containsText" dxfId="299" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="240" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="168">
@@ -20786,7 +20330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="containsText" dxfId="298" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="239" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -20801,7 +20345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="297" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="238" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="156">
@@ -20816,7 +20360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="containsText" dxfId="296" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="237" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="154">
@@ -20831,7 +20375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O35">
-    <cfRule type="containsText" dxfId="295" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="236" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20848,7 +20392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="containsText" dxfId="294" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="235" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20865,12 +20409,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="containsText" dxfId="293" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="234" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="containsText" dxfId="292" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="233" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I112))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20887,7 +20431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="291" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="232" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20904,7 +20448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="290" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="231" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20933,7 +20477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="289" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="230" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20950,7 +20494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="288" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="229" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20967,7 +20511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="containsText" dxfId="287" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="228" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20984,7 +20528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="286" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="227" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21001,7 +20545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="285" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="226" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21018,7 +20562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="284" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="225" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21035,7 +20579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="containsText" dxfId="283" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="224" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21052,7 +20596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="containsText" dxfId="282" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="223" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21069,7 +20613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="containsText" dxfId="281" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="222" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I100))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21086,7 +20630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="221" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21103,7 +20647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="containsText" dxfId="279" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="220" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I117))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21120,7 +20664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="containsText" dxfId="278" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="219" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I122))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21137,7 +20681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="containsText" dxfId="277" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="218" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21154,7 +20698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="276" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="217" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21171,7 +20715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="275" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="216" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26771,7 +26315,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J38 L3:L11 I125 I127 I64:K71 J73:K84 I49:I53 I60:I63 K39:K63 K72 I120:I123 K85:K123 K127 K125">
-    <cfRule type="containsText" dxfId="274" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="215" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26788,7 +26332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I9:J14 J17 I27 I21:I25 K25:K26 K37:K38 I34:I35 J14:J15">
-    <cfRule type="containsText" dxfId="273" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="214" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26805,7 +26349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="272" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="213" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26822,7 +26366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="271" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="212" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26839,7 +26383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="270" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="211" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26856,7 +26400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="269" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="210" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26873,7 +26417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K19">
-    <cfRule type="containsText" dxfId="268" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="209" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26890,7 +26434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L123 L125 L127">
-    <cfRule type="containsText" dxfId="267" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="208" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26907,7 +26451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="266" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26924,7 +26468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsText" dxfId="265" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="206" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26941,7 +26485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J37">
-    <cfRule type="containsText" dxfId="264" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26958,7 +26502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I41 I48">
-    <cfRule type="containsText" dxfId="263" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="204" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26975,7 +26519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="262" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26992,7 +26536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="261" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27009,7 +26553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="260" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27026,7 +26570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35 K27:K34">
-    <cfRule type="containsText" dxfId="259" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27043,7 +26587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J31:J33">
-    <cfRule type="containsText" dxfId="258" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27060,7 +26604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J21 K20:K24 J23:J25">
-    <cfRule type="containsText" dxfId="257" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27077,7 +26621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="256" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27094,11 +26638,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124 I126 K126 K124">
-    <cfRule type="containsText" dxfId="255" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I124 I126 K126 K124">
+  <conditionalFormatting sqref="I126 I124 K126 K124">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27111,11 +26655,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124 L126">
-    <cfRule type="containsText" dxfId="254" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126 L124">
+  <conditionalFormatting sqref="L124 L126">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27128,11 +26672,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128 K128">
-    <cfRule type="containsText" dxfId="253" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128 I128">
+  <conditionalFormatting sqref="I128 K128">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27145,7 +26689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="252" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27162,7 +26706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I20">
-    <cfRule type="containsText" dxfId="98" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27179,7 +26723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33">
-    <cfRule type="containsText" dxfId="97" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27196,7 +26740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:I47">
-    <cfRule type="containsText" dxfId="96" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27213,7 +26757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I59">
-    <cfRule type="containsText" dxfId="94" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27230,7 +26774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:I77">
-    <cfRule type="containsText" dxfId="92" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27247,7 +26791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:I83">
-    <cfRule type="containsText" dxfId="90" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27264,7 +26808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91:I95">
-    <cfRule type="containsText" dxfId="76" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27281,7 +26825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="containsText" dxfId="75" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27298,7 +26842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:I89">
-    <cfRule type="containsText" dxfId="74" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27315,7 +26859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:I107">
-    <cfRule type="containsText" dxfId="70" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I103))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27332,7 +26876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I102))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27349,7 +26893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I101">
-    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I96))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27366,7 +26910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I119">
-    <cfRule type="containsText" dxfId="64" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I115))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27383,7 +26927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="containsText" dxfId="63" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I114))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27400,7 +26944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I113">
-    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I108))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27417,7 +26961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="61" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27434,7 +26978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27451,7 +26995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="59" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27468,7 +27012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:J45">
-    <cfRule type="containsText" dxfId="58" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27485,7 +27029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:J51">
-    <cfRule type="containsText" dxfId="57" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27502,7 +27046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J57">
-    <cfRule type="containsText" dxfId="56" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27519,7 +27063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:J63">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27536,7 +27080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27553,7 +27097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27570,7 +27114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:J91">
-    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27587,7 +27131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:J97">
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J92))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27604,7 +27148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:J103">
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J98))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27621,7 +27165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:J109">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J104))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27638,7 +27182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J110:J115">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J110))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27655,7 +27199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:J121">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J116))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27672,7 +27216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122:J127">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J122))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27689,7 +27233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33220,7 +32764,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I38:I45 J38:J40 K45:K48 L13:L19 I23:K23 L21:L78 I68:K74 J21:K22 J49:K51 I82:L90 I24 K24 J43:J48 I66:I67 K52:K67 I76:K78 I75 K75 I81 K80:L81 I92:L95 I91 K91:L91 I97:L100 I96 K96:L96 I102:L122 I101 K101:L101 I124:L124">
-    <cfRule type="containsText" dxfId="251" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33237,7 +32781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14 J13 I3:J6 K14:K15 I25 I27 I29 I34 J28:K28 K27 I30:K30 I31:J32 K31:K34 J19 J16:K17 K10:K12 I7:I12 K18">
-    <cfRule type="containsText" dxfId="250" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33254,7 +32798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="249" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33271,7 +32815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L12 K3:K6">
-    <cfRule type="containsText" dxfId="248" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33288,7 +32832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="247" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33305,7 +32849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="246" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33322,7 +32866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="245" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33339,7 +32883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="244" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33356,7 +32900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="243" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33373,7 +32917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="242" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33390,7 +32934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="241" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33407,7 +32951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="240" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33424,7 +32968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="239" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33441,7 +32985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="238" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33458,7 +33002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="237" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33475,7 +33019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="236" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33492,7 +33036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="235" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33509,7 +33053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="234" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33526,7 +33070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="233" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33543,7 +33087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="232" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33560,7 +33104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="231" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33577,12 +33121,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K44">
-    <cfRule type="containsText" dxfId="230" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="229" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33599,7 +33143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="228" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33616,7 +33160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="containsText" dxfId="227" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33633,7 +33177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="226" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33650,7 +33194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="225" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33667,7 +33211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="224" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33684,7 +33228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="223" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33713,7 +33257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L20">
-    <cfRule type="containsText" dxfId="222" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33730,7 +33274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L125">
-    <cfRule type="containsText" dxfId="221" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33747,7 +33291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="containsText" dxfId="220" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33764,7 +33308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="219" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33781,7 +33325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125">
-    <cfRule type="containsText" dxfId="218" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33798,7 +33342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I17">
-    <cfRule type="containsText" dxfId="217" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33815,7 +33359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I22">
-    <cfRule type="containsText" dxfId="216" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33832,7 +33376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="215" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33849,7 +33393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="214" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33866,7 +33410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:I50">
-    <cfRule type="containsText" dxfId="213" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33883,7 +33427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I55">
-    <cfRule type="containsText" dxfId="212" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33900,7 +33444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I60">
-    <cfRule type="containsText" dxfId="211" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33917,7 +33461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I65">
-    <cfRule type="containsText" dxfId="210" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33934,7 +33478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:J80">
-    <cfRule type="containsText" dxfId="209" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33951,7 +33495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="208" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33968,7 +33512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="207" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33985,7 +33529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="containsText" dxfId="206" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34002,7 +33546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79">
-    <cfRule type="containsText" dxfId="205" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34019,7 +33563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J12">
-    <cfRule type="containsText" dxfId="204" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34036,7 +33580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="203" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34053,7 +33597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="202" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34070,7 +33614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="201" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34087,7 +33631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="containsText" dxfId="200" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34104,7 +33648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="containsText" dxfId="199" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J101))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34121,7 +33665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="198" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34138,7 +33682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:J56">
-    <cfRule type="containsText" dxfId="197" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34155,7 +33699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="containsText" dxfId="196" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34172,7 +33716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:J61">
-    <cfRule type="containsText" dxfId="195" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34189,7 +33733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="containsText" dxfId="194" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34206,7 +33750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J67">
-    <cfRule type="containsText" dxfId="193" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34223,7 +33767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="containsText" dxfId="192" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34240,7 +33784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81">
-    <cfRule type="containsText" dxfId="191" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34257,7 +33801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="190" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34274,7 +33818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="containsText" dxfId="189" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J96))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34291,7 +33835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123:L123">
-    <cfRule type="containsText" dxfId="188" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I123))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40015,7 +39559,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I50:K54 I39:I49 I55:J55 J46:J49 K44:K49 L13:L20 I56:K79 K82 I84:K126 I81:K81">
-    <cfRule type="containsText" dxfId="187" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40032,7 +39576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I17 J14:J16 K3:K17 L3:L12 I18:K19 K32:K34 I23:K26 I20">
-    <cfRule type="containsText" dxfId="186" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40049,7 +39593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L79 L84:L126 L81:L82">
-    <cfRule type="containsText" dxfId="185" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40066,7 +39610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="184" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40083,7 +39627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="183" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40100,7 +39644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="182" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40117,7 +39661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="181" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40134,7 +39678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="180" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40151,7 +39695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="179" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40168,7 +39712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="178" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40185,7 +39729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I38">
-    <cfRule type="containsText" dxfId="177" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40202,7 +39746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J38">
-    <cfRule type="containsText" dxfId="176" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40219,7 +39763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="175" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40236,7 +39780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="containsText" dxfId="174" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40253,7 +39797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J44 K39:K42">
-    <cfRule type="containsText" dxfId="173" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40270,7 +39814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="172" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40287,7 +39831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K31">
-    <cfRule type="containsText" dxfId="171" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40304,7 +39848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="170" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40321,7 +39865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="169" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40338,7 +39882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="168" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40355,7 +39899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="167" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40372,7 +39916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="166" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40389,7 +39933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="containsText" dxfId="165" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40406,7 +39950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="164" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40423,7 +39967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="163" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40440,7 +39984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="162" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40457,7 +40001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="161" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40474,7 +40018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="160" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40491,7 +40035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="159" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40508,7 +40052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="158" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40525,7 +40069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="157" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40542,7 +40086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:K83">
-    <cfRule type="containsText" dxfId="156" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40559,7 +40103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="155" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40576,7 +40120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:K80">
-    <cfRule type="containsText" dxfId="154" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40593,7 +40137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="153" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40610,7 +40154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:K127">
-    <cfRule type="containsText" dxfId="152" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40627,7 +40171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L127">
-    <cfRule type="containsText" dxfId="151" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40644,7 +40188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:K128">
-    <cfRule type="containsText" dxfId="150" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40661,7 +40205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40678,7 +40222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129:K129">
-    <cfRule type="containsText" dxfId="148" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40695,7 +40239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L129">
-    <cfRule type="containsText" dxfId="147" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40712,7 +40256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:K130">
-    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40729,7 +40273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L130">
-    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40746,7 +40290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:K131">
-    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40763,7 +40307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L131">
-    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40795,7 +40339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -45432,7 +44976,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I40:K74 I82:K83 I78:K78 I85:K103 K84 J75:K76 K81 I77 K77">
-    <cfRule type="containsText" dxfId="142" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45449,7 +44993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24 I25 I28:I29 I32 I31:J31 K39 K26:K32 J26 J30 I39">
-    <cfRule type="containsText" dxfId="141" priority="152" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="152" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45466,7 +45010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L78 L81:L103">
-    <cfRule type="containsText" dxfId="140" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45483,7 +45027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="139" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45500,7 +45044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="138" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45517,7 +45061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="137" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45534,7 +45078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="136" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45551,7 +45095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="133" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45568,7 +45112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="132" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45585,7 +45129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I23">
-    <cfRule type="containsText" dxfId="131" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45602,7 +45146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J23">
-    <cfRule type="containsText" dxfId="130" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45619,7 +45163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="129" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45636,7 +45180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="128" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45653,7 +45197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="127" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45670,7 +45214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="126" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45687,7 +45231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K23">
-    <cfRule type="containsText" dxfId="125" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45704,7 +45248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="124" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45721,7 +45265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="123" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45738,7 +45282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I37">
-    <cfRule type="containsText" dxfId="122" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45755,7 +45299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="121" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45772,7 +45316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="120" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45789,7 +45333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="119" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45806,7 +45350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J37">
-    <cfRule type="containsText" dxfId="118" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45823,7 +45367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="117" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45840,7 +45384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="116" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45857,7 +45401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K37">
-    <cfRule type="containsText" dxfId="115" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45874,7 +45418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="114" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45891,7 +45435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="113" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45908,7 +45452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:K80">
-    <cfRule type="containsText" dxfId="36" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45925,7 +45469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45942,7 +45486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:K79">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45959,7 +45503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45976,7 +45520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45993,7 +45537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46010,7 +45554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46027,7 +45571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46044,7 +45588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46061,7 +45605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46078,7 +45622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46095,7 +45639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46112,7 +45656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46129,7 +45673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46146,7 +45690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46163,7 +45707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46180,7 +45724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46197,7 +45741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46214,7 +45758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46231,7 +45775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46248,7 +45792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J84))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6609163-63BE-4229-A321-C992332E9A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5525EF-5E29-4295-AE48-E88E515F8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -9437,10 +9437,10 @@
   <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O74" sqref="O74"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10954,7 +10954,7 @@
         <v>98</v>
       </c>
       <c r="H45" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="18">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>113</v>
       </c>
       <c r="H50" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="18">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>128</v>
       </c>
       <c r="H55" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="18">
         <v>0</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="20" t="str">
         <f t="shared" si="0"/>
@@ -11538,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>3</v>
@@ -12895,7 +12895,7 @@
         <v>1328</v>
       </c>
       <c r="H102" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="18">
         <v>1</v>
@@ -14559,11 +14559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
+      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17519,7 +17519,7 @@
         <v>1328</v>
       </c>
       <c r="H79" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="18">
         <v>0</v>
@@ -26642,7 +26642,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126 I124 K126 K124">
+  <conditionalFormatting sqref="I124 I126 K126 K124">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26659,7 +26659,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
+  <conditionalFormatting sqref="L126 L124">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26676,7 +26676,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128 K128">
+  <conditionalFormatting sqref="K128 I128">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27268,11 +27268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O123" sqref="O123"/>
+      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -31176,7 +31176,7 @@
       </c>
       <c r="V88" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31206,7 +31206,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="18" t="s">
         <v>3</v>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5525EF-5E29-4295-AE48-E88E515F8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057DB3C-A4B7-41C5-846A-3E024A0B45A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="3300" windowWidth="33150" windowHeight="17700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -26642,7 +26642,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I124 I126 K126 K124">
+  <conditionalFormatting sqref="I126 I124 K126 K124">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26659,7 +26659,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126 L124">
+  <conditionalFormatting sqref="L124 L126">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26676,7 +26676,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128 I128">
+  <conditionalFormatting sqref="I128 K128">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27272,7 +27272,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -31572,7 +31572,7 @@
       </c>
       <c r="V97" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31602,7 +31602,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="18" t="s">
         <v>3</v>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057DB3C-A4B7-41C5-846A-3E024A0B45A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C27EC-66DC-48BA-B2A2-F4733A24D00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3300" windowWidth="33150" windowHeight="17700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -14559,11 +14559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomRight" activeCell="H112" sqref="H112:I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18092,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="18" t="s">
         <v>3</v>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="S94" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -18777,7 +18777,7 @@
         <v>1328</v>
       </c>
       <c r="H112" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="69">
         <v>2</v>
@@ -26642,7 +26642,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126 I124 K126 K124">
+  <conditionalFormatting sqref="I124 I126 K126 K124">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26659,7 +26659,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
+  <conditionalFormatting sqref="L126 L124">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26676,7 +26676,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128 K128">
+  <conditionalFormatting sqref="K128 I128">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27268,11 +27268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N73" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CD17F5-9A84-4D37-BB3D-A2474F5DF5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C529B-8318-4DDA-BCF6-3C1122A26833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5565" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="1456">
   <si>
     <t>P</t>
   </si>
@@ -6191,7 +6191,39 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="336">
+  <dxfs count="342">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6200,6 +6232,22 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -9210,9 +9258,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -9484,10 +9532,10 @@
   <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13897,7 +13945,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H3:H8 I66:J86 H59:H69 H23:J25 J58:J65 J87:J124 H15:I22 H27:J28 H26:I26 I29:J51 I52:I53">
-    <cfRule type="containsText" dxfId="335" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="341" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13914,7 +13962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J101">
-    <cfRule type="containsText" dxfId="334" priority="176" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="340" priority="176" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J94))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13931,7 +13979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J124">
-    <cfRule type="containsText" dxfId="333" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="339" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J118))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13948,7 +13996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="332" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="338" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13965,7 +14013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="331" priority="160" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="337" priority="160" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13982,7 +14030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12 J4:J10 I14">
-    <cfRule type="containsText" dxfId="330" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="336" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -13997,7 +14045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="329" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="335" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="156">
@@ -14012,7 +14060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="328" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="334" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="152">
@@ -14027,7 +14075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J127 J129:J130">
-    <cfRule type="containsText" dxfId="327" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="333" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14044,7 +14092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J127 J129:J130">
-    <cfRule type="containsText" dxfId="326" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="332" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14061,7 +14109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="325" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="331" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14078,7 +14126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="324" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="330" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14095,12 +14143,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:H125">
-    <cfRule type="containsText" dxfId="323" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="329" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H119))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="322" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="328" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14117,7 +14165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H34 H41:H52">
-    <cfRule type="containsText" dxfId="321" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="327" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14134,7 +14182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H40">
-    <cfRule type="containsText" dxfId="320" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="326" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14151,7 +14199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H58">
-    <cfRule type="containsText" dxfId="319" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="325" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14168,7 +14216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="containsText" dxfId="318" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="324" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14185,7 +14233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="containsText" dxfId="317" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="323" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14202,7 +14250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H128 H130">
-    <cfRule type="containsText" dxfId="316" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="322" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14219,7 +14267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H125 H70">
-    <cfRule type="containsText" dxfId="315" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="321" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14248,12 +14296,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="314" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="320" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H128 H130">
-    <cfRule type="containsText" dxfId="313" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="319" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14282,22 +14330,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:H112">
-    <cfRule type="containsText" dxfId="312" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="318" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H107))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I65">
-    <cfRule type="containsText" dxfId="311" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="317" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I60))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="containsText" dxfId="310" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="316" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I130))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="309" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="315" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14314,7 +14362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H88">
-    <cfRule type="containsText" dxfId="308" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="314" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14331,7 +14379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H76">
-    <cfRule type="containsText" dxfId="307" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="313" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14348,7 +14396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89:H94">
-    <cfRule type="containsText" dxfId="306" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="312" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14365,7 +14413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H106">
-    <cfRule type="containsText" dxfId="305" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="311" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14394,7 +14442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I59">
-    <cfRule type="containsText" dxfId="304" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="310" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14495,7 +14543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I123">
-    <cfRule type="containsText" dxfId="303" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="309" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I111))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14512,32 +14560,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:I123">
-    <cfRule type="containsText" dxfId="302" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="308" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I118))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:I98">
-    <cfRule type="containsText" dxfId="301" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="307" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I87))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99:I104">
-    <cfRule type="containsText" dxfId="300" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="306" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I99))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105:I110">
-    <cfRule type="containsText" dxfId="299" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="305" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124:I129">
-    <cfRule type="containsText" dxfId="298" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="304" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J22">
-    <cfRule type="containsText" dxfId="297" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="303" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14554,7 +14602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="296" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="302" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14571,7 +14619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J57">
-    <cfRule type="containsText" dxfId="295" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="301" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19574,7 +19622,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O43:O44 H43:H44 M73:M84 M112:M125 O112:O125 H113:J116 M127 O127 H127 M129:M130 O129:O130 H129:J130 M96:M99 M101:M109 O49:O109 H49:J49 H53:J61 H52 J52 H63:J66 H62 J62 H68:J73 H67 J67 H76:J79 H75 J75 H81:J84 H80 J80 H86:J89 H85 J85 H91:J99 H90 J90 H101:J104 H100 J100 H106:J109 H105 J105 H112 J112 H118:J121 H117 J117 H123:J125 H122 J122 J127 H51:J51 H50:I50 H74:I74">
-    <cfRule type="containsText" dxfId="294" priority="382" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="300" priority="382" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="383">
@@ -19589,7 +19637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12 I38 J25 I39:J41 M126 O126 H126:J126 M128 O128 H128:J128 M28:M33 H27:H34 O39:O41 M39:M42 H39:H42 M110:M111 O110:O111 H110:J111 M18:M24 O15:O24 H15:H25 I28:I33 I41:I42 I15:J24">
-    <cfRule type="containsText" dxfId="293" priority="374" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="299" priority="374" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19606,7 +19654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14">
-    <cfRule type="containsText" dxfId="292" priority="372" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="298" priority="372" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="373">
@@ -19621,7 +19669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J14">
-    <cfRule type="containsText" dxfId="291" priority="370" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="297" priority="370" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="371">
@@ -19636,7 +19684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="290" priority="368" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="296" priority="368" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="369">
@@ -19651,7 +19699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="289" priority="366" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="295" priority="366" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
@@ -19666,7 +19714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="288" priority="364" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="294" priority="364" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="365">
@@ -19681,7 +19729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="287" priority="358" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="293" priority="358" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="359">
@@ -19696,7 +19744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="286" priority="360" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="292" priority="360" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="361">
@@ -19711,7 +19759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="285" priority="356" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="291" priority="356" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="357">
@@ -19726,7 +19774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="284" priority="354" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="290" priority="354" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="355">
@@ -19741,7 +19789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="283" priority="352" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="289" priority="352" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="353">
@@ -19756,7 +19804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="282" priority="350" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="288" priority="350" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="351">
@@ -19771,7 +19819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="281" priority="348" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="287" priority="348" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="349">
@@ -19786,7 +19834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="280" priority="346" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="286" priority="346" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="347">
@@ -19801,7 +19849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="279" priority="344" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="285" priority="344" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="345">
@@ -19816,7 +19864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="278" priority="342" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="284" priority="342" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="343">
@@ -19831,7 +19879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="277" priority="340" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="283" priority="340" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="341">
@@ -19846,7 +19894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J29 J31:J34">
-    <cfRule type="containsText" dxfId="276" priority="338" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="282" priority="338" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19863,7 +19911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="275" priority="324" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="281" priority="324" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="325">
@@ -19878,7 +19926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="274" priority="322" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="280" priority="322" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19895,7 +19943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="273" priority="320" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="279" priority="320" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="321">
@@ -19910,7 +19958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43 J45:J46 I47 I44:I45">
-    <cfRule type="containsText" dxfId="272" priority="318" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="278" priority="318" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="319">
@@ -19925,7 +19973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="271" priority="306" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="277" priority="306" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19942,7 +19990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="270" priority="291" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="276" priority="291" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19959,7 +20007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="269" priority="289" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="275" priority="289" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -19974,12 +20022,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="containsText" dxfId="268" priority="263" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="274" priority="263" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H100))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H17">
-    <cfRule type="containsText" dxfId="267" priority="281" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="273" priority="281" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19996,7 +20044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H47 H53:H57">
-    <cfRule type="containsText" dxfId="266" priority="279" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="272" priority="279" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20013,7 +20061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H52">
-    <cfRule type="containsText" dxfId="265" priority="277" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="271" priority="277" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20030,7 +20078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H62 H68:H72">
-    <cfRule type="containsText" dxfId="264" priority="276" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="270" priority="276" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20047,7 +20095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H67">
-    <cfRule type="containsText" dxfId="263" priority="274" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="269" priority="274" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20064,7 +20112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="262" priority="271" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="268" priority="271" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20081,12 +20129,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H90">
-    <cfRule type="containsText" dxfId="261" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="267" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H95">
-    <cfRule type="containsText" dxfId="260" priority="265" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="266" priority="265" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20103,12 +20151,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100">
-    <cfRule type="containsText" dxfId="259" priority="120" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="265" priority="120" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M100))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="containsText" dxfId="258" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="264" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -20123,7 +20171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="containsText" dxfId="257" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="263" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20140,7 +20188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="containsText" dxfId="256" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="262" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="146">
@@ -20155,7 +20203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:O46">
-    <cfRule type="containsText" dxfId="255" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="261" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="144">
@@ -20170,7 +20218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="containsText" dxfId="254" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="260" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="138">
@@ -20185,7 +20233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M17">
-    <cfRule type="containsText" dxfId="253" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="259" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20202,7 +20250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:M47 M53:M57">
-    <cfRule type="containsText" dxfId="252" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="258" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20219,7 +20267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M48:M52">
-    <cfRule type="containsText" dxfId="251" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="257" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20236,17 +20284,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58:M62 M68:M72">
-    <cfRule type="containsText" dxfId="250" priority="126" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="256" priority="126" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M67">
-    <cfRule type="containsText" dxfId="249" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="255" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M63))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M85">
-    <cfRule type="containsText" dxfId="248" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="254" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20263,7 +20311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M86:M90">
-    <cfRule type="containsText" dxfId="247" priority="122" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="253" priority="122" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20280,12 +20328,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:M95">
-    <cfRule type="containsText" dxfId="246" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="252" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M91))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M12 M25 M27 M34 O25">
-    <cfRule type="containsText" dxfId="245" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="251" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20302,7 +20350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O14">
-    <cfRule type="containsText" dxfId="244" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="250" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="182">
@@ -20317,7 +20365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="containsText" dxfId="243" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="249" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="180">
@@ -20332,7 +20380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="containsText" dxfId="242" priority="177" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="248" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="178">
@@ -20347,7 +20395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="containsText" dxfId="241" priority="175" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="247" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="176">
@@ -20362,7 +20410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="containsText" dxfId="240" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="246" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="168">
@@ -20377,7 +20425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="containsText" dxfId="239" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="245" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -20392,7 +20440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="238" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="244" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="156">
@@ -20407,7 +20455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="containsText" dxfId="237" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="243" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="154">
@@ -20422,7 +20470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O35">
-    <cfRule type="containsText" dxfId="236" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="242" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20439,7 +20487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="containsText" dxfId="235" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="241" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20456,12 +20504,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="containsText" dxfId="234" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="240" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J74))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="containsText" dxfId="233" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="239" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I112))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20478,7 +20526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="232" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="238" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20495,7 +20543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="231" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="237" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20524,7 +20572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="230" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="236" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20541,7 +20589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="229" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="235" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20558,7 +20606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="containsText" dxfId="228" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="234" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20575,7 +20623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="227" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="233" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20592,7 +20640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="226" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="232" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20609,7 +20657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="225" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="231" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20626,7 +20674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="containsText" dxfId="224" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="230" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20643,7 +20691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="containsText" dxfId="223" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="229" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20660,7 +20708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="containsText" dxfId="222" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="228" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I100))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20677,7 +20725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="containsText" dxfId="221" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="227" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20694,7 +20742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="containsText" dxfId="220" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="226" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I117))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20711,7 +20759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="containsText" dxfId="219" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="225" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I122))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20728,7 +20776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="containsText" dxfId="218" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="224" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20745,7 +20793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="217" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="223" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20762,7 +20810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="216" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="222" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20801,7 +20849,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:H2"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22712,7 +22760,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="55">
         <v>0</v>
@@ -26363,7 +26411,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J38 L3:L11 I125 I127 I64:K71 J73:K84 I49:I53 I60:I63 K39:K63 K72 I120:I123 K85:K123 K127 K125">
-    <cfRule type="containsText" dxfId="215" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="221" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26380,7 +26428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I9:J14 J17 I27 I21:I25 K25:K26 K37:K38 I34:I35 J14:J15">
-    <cfRule type="containsText" dxfId="214" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="220" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26397,7 +26445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="213" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="219" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26414,7 +26462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="212" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="218" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26431,7 +26479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="211" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="217" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26448,7 +26496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="210" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="216" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26465,7 +26513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K19">
-    <cfRule type="containsText" dxfId="209" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="215" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26482,7 +26530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L123 L125 L127">
-    <cfRule type="containsText" dxfId="208" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="214" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26499,7 +26547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="213" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26516,7 +26564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsText" dxfId="206" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="212" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26533,7 +26581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J37">
-    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26550,7 +26598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I41 I48">
-    <cfRule type="containsText" dxfId="204" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="210" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26567,7 +26615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="203" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="209" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26584,7 +26632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="202" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="208" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26601,7 +26649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="201" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="207" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26618,7 +26666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35 K27:K34">
-    <cfRule type="containsText" dxfId="200" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="206" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26635,7 +26683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J31:J33">
-    <cfRule type="containsText" dxfId="199" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="205" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26652,7 +26700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J21 K20:K24 J23:J25">
-    <cfRule type="containsText" dxfId="198" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="204" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26669,7 +26717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="197" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26686,11 +26734,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124 I126 K126 K124">
-    <cfRule type="containsText" dxfId="196" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126 I124 K126 K124">
+  <conditionalFormatting sqref="I124 I126 K126 K124">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26703,11 +26751,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124 L126">
-    <cfRule type="containsText" dxfId="195" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126 L124">
+  <conditionalFormatting sqref="L124 L126">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26720,11 +26768,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128 K128">
-    <cfRule type="containsText" dxfId="194" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128 I128">
+  <conditionalFormatting sqref="I128 K128">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26737,7 +26785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="193" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26754,7 +26802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I20">
-    <cfRule type="containsText" dxfId="192" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26771,7 +26819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33">
-    <cfRule type="containsText" dxfId="191" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26788,7 +26836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:I47">
-    <cfRule type="containsText" dxfId="190" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26805,7 +26853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I59">
-    <cfRule type="containsText" dxfId="189" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26822,7 +26870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:I77">
-    <cfRule type="containsText" dxfId="188" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26839,7 +26887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:I83">
-    <cfRule type="containsText" dxfId="187" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I78))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26856,7 +26904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91:I95">
-    <cfRule type="containsText" dxfId="186" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26873,7 +26921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="containsText" dxfId="185" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26890,7 +26938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:I89">
-    <cfRule type="containsText" dxfId="184" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26907,7 +26955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:I107">
-    <cfRule type="containsText" dxfId="183" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I103))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26924,7 +26972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="containsText" dxfId="182" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I102))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26941,7 +26989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I101">
-    <cfRule type="containsText" dxfId="181" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I96))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26958,7 +27006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I119">
-    <cfRule type="containsText" dxfId="180" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I115))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26975,7 +27023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="containsText" dxfId="179" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I114))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26992,7 +27040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I113">
-    <cfRule type="containsText" dxfId="178" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I108))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27009,7 +27057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="177" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27026,7 +27074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="176" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27043,7 +27091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="175" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27060,7 +27108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:J45">
-    <cfRule type="containsText" dxfId="174" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27077,7 +27125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:J51">
-    <cfRule type="containsText" dxfId="173" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27094,7 +27142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J57">
-    <cfRule type="containsText" dxfId="172" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27111,7 +27159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:J63">
-    <cfRule type="containsText" dxfId="171" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27128,7 +27176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="containsText" dxfId="170" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27145,7 +27193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="169" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J85))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27162,7 +27210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:J91">
-    <cfRule type="containsText" dxfId="168" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J86))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27179,7 +27227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:J97">
-    <cfRule type="containsText" dxfId="167" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J92))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27196,7 +27244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:J103">
-    <cfRule type="containsText" dxfId="166" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J98))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27213,7 +27261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:J109">
-    <cfRule type="containsText" dxfId="165" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J104))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27230,7 +27278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J110:J115">
-    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J110))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27247,7 +27295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:J121">
-    <cfRule type="containsText" dxfId="163" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J116))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27264,7 +27312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122:J127">
-    <cfRule type="containsText" dxfId="162" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J122))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27281,7 +27329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="161" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33167,7 +33215,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K38:K45 L38:L40 M45:M48 N13:N19 K23:M23 N21:N78 K68:M74 L21:M22 L49:M51 K82:N90 K24 M24 L43:L48 K66:K67 M52:M67 K76:M78 K75 M75 K81 M80:N81 K92:N95 K91 M91:N91 K97:N100 K96 M96:N96 K102:N122 K101 M101:N101 K124:N124">
-    <cfRule type="containsText" dxfId="160" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33184,7 +33232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14 L13 K3:L6 M14:M15 K25 K27 K29 K34 L28:M28 M27 K30:M30 K31:L32 M31:M34 L19 L16:M17 M10:M12 K7:K12 M18">
-    <cfRule type="containsText" dxfId="159" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33201,7 +33249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="158" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33218,7 +33266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N12 M3:M6">
-    <cfRule type="containsText" dxfId="157" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33235,7 +33283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="156" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33252,7 +33300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="155" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33269,7 +33317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="154" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33286,7 +33334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="153" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33303,7 +33351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="152" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33320,7 +33368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="151" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33337,7 +33385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="containsText" dxfId="150" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33354,7 +33402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="containsText" dxfId="149" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33371,7 +33419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="148" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33388,7 +33436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33405,7 +33453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="containsText" dxfId="146" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33422,7 +33470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="containsText" dxfId="145" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33439,7 +33487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="containsText" dxfId="144" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33456,7 +33504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="containsText" dxfId="143" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33473,7 +33521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="142" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33490,7 +33538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="141" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33507,7 +33555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="140" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33524,12 +33572,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:M44">
-    <cfRule type="containsText" dxfId="139" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M39))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="138" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33546,7 +33594,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="containsText" dxfId="137" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33563,7 +33611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36:M36">
-    <cfRule type="containsText" dxfId="136" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33580,7 +33628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="135" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33597,7 +33645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="containsText" dxfId="134" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33614,7 +33662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="containsText" dxfId="133" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33631,7 +33679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="containsText" dxfId="132" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33660,7 +33708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:N20">
-    <cfRule type="containsText" dxfId="131" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33677,7 +33725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N125">
-    <cfRule type="containsText" dxfId="130" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33694,7 +33742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125">
-    <cfRule type="containsText" dxfId="129" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33711,7 +33759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L125">
-    <cfRule type="containsText" dxfId="128" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33728,7 +33776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M125">
-    <cfRule type="containsText" dxfId="127" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M125))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33745,7 +33793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K17">
-    <cfRule type="containsText" dxfId="126" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33762,7 +33810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K22">
-    <cfRule type="containsText" dxfId="125" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33779,7 +33827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="124" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33796,7 +33844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="123" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33813,7 +33861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:K50">
-    <cfRule type="containsText" dxfId="122" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33830,7 +33878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K55">
-    <cfRule type="containsText" dxfId="121" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33847,7 +33895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:K60">
-    <cfRule type="containsText" dxfId="120" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33864,7 +33912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:K65">
-    <cfRule type="containsText" dxfId="119" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33881,7 +33929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:L80">
-    <cfRule type="containsText" dxfId="118" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33898,7 +33946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79">
-    <cfRule type="containsText" dxfId="117" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33915,7 +33963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79">
-    <cfRule type="containsText" dxfId="116" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33932,7 +33980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="115" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33949,7 +33997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79">
-    <cfRule type="containsText" dxfId="114" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33966,7 +34014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L12">
-    <cfRule type="containsText" dxfId="113" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33983,7 +34031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34000,7 +34048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="containsText" dxfId="111" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34017,7 +34065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="containsText" dxfId="110" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34034,7 +34082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34051,7 +34099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L101">
-    <cfRule type="containsText" dxfId="108" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L101))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34068,7 +34116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34085,7 +34133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:L56">
-    <cfRule type="containsText" dxfId="106" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34102,7 +34150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34119,7 +34167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:L61">
-    <cfRule type="containsText" dxfId="104" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34136,7 +34184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="103" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34153,7 +34201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:L67">
-    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L63))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34170,7 +34218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34187,7 +34235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81">
-    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L81))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34204,7 +34252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L91">
-    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34221,7 +34269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96">
-    <cfRule type="containsText" dxfId="98" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L96))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34238,7 +34286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:N123">
-    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K123))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34271,10 +34319,10 @@
   <dimension ref="A1:W139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
+      <selection pane="bottomRight" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -40050,9 +40098,44 @@
       </c>
     </row>
     <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="35">
+        <v>2025</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="47" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I132" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J132" s="33">
+        <v>1</v>
+      </c>
+      <c r="K132" s="33">
+        <v>1</v>
+      </c>
+      <c r="L132" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M132" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N132" s="20" t="str">
+        <f t="shared" ref="N132" si="9">IF(OR(AND(J132&gt;1,J132&lt;&gt;"-"),AND(K132&gt;1,K132&lt;&gt;"-"),AND(L132&gt;1,L132&lt;&gt;"-"),AND(M132&gt;1,M132&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="W132" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -40110,12 +40193,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="J50:L54 J39:J49 J55:K55 K46:K49 L44:L49 M13:M20 J56:L79 L82 J84:L126 J81:L81">
-    <cfRule type="containsText" dxfId="96" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:L54 J39:J49 J55:K55 K46:K49 L44:L49 M13:M20 J56:L79 L82 J84:L126 J81:L81">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -40127,12 +40210,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17 K14:K16 L3:L17 M3:M12 J18:L19 L32:L34 J23:L26 J20">
-    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17 K14:K16 L3:L17 M3:M12 J18:L19 L32:L34 J23:L26 J20">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -40144,12 +40227,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M79 M84:M126 M81:M82">
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M79 M84:M126 M81:M82">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -40161,11 +40244,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="93" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="98" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40177,12 +40277,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="92" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="97" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="96" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="95" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="94" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40194,46 +40345,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="90" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="89" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K3:K8">
+    <cfRule type="containsText" dxfId="93" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K8">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40245,29 +40362,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="88" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K8">
-    <cfRule type="containsText" dxfId="87" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K8">
+  <conditionalFormatting sqref="J27:J38">
+    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J38">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40279,12 +40379,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J38">
-    <cfRule type="containsText" dxfId="86" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J38">
+  <conditionalFormatting sqref="K27:K38">
+    <cfRule type="containsText" dxfId="91" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K38">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
+    <cfRule type="containsText" dxfId="90" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40296,12 +40413,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K38">
-    <cfRule type="containsText" dxfId="85" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K38">
+  <conditionalFormatting sqref="L55">
+    <cfRule type="containsText" dxfId="89" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40313,12 +40430,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="84" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="K39:K44 L39:L42">
+    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K44 L39:L42">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40330,12 +40447,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="83" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L55))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
+  <conditionalFormatting sqref="L27">
+    <cfRule type="containsText" dxfId="87" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40347,12 +40464,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K44 L39:L42">
-    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K44 L39:L42">
+  <conditionalFormatting sqref="L28:L31">
+    <cfRule type="containsText" dxfId="86" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28:L31">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40364,12 +40481,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="81" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="L35">
+    <cfRule type="containsText" dxfId="85" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40381,12 +40498,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L31">
-    <cfRule type="containsText" dxfId="80" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L31">
+  <conditionalFormatting sqref="L36">
+    <cfRule type="containsText" dxfId="84" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40398,12 +40515,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+  <conditionalFormatting sqref="L37">
+    <cfRule type="containsText" dxfId="83" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40415,12 +40532,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
-    <cfRule type="containsText" dxfId="78" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
+  <conditionalFormatting sqref="L43">
+    <cfRule type="containsText" dxfId="82" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40432,12 +40549,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="77" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
+  <conditionalFormatting sqref="L38">
+    <cfRule type="containsText" dxfId="81" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40449,12 +40566,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="containsText" dxfId="76" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
+  <conditionalFormatting sqref="K22:L22">
+    <cfRule type="containsText" dxfId="80" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:L22">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40466,12 +40583,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
-    <cfRule type="containsText" dxfId="75" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
+  <conditionalFormatting sqref="M22">
+    <cfRule type="containsText" dxfId="79" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40483,12 +40600,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:L22">
-    <cfRule type="containsText" dxfId="74" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:L22">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="78" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40500,12 +40617,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="containsText" dxfId="73" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40517,12 +40634,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="72" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="76" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40534,12 +40651,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="71" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="75" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40551,12 +40668,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="70" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="M21">
+    <cfRule type="containsText" dxfId="74" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40568,12 +40685,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="L21">
+    <cfRule type="containsText" dxfId="73" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40585,12 +40702,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="68" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
+  <conditionalFormatting sqref="K21">
+    <cfRule type="containsText" dxfId="72" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40602,12 +40719,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="67" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="J83:L83">
+    <cfRule type="containsText" dxfId="71" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:L83">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40619,12 +40736,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="M83">
+    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M83">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40636,12 +40753,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83:L83">
-    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83:L83">
+  <conditionalFormatting sqref="J80:L80">
+    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80:L80">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40653,12 +40770,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="containsText" dxfId="64" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
+  <conditionalFormatting sqref="M80">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M80">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40670,12 +40787,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J80:L80">
-    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80:L80">
+  <conditionalFormatting sqref="J127:L127">
+    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J127))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J127:L127">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40687,12 +40804,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M80">
-    <cfRule type="containsText" dxfId="62" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M80">
+  <conditionalFormatting sqref="M127">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M127))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M127">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40704,12 +40821,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J127:L127">
-    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J127))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J127:L127">
+  <conditionalFormatting sqref="J128:L128">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128:L128">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40721,12 +40838,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M127">
-    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M127))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M127">
+  <conditionalFormatting sqref="M128">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M128">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40738,12 +40855,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J128:L128">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J128:L128">
+  <conditionalFormatting sqref="J129:L129">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J129))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J129:L129">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40755,12 +40872,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M128">
-    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M128))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M128">
+  <conditionalFormatting sqref="M129">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M129))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M129">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40772,12 +40889,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J129:L129">
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J129))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J129:L129">
+  <conditionalFormatting sqref="J130:L130">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J130))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J130:L130">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40789,12 +40906,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M129">
-    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M129))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M129">
+  <conditionalFormatting sqref="M130">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M130))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M130">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40806,12 +40923,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J130:L130">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J130))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J130:L130">
+  <conditionalFormatting sqref="J131:L131">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J131))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J131:L131">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40823,12 +40940,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M130">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M130))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M130">
+  <conditionalFormatting sqref="M131">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M131))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M131">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40840,12 +40957,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J131:L131">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J131))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J131:L131">
+  <conditionalFormatting sqref="J132:L132">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J132))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J132:L132">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40857,12 +40974,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M131))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M131">
+  <conditionalFormatting sqref="M132">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M132))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M132">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40891,10 +41008,10 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="B2:H2"/>
+      <selection pane="bottomRight" activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -44283,7 +44400,7 @@
         <v>3</v>
       </c>
       <c r="I76" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="18">
         <v>1</v>
@@ -44326,8 +44443,8 @@
       <c r="H77" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I77" s="18" t="s">
-        <v>3</v>
+      <c r="I77" s="18">
+        <v>0</v>
       </c>
       <c r="J77" s="69">
         <v>0</v>
@@ -44371,7 +44488,7 @@
         <v>3</v>
       </c>
       <c r="I78" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="18">
         <v>0</v>
@@ -44437,7 +44554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="40">
         <v>1976</v>
       </c>
@@ -44460,7 +44577,7 @@
       <c r="H80" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I80" s="69">
         <v>0</v>
       </c>
       <c r="J80" s="56">
@@ -44504,7 +44621,7 @@
       <c r="H81" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="69">
+      <c r="I81" s="18">
         <v>0</v>
       </c>
       <c r="J81" s="69">
@@ -44569,7 +44686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="40">
         <v>1979</v>
       </c>
@@ -44590,7 +44707,7 @@
       <c r="H83" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="18">
+      <c r="I83" s="69">
         <v>1</v>
       </c>
       <c r="J83" s="18">
@@ -44633,10 +44750,10 @@
         <v>3</v>
       </c>
       <c r="I84" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="18">
         <v>0</v>
@@ -44650,7 +44767,7 @@
       </c>
       <c r="U84" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -45527,13 +45644,13 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I40:K74 I82:K83 I78:K78 I85:K103 K84 J75:K76 K81 I77 K77">
-    <cfRule type="containsText" dxfId="51" priority="157" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I40:K74 I82:K82 I78:K78 I85:K103 K84 J75:K76 K81 I77 K77 J83:K83">
+    <cfRule type="containsText" dxfId="55" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:K74 I82:K83 I78:K78 I85:K103 K84 J75:K76 K81 I77 K77">
-    <cfRule type="colorScale" priority="158">
+  <conditionalFormatting sqref="I40:K74 I82:K82 I78:K78 I85:K103 K84 J75:K76 K81 I77 K77 J83:K83">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -45545,12 +45662,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24 I25 I28:I29 I32 I31:J31 K39 K26:K32 J26 J30 I39">
-    <cfRule type="containsText" dxfId="50" priority="152" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="160" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24 I25 I28:I29 I32 I31:J31 K39 K26:K32 J26 J30 I39">
-    <cfRule type="colorScale" priority="153">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -45562,12 +45679,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L78 L81:L103">
-    <cfRule type="containsText" dxfId="49" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L78 L81:L103">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -45579,11 +45696,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="48" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="containsText" dxfId="51" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="50" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45595,12 +45746,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="47" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
+  <conditionalFormatting sqref="L7">
+    <cfRule type="containsText" dxfId="49" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45612,12 +45763,216 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="46" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="48" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="47" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I23">
+    <cfRule type="containsText" dxfId="46" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I23">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J23">
+    <cfRule type="containsText" dxfId="45" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J23">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="containsText" dxfId="44" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="43" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="containsText" dxfId="42" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="containsText" dxfId="41" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K23">
+    <cfRule type="containsText" dxfId="40" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K23">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="containsText" dxfId="38" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I37">
+    <cfRule type="containsText" dxfId="37" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I37">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="36" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45629,12 +45984,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="45" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="35" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="34" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45646,199 +46018,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="44" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="43" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I23">
-    <cfRule type="containsText" dxfId="42" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I23">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J23">
-    <cfRule type="containsText" dxfId="41" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J23">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="40" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="39" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="38" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="37" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K23">
-    <cfRule type="containsText" dxfId="36" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K23">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="34" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I37">
+  <conditionalFormatting sqref="J32:J37">
     <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I37">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J37">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45850,12 +46035,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J39">
     <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45867,12 +46052,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="K25">
     <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45884,12 +46069,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="K33:K37">
     <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K37">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45901,12 +46086,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J37">
+  <conditionalFormatting sqref="K38">
     <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J37">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45918,46 +46103,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="28" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="27" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K37">
-    <cfRule type="containsText" dxfId="26" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K37">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45969,12 +46120,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="25" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="J80:K80">
+    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80:K80">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45986,12 +46137,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="L80">
+    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:K79">
+    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:K79">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79">
     <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46003,29 +46188,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J80:K80">
-    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80:K80">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="22" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="23" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46037,12 +46205,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:K79">
-    <cfRule type="containsText" dxfId="21" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:K79">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46054,13 +46222,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="I75">
+    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46071,13 +46239,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46088,13 +46256,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46105,13 +46273,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="17" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46122,13 +46290,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="16" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46139,13 +46307,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46156,12 +46324,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="I76">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46173,29 +46341,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I84">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46207,12 +46358,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="J27">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46224,12 +46375,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
+  <conditionalFormatting sqref="J38">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46241,12 +46392,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
+  <conditionalFormatting sqref="J77">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46258,12 +46409,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
+  <conditionalFormatting sqref="J81">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46275,12 +46426,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J84">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46292,12 +46443,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="I80">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46309,12 +46460,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
+  <conditionalFormatting sqref="I81">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46326,29 +46477,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
+  <conditionalFormatting sqref="I83">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46361,7 +46495,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="K26:K32 K3:L7 I24:K24 I84:J84 J30:J31 I80:I81 I3:I7 I75:I76 K39 I25:I32 J26:J27 I39 I38:K38 J77 J81" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="K26:K32 K3:L7 I24:K24 I84:J84 J30:J31 J81 I3:I7 I75:I76 K39 I25:I32 J26:J27 I39 I38:K38 J77 I80 I83" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Regular#[1900-present]#circulation_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C529B-8318-4DDA-BCF6-3C1122A26833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A3828-0D68-4A5B-932E-AB2C3D0A1B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1090" yWindow="2990" windowWidth="33150" windowHeight="17700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1117,7 +1120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5929" uniqueCount="1464">
   <si>
     <t>P</t>
   </si>
@@ -5485,6 +5488,30 @@
   </si>
   <si>
     <t>Subtype_1#Reverse</t>
+  </si>
+  <si>
+    <t>1,513,200,000</t>
+  </si>
+  <si>
+    <t>1,712,000,000</t>
+  </si>
+  <si>
+    <t>32,880,000</t>
+  </si>
+  <si>
+    <t>79,920,000</t>
+  </si>
+  <si>
+    <t>248,000,000</t>
+  </si>
+  <si>
+    <t>307,000,000</t>
+  </si>
+  <si>
+    <t>21,900,000</t>
+  </si>
+  <si>
+    <t>15,700,000</t>
   </si>
 </sst>
 </file>
@@ -5890,7 +5917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6110,6 +6137,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6191,7 +6221,87 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="342">
+  <dxfs count="353">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6232,6 +6342,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -9258,9 +9376,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -9531,11 +9649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9550,27 +9668,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1327</v>
       </c>
       <c r="B1" s="76"/>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="91"/>
+      <c r="E1" s="87" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="79" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="80" t="s">
         <v>1300</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
+      <c r="A2" s="84"/>
       <c r="B2" s="77" t="s">
         <v>1444</v>
       </c>
@@ -10430,7 +10548,7 @@
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="85" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="23" t="s">
@@ -10466,7 +10584,7 @@
       <c r="E28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="85"/>
+      <c r="F28" s="86"/>
       <c r="G28" s="23" t="s">
         <v>3</v>
       </c>
@@ -13859,7 +13977,7 @@
         <v>3</v>
       </c>
       <c r="K128" s="20" t="str">
-        <f t="shared" ref="K128:K130" si="4">IF(OR(AND(H128&gt;1,H128&lt;&gt;"-"),AND(I128&gt;1,I128&lt;&gt;"-"),AND(J128&gt;1,J128&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="K128:K131" si="4">IF(OR(AND(H128&gt;1,H128&lt;&gt;"-"),AND(I128&gt;1,I128&lt;&gt;"-"),AND(J128&gt;1,J128&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -13895,7 +14013,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="45">
         <v>2024</v>
       </c>
@@ -13904,8 +14022,12 @@
       </c>
       <c r="C130" s="41"/>
       <c r="D130" s="41"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
+      <c r="E130" s="44" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F130" s="44" t="s">
+        <v>1456</v>
+      </c>
       <c r="G130" s="46" t="s">
         <v>1328</v>
       </c>
@@ -13924,7 +14046,32 @@
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H131" s="72"/>
+      <c r="A131" s="79">
+        <v>2025</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="46" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H131" s="69">
+        <v>0</v>
+      </c>
+      <c r="I131" s="68">
+        <v>0</v>
+      </c>
+      <c r="J131" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K131" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="135" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I135" s="72"/>
@@ -13945,12 +14092,12 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H3:H8 I66:J86 H59:H69 H23:J25 J58:J65 J87:J124 H15:I22 H27:J28 H26:I26 I29:J51 I52:I53">
-    <cfRule type="containsText" dxfId="341" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="352" priority="199" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H8 I66:J86 H59:H69 H23:J25 J58:J65 J87:J124 H15:I22 H27:J28 H26:I26 I29:J51 I52:I53">
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -13962,12 +14109,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J101">
-    <cfRule type="containsText" dxfId="340" priority="176" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="351" priority="184" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J94))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J101">
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -13979,12 +14126,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J124">
-    <cfRule type="containsText" dxfId="339" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="350" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J118))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J124">
-    <cfRule type="colorScale" priority="182">
+    <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -13996,11 +14143,58 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="338" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="349" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125">
+    <cfRule type="containsText" dxfId="348" priority="168" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I12 J4:J10 I14">
+    <cfRule type="containsText" dxfId="347" priority="165" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="346" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14012,13 +14206,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J125">
-    <cfRule type="containsText" dxfId="337" priority="160" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J125))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J125">
-    <cfRule type="colorScale" priority="161">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="345" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14029,40 +14221,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I12 J4:J10 I14">
-    <cfRule type="containsText" dxfId="336" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="335" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="334" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J126:J127 J129:J130">
+    <cfRule type="containsText" dxfId="344" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J126:J127 J129:J130">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14075,11 +14239,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J127 J129:J130">
-    <cfRule type="containsText" dxfId="333" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="343" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J127 J129:J130">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
+    <cfRule type="containsText" dxfId="342" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
+    <cfRule type="containsText" dxfId="341" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H119:H125">
+    <cfRule type="containsText" dxfId="340" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H119))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H14">
+    <cfRule type="containsText" dxfId="339" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H14">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14091,12 +14311,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J126:J127 J129:J130">
-    <cfRule type="containsText" dxfId="332" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J126))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J126:J127 J129:J130">
+  <conditionalFormatting sqref="H29:H34 H41:H52">
+    <cfRule type="containsText" dxfId="338" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H34 H41:H52">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14108,12 +14328,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="331" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
+  <conditionalFormatting sqref="H35:H40">
+    <cfRule type="containsText" dxfId="337" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H40">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14125,12 +14345,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="330" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
+  <conditionalFormatting sqref="H53:H58">
+    <cfRule type="containsText" dxfId="336" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:H58">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14142,18 +14362,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119:H125">
-    <cfRule type="containsText" dxfId="329" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H119))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H14">
-    <cfRule type="containsText" dxfId="328" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H14">
-    <cfRule type="colorScale" priority="136">
+  <conditionalFormatting sqref="H126">
+    <cfRule type="containsText" dxfId="335" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14164,13 +14379,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H34 H41:H52">
-    <cfRule type="containsText" dxfId="327" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H34 H41:H52">
-    <cfRule type="colorScale" priority="134">
+  <conditionalFormatting sqref="H126">
+    <cfRule type="containsText" dxfId="334" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14181,13 +14396,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H40">
-    <cfRule type="containsText" dxfId="326" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H40">
-    <cfRule type="colorScale" priority="132">
+  <conditionalFormatting sqref="H127:H128 H130">
+    <cfRule type="containsText" dxfId="333" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127:H128 H130">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14198,13 +14413,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H58">
-    <cfRule type="containsText" dxfId="325" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H58">
-    <cfRule type="colorScale" priority="130">
+  <conditionalFormatting sqref="H113:H125 H70">
+    <cfRule type="containsText" dxfId="332" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113:H125 H70">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14215,12 +14430,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
-    <cfRule type="containsText" dxfId="324" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
+  <conditionalFormatting sqref="H119:H125">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="containsText" dxfId="331" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127:H128 H130">
+    <cfRule type="containsText" dxfId="330" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127:H128 H130">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14232,12 +14476,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
-    <cfRule type="containsText" dxfId="323" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H126))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
+  <conditionalFormatting sqref="H107:H112">
+    <cfRule type="containsText" dxfId="329" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:I65">
+    <cfRule type="containsText" dxfId="328" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130">
+    <cfRule type="containsText" dxfId="327" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I130))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="containsText" dxfId="326" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14249,12 +14508,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127:H128 H130">
-    <cfRule type="containsText" dxfId="322" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127:H128 H130">
+  <conditionalFormatting sqref="H77:H88">
+    <cfRule type="containsText" dxfId="325" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77:H88">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14266,46 +14525,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H125 H70">
-    <cfRule type="containsText" dxfId="321" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H125 H70">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119:H125">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="320" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127:H128 H130">
-    <cfRule type="containsText" dxfId="319" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H127))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127:H128 H130">
+  <conditionalFormatting sqref="H71:H76">
+    <cfRule type="containsText" dxfId="324" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H76">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14317,7 +14542,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
+  <conditionalFormatting sqref="H89:H94">
+    <cfRule type="containsText" dxfId="323" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89:H94">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14329,27 +14559,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:H112">
-    <cfRule type="containsText" dxfId="318" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H107))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:I65">
-    <cfRule type="containsText" dxfId="317" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
-    <cfRule type="containsText" dxfId="316" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I130))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="315" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
+  <conditionalFormatting sqref="H95:H106">
+    <cfRule type="containsText" dxfId="322" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95:H106">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14361,12 +14576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H88">
-    <cfRule type="containsText" dxfId="314" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H88">
+  <conditionalFormatting sqref="H107:H112">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14378,12 +14588,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H76">
-    <cfRule type="containsText" dxfId="313" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H71))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H76">
+  <conditionalFormatting sqref="I54:I59">
+    <cfRule type="containsText" dxfId="321" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:I59">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14395,12 +14605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H94">
-    <cfRule type="containsText" dxfId="312" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H89))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H94">
+  <conditionalFormatting sqref="I60:I65">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14412,13 +14617,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H106">
-    <cfRule type="containsText" dxfId="311" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H106">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="I118:I123">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14429,8 +14629,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:H112">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="I87:I98">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14441,13 +14641,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I59">
-    <cfRule type="containsText" dxfId="310" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I59">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="I99:I104">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14458,8 +14653,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:I65">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="I105:I110">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14470,7 +14665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I118:I123">
+  <conditionalFormatting sqref="I124:I129">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14482,7 +14677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I98">
+  <conditionalFormatting sqref="I130">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14494,7 +14689,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I111:I123">
+    <cfRule type="containsText" dxfId="320" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I111))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111:I123">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118:I123">
+    <cfRule type="containsText" dxfId="319" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I118))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87:I98">
+    <cfRule type="containsText" dxfId="318" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I87))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I99:I104">
+    <cfRule type="containsText" dxfId="317" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I99))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105:I110">
+    <cfRule type="containsText" dxfId="316" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124:I129">
+    <cfRule type="containsText" dxfId="315" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J22">
+    <cfRule type="containsText" dxfId="314" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J22">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14506,7 +14748,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I105:I110">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="313" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14518,7 +14765,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I124:I129">
+  <conditionalFormatting sqref="J52:J57">
+    <cfRule type="containsText" dxfId="312" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J57">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14530,7 +14782,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
+  <conditionalFormatting sqref="J131">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J131))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J131">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14542,54 +14799,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:I123">
-    <cfRule type="containsText" dxfId="309" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I111))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I111:I123">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I118:I123">
-    <cfRule type="containsText" dxfId="308" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I118))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I98">
-    <cfRule type="containsText" dxfId="307" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I87))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I104">
-    <cfRule type="containsText" dxfId="306" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I99))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105:I110">
-    <cfRule type="containsText" dxfId="305" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I124:I129">
-    <cfRule type="containsText" dxfId="304" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J22">
-    <cfRule type="containsText" dxfId="303" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J22">
+  <conditionalFormatting sqref="J131">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J131))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J131">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14601,12 +14816,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="302" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="I131">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I131))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14618,12 +14833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J57">
-    <cfRule type="containsText" dxfId="301" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J57">
+  <conditionalFormatting sqref="H131">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14635,8 +14845,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H131))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="H3:H130 I15:I130 J60:J130 J11:J58" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="H3:H131 I15:I131 J60:J131 J11:J58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -14655,10 +14870,10 @@
   <dimension ref="A1:S153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14673,31 +14888,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1327</v>
       </c>
       <c r="B1" s="76"/>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="93" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="95" t="s">
         <v>1299</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="S1" s="3" t="str">
         <f t="shared" ref="S1:S57" si="0">IF((OR(AND(I1&gt;0,J1&gt;0),AND(I1&gt;0,J1="-"),AND(J1&gt;0,I1="-"))),"2",IF(OR(AND(I1=0,J1=0),AND(I1=0,J1="-"),AND(J1=0,I1="-"),AND(J1="-",I1="-")),"0","1"))</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="77" t="s">
         <v>1444</v>
       </c>
@@ -19546,8 +19761,12 @@
         <v>1377</v>
       </c>
       <c r="D130" s="41"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
+      <c r="E130" s="44" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F130" s="44" t="s">
+        <v>1458</v>
+      </c>
       <c r="G130" s="46" t="s">
         <v>1328</v>
       </c>
@@ -19570,6 +19789,34 @@
       </c>
     </row>
     <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="79">
+        <v>2025</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C131" s="41" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D131" s="41"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="46" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H131" s="18">
+        <v>0</v>
+      </c>
+      <c r="I131" s="18">
+        <v>0</v>
+      </c>
+      <c r="J131" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K131" s="20" t="str">
+        <f t="shared" ref="K131" si="8">IF(OR(AND(H131&gt;1,H131&lt;&gt;"-"),AND(I131&gt;1,I131&lt;&gt;"-"),AND(J131&gt;1,J131&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="S131" s="3" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -19622,10 +19869,10 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="O43:O44 H43:H44 M73:M84 M112:M125 O112:O125 H113:J116 M127 O127 H127 M129:M130 O129:O130 H129:J130 M96:M99 M101:M109 O49:O109 H49:J49 H53:J61 H52 J52 H63:J66 H62 J62 H68:J73 H67 J67 H76:J79 H75 J75 H81:J84 H80 J80 H86:J89 H85 J85 H91:J99 H90 J90 H101:J104 H100 J100 H106:J109 H105 J105 H112 J112 H118:J121 H117 J117 H123:J125 H122 J122 J127 H51:J51 H50:I50 H74:I74">
-    <cfRule type="containsText" dxfId="300" priority="382" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="311" priority="384" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="383">
+    <cfRule type="colorScale" priority="385">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -19637,11 +19884,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12 I38 J25 I39:J41 M126 O126 H126:J126 M128 O128 H128:J128 M28:M33 H27:H34 O39:O41 M39:M42 H39:H42 M110:M111 O110:O111 H110:J111 M18:M24 O15:O24 H15:H25 I28:I33 I41:I42 I15:J24">
-    <cfRule type="containsText" dxfId="299" priority="374" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="310" priority="376" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12 I38 J25 I39:J41 M126 O126 H126:J126 M128 O128 H128:J128 M28:M33 H27:H34 O39:O41 M39:M42 H39:H42 M110:M111 O110:O111 H110:J111 M18:M24 O15:O24 H15:H25 I28:I33 I41:I42 I15:J24">
+    <cfRule type="colorScale" priority="377">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I14">
+    <cfRule type="containsText" dxfId="309" priority="374" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="375">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19653,9 +19915,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I14">
-    <cfRule type="containsText" dxfId="298" priority="372" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+  <conditionalFormatting sqref="J3:J14">
+    <cfRule type="containsText" dxfId="308" priority="372" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="373">
       <colorScale>
@@ -19668,9 +19930,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J14">
-    <cfRule type="containsText" dxfId="297" priority="370" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="307" priority="370" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="371">
       <colorScale>
@@ -19683,9 +19945,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="296" priority="368" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="containsText" dxfId="306" priority="368" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="369">
       <colorScale>
@@ -19698,9 +19960,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="295" priority="366" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="305" priority="366" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="367">
       <colorScale>
@@ -19713,11 +19975,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="294" priority="364" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="365">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="304" priority="360" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="361">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -19728,9 +19990,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="293" priority="358" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="303" priority="362" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="302" priority="358" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="359">
       <colorScale>
@@ -19743,24 +20020,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="292" priority="360" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="361">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="291" priority="356" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="301" priority="356" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="357">
       <colorScale>
@@ -19773,9 +20035,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="290" priority="354" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="300" priority="354" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="355">
       <colorScale>
@@ -19788,9 +20050,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="289" priority="352" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="299" priority="352" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="353">
       <colorScale>
@@ -19803,9 +20065,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="288" priority="350" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="298" priority="350" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="351">
       <colorScale>
@@ -19818,9 +20080,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="287" priority="348" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="297" priority="348" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="349">
       <colorScale>
@@ -19833,9 +20095,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="286" priority="346" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="containsText" dxfId="296" priority="346" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="347">
       <colorScale>
@@ -19848,9 +20110,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="285" priority="344" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="295" priority="344" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="345">
       <colorScale>
@@ -19863,9 +20125,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="284" priority="342" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="containsText" dxfId="294" priority="342" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="343">
       <colorScale>
@@ -19878,10 +20140,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="283" priority="340" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J27:J29 J31:J34">
+    <cfRule type="containsText" dxfId="293" priority="340" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J29 J31:J34">
     <cfRule type="colorScale" priority="341">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19893,13 +20157,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J29 J31:J34">
-    <cfRule type="containsText" dxfId="282" priority="338" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J29 J31:J34">
-    <cfRule type="colorScale" priority="339">
+  <conditionalFormatting sqref="J42">
+    <cfRule type="containsText" dxfId="292" priority="326" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -19910,10 +20172,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="281" priority="324" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="containsText" dxfId="291" priority="324" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
     <cfRule type="colorScale" priority="325">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19925,12 +20189,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="280" priority="322" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="290" priority="322" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -19942,9 +20204,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="279" priority="320" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+  <conditionalFormatting sqref="I43:J43 J45:J46 I47 I44:I45">
+    <cfRule type="containsText" dxfId="289" priority="320" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="321">
       <colorScale>
@@ -19957,11 +20219,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43 J45:J46 I47 I44:I45">
-    <cfRule type="containsText" dxfId="278" priority="318" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I43))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="319">
+  <conditionalFormatting sqref="J47">
+    <cfRule type="containsText" dxfId="288" priority="308" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="colorScale" priority="309">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -19972,13 +20236,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="277" priority="306" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="colorScale" priority="307">
+  <conditionalFormatting sqref="I48">
+    <cfRule type="containsText" dxfId="287" priority="293" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -19989,12 +20253,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="276" priority="291" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="286" priority="291" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20006,11 +20268,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="275" priority="289" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="290">
+  <conditionalFormatting sqref="H100">
+    <cfRule type="containsText" dxfId="285" priority="265" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H100))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H17">
+    <cfRule type="containsText" dxfId="284" priority="283" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H17">
+    <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20021,17 +20290,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="containsText" dxfId="274" priority="263" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H100))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H17">
-    <cfRule type="containsText" dxfId="273" priority="281" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H17">
+  <conditionalFormatting sqref="H43:H47 H53:H57">
+    <cfRule type="containsText" dxfId="283" priority="281" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H47 H53:H57">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20043,12 +20307,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H47 H53:H57">
-    <cfRule type="containsText" dxfId="272" priority="279" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H47 H53:H57">
+  <conditionalFormatting sqref="H48:H52">
+    <cfRule type="containsText" dxfId="282" priority="279" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H52">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20060,85 +20324,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H52">
-    <cfRule type="containsText" dxfId="271" priority="277" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H52">
-    <cfRule type="colorScale" priority="278">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H58:H62 H68:H72">
-    <cfRule type="containsText" dxfId="270" priority="276" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="281" priority="278" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H62 H68:H72">
-    <cfRule type="colorScale" priority="384">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H67">
-    <cfRule type="containsText" dxfId="269" priority="274" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H67">
-    <cfRule type="colorScale" priority="385">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="268" priority="271" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="colorScale" priority="272">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H90">
-    <cfRule type="containsText" dxfId="267" priority="269" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H95">
-    <cfRule type="containsText" dxfId="266" priority="265" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H95">
     <cfRule type="colorScale" priority="386">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20150,15 +20341,88 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H63:H67">
+    <cfRule type="containsText" dxfId="280" priority="276" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63:H67">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="containsText" dxfId="279" priority="273" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H85))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86:H90">
+    <cfRule type="containsText" dxfId="278" priority="271" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H95">
+    <cfRule type="containsText" dxfId="277" priority="267" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H95">
+    <cfRule type="colorScale" priority="388">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M100">
-    <cfRule type="containsText" dxfId="265" priority="120" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="276" priority="122" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M100))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="containsText" dxfId="264" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="275" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O42))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="containsText" dxfId="274" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20170,12 +20434,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
-    <cfRule type="containsText" dxfId="263" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
+  <conditionalFormatting sqref="M35">
+    <cfRule type="containsText" dxfId="273" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M35))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20187,9 +20449,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
-    <cfRule type="containsText" dxfId="262" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M35))))</formula>
+  <conditionalFormatting sqref="O45:O46">
+    <cfRule type="containsText" dxfId="272" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="146">
       <colorScale>
@@ -20202,10 +20464,281 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45:O46">
-    <cfRule type="containsText" dxfId="261" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O45))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="O48">
+    <cfRule type="containsText" dxfId="271" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O48))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M17">
+    <cfRule type="containsText" dxfId="270" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M17">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:M47 M53:M57">
+    <cfRule type="containsText" dxfId="269" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:M47 M53:M57">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:M52">
+    <cfRule type="containsText" dxfId="268" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:M52">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58:M62 M68:M72">
+    <cfRule type="containsText" dxfId="267" priority="128" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:M67">
+    <cfRule type="containsText" dxfId="266" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85">
+    <cfRule type="containsText" dxfId="265" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M85))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M86:M90">
+    <cfRule type="containsText" dxfId="264" priority="124" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M86:M90 M100">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M91:M95">
+    <cfRule type="containsText" dxfId="263" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M12 M25 M27 M34 O25">
+    <cfRule type="containsText" dxfId="262" priority="187" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M12 M25 M27 M34 O25">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O14">
+    <cfRule type="containsText" dxfId="261" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="containsText" dxfId="260" priority="181" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="containsText" dxfId="259" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M36))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37">
+    <cfRule type="containsText" dxfId="258" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M37))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="containsText" dxfId="257" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36">
+    <cfRule type="containsText" dxfId="256" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O36))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
+    <cfRule type="containsText" dxfId="255" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O37))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38">
+    <cfRule type="containsText" dxfId="254" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O38))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O35">
+    <cfRule type="containsText" dxfId="253" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O35">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47">
+    <cfRule type="containsText" dxfId="252" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20217,11 +20750,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O48">
-    <cfRule type="containsText" dxfId="260" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O48))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="138">
+  <conditionalFormatting sqref="J74">
+    <cfRule type="containsText" dxfId="251" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J74))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I112">
+    <cfRule type="containsText" dxfId="250" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I112))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I112">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20232,13 +20772,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M17">
-    <cfRule type="containsText" dxfId="259" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M17">
-    <cfRule type="colorScale" priority="132">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="249" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20249,13 +20789,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M43:M47 M53:M57">
-    <cfRule type="containsText" dxfId="258" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M43))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M43:M47 M53:M57">
-    <cfRule type="colorScale" priority="130">
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="248" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20266,13 +20806,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M48:M52">
-    <cfRule type="containsText" dxfId="257" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M48:M52">
-    <cfRule type="colorScale" priority="128">
+  <conditionalFormatting sqref="J74">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20283,23 +20818,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:M62 M68:M72">
-    <cfRule type="containsText" dxfId="256" priority="126" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M58))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M63:M67">
-    <cfRule type="containsText" dxfId="255" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M85">
-    <cfRule type="containsText" dxfId="254" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M85))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M85">
-    <cfRule type="colorScale" priority="124">
+  <conditionalFormatting sqref="I46">
+    <cfRule type="containsText" dxfId="247" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20310,13 +20835,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M86:M90">
-    <cfRule type="containsText" dxfId="253" priority="122" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M86:M90 M100">
-    <cfRule type="colorScale" priority="387">
+  <conditionalFormatting sqref="I52">
+    <cfRule type="containsText" dxfId="246" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20327,18 +20852,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M91:M95">
-    <cfRule type="containsText" dxfId="252" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M91))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M12 M25 M27 M34 O25">
-    <cfRule type="containsText" dxfId="251" priority="185" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M12 M25 M27 M34 O25">
-    <cfRule type="colorScale" priority="186">
+  <conditionalFormatting sqref="I62">
+    <cfRule type="containsText" dxfId="245" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I62))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20349,11 +20869,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O14">
-    <cfRule type="containsText" dxfId="250" priority="181" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="182">
+  <conditionalFormatting sqref="I67">
+    <cfRule type="containsText" dxfId="244" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I67))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20364,11 +20886,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="containsText" dxfId="249" priority="179" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="I75">
+    <cfRule type="containsText" dxfId="243" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20379,11 +20903,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36">
-    <cfRule type="containsText" dxfId="248" priority="177" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M36))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="178">
+  <conditionalFormatting sqref="I80">
+    <cfRule type="containsText" dxfId="242" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20394,11 +20920,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
-    <cfRule type="containsText" dxfId="247" priority="175" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M37))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="176">
+  <conditionalFormatting sqref="I85">
+    <cfRule type="containsText" dxfId="241" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I85))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20409,11 +20937,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26">
-    <cfRule type="containsText" dxfId="246" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O26))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="168">
+  <conditionalFormatting sqref="I90">
+    <cfRule type="containsText" dxfId="240" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20424,11 +20954,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O36">
-    <cfRule type="containsText" dxfId="245" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O36))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="158">
+  <conditionalFormatting sqref="I100">
+    <cfRule type="containsText" dxfId="239" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I100))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20439,11 +20971,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="244" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O37))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="156">
+  <conditionalFormatting sqref="I105">
+    <cfRule type="containsText" dxfId="238" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20454,66 +20988,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O38">
-    <cfRule type="containsText" dxfId="243" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O38))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O35">
-    <cfRule type="containsText" dxfId="242" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O35">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
-    <cfRule type="containsText" dxfId="241" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(O47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="containsText" dxfId="240" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J74))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I112">
-    <cfRule type="containsText" dxfId="239" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I112))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I112">
+  <conditionalFormatting sqref="I117">
+    <cfRule type="containsText" dxfId="237" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I117))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20525,12 +21005,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="238" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="I122">
+    <cfRule type="containsText" dxfId="236" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I122))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I122">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127">
+    <cfRule type="containsText" dxfId="235" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I127))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="234" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20542,262 +21056,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="237" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="236" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="235" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="containsText" dxfId="234" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I62))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="233" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I67))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="232" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="231" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="containsText" dxfId="230" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I85))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
-    <cfRule type="containsText" dxfId="229" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100">
-    <cfRule type="containsText" dxfId="228" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I100))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105">
-    <cfRule type="containsText" dxfId="227" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I105))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117">
-    <cfRule type="containsText" dxfId="226" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I117))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122">
-    <cfRule type="containsText" dxfId="225" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I122))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127">
-    <cfRule type="containsText" dxfId="224" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I127))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="223" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="J44">
+    <cfRule type="containsText" dxfId="233" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20809,13 +21073,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="containsText" dxfId="222" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J44))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H131:J131">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H131))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -20846,10 +21108,10 @@
   <dimension ref="A1:W140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20865,29 +21127,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1327</v>
       </c>
       <c r="B1" s="76"/>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="93" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="97" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="98" t="s">
         <v>1320</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="98"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="77" t="s">
         <v>1444</v>
       </c>
@@ -26349,8 +26611,12 @@
         <v>1382</v>
       </c>
       <c r="D128" s="41"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
+      <c r="E128" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>1460</v>
+      </c>
       <c r="G128" s="46" t="s">
         <v>1328</v>
       </c>
@@ -26378,29 +26644,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="6:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="79">
+        <v>2025</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D129" s="41"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="46" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" s="18">
+        <v>0</v>
+      </c>
+      <c r="J129" s="55">
+        <v>0</v>
+      </c>
+      <c r="K129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M129" s="20" t="str">
+        <f t="shared" ref="M129" si="12">IF(OR(AND(I129&gt;1,I129&lt;&gt;"-"),AND(J129&gt;1,J129&lt;&gt;"-"),AND(K129&gt;1,K129&lt;&gt;"-"),AND(L129&gt;1,L129&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="W129" s="3" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="6:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W130" s="3" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="6:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I131" s="72"/>
     </row>
-    <row r="133" spans="6:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J133" s="72"/>
     </row>
-    <row r="139" spans="6:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F139" s="63"/>
       <c r="J139" s="62"/>
     </row>
-    <row r="140" spans="6:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="1:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="4">
@@ -26411,12 +26711,12 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J38 L3:L11 I125 I127 I64:K71 J73:K84 I49:I53 I60:I63 K39:K63 K72 I120:I123 K85:K123 K127 K125">
-    <cfRule type="containsText" dxfId="221" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="232" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L11 J38 I125 I127 I64:K71 J73:K84 I49:I53 I60:I63 K39:K63 K72 I120:I123 K85:K123 K127 K125">
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -26428,12 +26728,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I9:J14 J17 I27 I21:I25 K25:K26 K37:K38 I34:I35 J14:J15">
-    <cfRule type="containsText" dxfId="220" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="231" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I9:J14 J17 I27 I21:I25 K25:K26 K37:K38 I34:I35 J14:J15">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -26445,11 +26745,62 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="219" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="230" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="229" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="228" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="227" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26461,12 +26812,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="218" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="K3:K19">
+    <cfRule type="containsText" dxfId="226" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K19">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26478,12 +26829,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="217" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="L12:L123 L125 L127">
+    <cfRule type="containsText" dxfId="225" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L123 L125 L127">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26495,46 +26846,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="216" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K19">
-    <cfRule type="containsText" dxfId="215" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K19">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L123 L125 L127">
-    <cfRule type="containsText" dxfId="214" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L123 L125 L127">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="224" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26546,13 +26863,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="213" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsText" dxfId="223" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -26563,12 +26880,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsText" dxfId="212" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
+  <conditionalFormatting sqref="I37:J37">
+    <cfRule type="containsText" dxfId="222" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:J37">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I41 I48">
+    <cfRule type="containsText" dxfId="221" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I41 I48">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26580,12 +26914,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:J37">
-    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:J37">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="containsText" dxfId="220" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26597,12 +26931,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I41 I48">
-    <cfRule type="containsText" dxfId="210" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I41 I48">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="219" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="218" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26614,12 +26965,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="209" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="J35:K35 K27:K34">
+    <cfRule type="containsText" dxfId="217" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:K35 K27:K34">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26631,12 +26982,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="208" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J28:J29 J31:J33">
+    <cfRule type="containsText" dxfId="216" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29 J31:J33">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26648,12 +26999,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="207" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J20:J21 K20:K24 J23:J25">
+    <cfRule type="containsText" dxfId="215" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J21 K20:K24 J23:J25">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26665,12 +27016,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K35 K27:K34">
-    <cfRule type="containsText" dxfId="206" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K35 K27:K34">
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="214" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26682,12 +27033,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29 J31:J33">
-    <cfRule type="containsText" dxfId="205" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29 J31:J33">
+  <conditionalFormatting sqref="I124 I126 K126 K124">
+    <cfRule type="containsText" dxfId="213" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124 I126 K126 K124">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26699,12 +27050,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J21 K20:K24 J23:J25">
-    <cfRule type="containsText" dxfId="204" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J21 K20:K24 J23:J25">
+  <conditionalFormatting sqref="L124 L126">
+    <cfRule type="containsText" dxfId="212" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L124 L126">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26716,12 +27067,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="203" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="I128 K128">
+    <cfRule type="containsText" dxfId="211" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128 K128">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26733,12 +27084,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I124 I126 K126 K124">
-    <cfRule type="containsText" dxfId="202" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I124))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I124 I126 K126 K124">
+  <conditionalFormatting sqref="L128">
+    <cfRule type="containsText" dxfId="210" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L128">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26750,12 +27101,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
-    <cfRule type="containsText" dxfId="201" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L124))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L124 L126">
+  <conditionalFormatting sqref="I15:I20">
+    <cfRule type="containsText" dxfId="209" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I20">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26767,12 +27118,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128 K128">
-    <cfRule type="containsText" dxfId="200" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I128))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128 K128">
+  <conditionalFormatting sqref="I28:I33">
+    <cfRule type="containsText" dxfId="208" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:I33">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26784,12 +27135,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L128">
-    <cfRule type="containsText" dxfId="199" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L128))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L128">
+  <conditionalFormatting sqref="I42:I47">
+    <cfRule type="containsText" dxfId="207" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:I47">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26801,12 +27152,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I20">
-    <cfRule type="containsText" dxfId="198" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I20">
+  <conditionalFormatting sqref="I54:I59">
+    <cfRule type="containsText" dxfId="206" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:I59">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26818,12 +27169,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I33">
-    <cfRule type="containsText" dxfId="197" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I33">
+  <conditionalFormatting sqref="I72:I77">
+    <cfRule type="containsText" dxfId="205" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I77">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26835,12 +27186,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:I47">
-    <cfRule type="containsText" dxfId="196" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:I47">
+  <conditionalFormatting sqref="I78:I83">
+    <cfRule type="containsText" dxfId="204" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78:I83">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26852,29 +27203,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I59">
-    <cfRule type="containsText" dxfId="195" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I59">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I77">
-    <cfRule type="containsText" dxfId="194" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I77">
+  <conditionalFormatting sqref="I91:I95">
+    <cfRule type="containsText" dxfId="203" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:I95">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26886,12 +27220,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:I83">
-    <cfRule type="containsText" dxfId="193" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:I83">
+  <conditionalFormatting sqref="I90">
+    <cfRule type="containsText" dxfId="202" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26903,12 +27237,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I91:I95">
-    <cfRule type="containsText" dxfId="192" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I91))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91:I95">
+  <conditionalFormatting sqref="I84:I89">
+    <cfRule type="containsText" dxfId="201" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84:I89">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I107">
+    <cfRule type="containsText" dxfId="200" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I103))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I107">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26920,12 +27271,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
-    <cfRule type="containsText" dxfId="191" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I90))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
+  <conditionalFormatting sqref="I102">
+    <cfRule type="containsText" dxfId="199" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I102))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26937,12 +27288,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I89">
-    <cfRule type="containsText" dxfId="190" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I89">
+  <conditionalFormatting sqref="I96:I101">
+    <cfRule type="containsText" dxfId="198" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I96))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96:I101">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26954,12 +27305,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I107">
-    <cfRule type="containsText" dxfId="189" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I103))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I107">
+  <conditionalFormatting sqref="I115:I119">
+    <cfRule type="containsText" dxfId="197" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I115))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115:I119">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26971,12 +27322,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="containsText" dxfId="188" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I102))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
+  <conditionalFormatting sqref="I114">
+    <cfRule type="containsText" dxfId="196" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I114))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -26988,12 +27339,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96:I101">
-    <cfRule type="containsText" dxfId="187" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I96))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:I101">
+  <conditionalFormatting sqref="I108:I113">
+    <cfRule type="containsText" dxfId="195" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108:I113">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27005,12 +27356,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I115:I119">
-    <cfRule type="containsText" dxfId="186" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I115))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:I119">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="194" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27022,12 +27373,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
-    <cfRule type="containsText" dxfId="185" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I114))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="193" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27039,12 +27390,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I108:I113">
-    <cfRule type="containsText" dxfId="184" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I108))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I108:I113">
+  <conditionalFormatting sqref="J39">
+    <cfRule type="containsText" dxfId="192" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27056,12 +27407,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="183" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J40:J45">
+    <cfRule type="containsText" dxfId="191" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:J45">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27073,12 +27424,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="182" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J46:J51">
+    <cfRule type="containsText" dxfId="190" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:J51">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27090,12 +27441,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="181" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
+  <conditionalFormatting sqref="J52:J57">
+    <cfRule type="containsText" dxfId="189" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J57">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27107,12 +27458,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J45">
-    <cfRule type="containsText" dxfId="180" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J45">
+  <conditionalFormatting sqref="J58:J63">
+    <cfRule type="containsText" dxfId="188" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58:J63">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27124,12 +27475,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J51">
-    <cfRule type="containsText" dxfId="179" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J51">
+  <conditionalFormatting sqref="J72">
+    <cfRule type="containsText" dxfId="187" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27141,12 +27492,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J57">
-    <cfRule type="containsText" dxfId="178" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J57">
+  <conditionalFormatting sqref="J85">
+    <cfRule type="containsText" dxfId="186" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J85))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27158,12 +27509,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58:J63">
-    <cfRule type="containsText" dxfId="177" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J58))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58:J63">
+  <conditionalFormatting sqref="J86:J91">
+    <cfRule type="containsText" dxfId="185" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J86))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J86:J91">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27175,12 +27526,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="containsText" dxfId="176" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
+  <conditionalFormatting sqref="J92:J97">
+    <cfRule type="containsText" dxfId="184" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J92))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92:J97">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27192,12 +27543,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="175" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J85))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85">
+  <conditionalFormatting sqref="J98:J103">
+    <cfRule type="containsText" dxfId="183" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J98))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J98:J103">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27209,12 +27560,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J86:J91">
-    <cfRule type="containsText" dxfId="174" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J86))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J86:J91">
+  <conditionalFormatting sqref="J104:J109">
+    <cfRule type="containsText" dxfId="182" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J104))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:J109">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27226,12 +27577,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J97">
-    <cfRule type="containsText" dxfId="173" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J92))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J97">
+  <conditionalFormatting sqref="J110:J115">
+    <cfRule type="containsText" dxfId="181" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J110))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110:J115">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27243,12 +27594,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J98:J103">
-    <cfRule type="containsText" dxfId="172" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J98))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J98:J103">
+  <conditionalFormatting sqref="J116:J121">
+    <cfRule type="containsText" dxfId="180" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J116))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J116:J121">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27260,12 +27611,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104:J109">
-    <cfRule type="containsText" dxfId="171" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J104))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:J109">
+  <conditionalFormatting sqref="J122:J127">
+    <cfRule type="containsText" dxfId="179" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J122))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J122:J127">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27277,12 +27628,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J110:J115">
-    <cfRule type="containsText" dxfId="170" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J110))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J110:J115">
+  <conditionalFormatting sqref="J128">
+    <cfRule type="containsText" dxfId="178" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27294,12 +27645,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J116:J121">
-    <cfRule type="containsText" dxfId="169" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J116))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J116:J121">
+  <conditionalFormatting sqref="I129 K129">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I129))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129 K129">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27311,12 +27662,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J122:J127">
-    <cfRule type="containsText" dxfId="168" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J122))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J122:J127">
+  <conditionalFormatting sqref="L129">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L129))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L129">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27328,12 +27679,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
-    <cfRule type="containsText" dxfId="167" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
+  <conditionalFormatting sqref="J129">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J129))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J129">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -27362,13 +27713,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X125"/>
+  <dimension ref="A1:X129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="P93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A127:O129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -27384,31 +27735,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1327</v>
       </c>
       <c r="B1" s="76"/>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="92" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="93" t="s">
         <v>1326</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="97" t="s">
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="98" t="s">
         <v>1325</v>
       </c>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="98"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="77" t="s">
         <v>1444</v>
       </c>
@@ -30468,7 +30819,7 @@
         <v>3</v>
       </c>
       <c r="O67" s="20" t="str">
-        <f t="shared" ref="O67:O125" si="4">IF(OR(AND(K67&gt;1,K67&lt;&gt;"-"),AND(L67&gt;1,L67&lt;&gt;"-"),AND(M67&gt;1,M67&lt;&gt;"-"),AND(N67&gt;1,N67&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="O67:O126" si="4">IF(OR(AND(K67&gt;1,K67&lt;&gt;"-"),AND(L67&gt;1,L67&lt;&gt;"-"),AND(M67&gt;1,M67&lt;&gt;"-"),AND(N67&gt;1,N67&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="X67" s="3" t="str">
@@ -33203,6 +33554,198 @@
       <c r="O125" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="79">
+        <v>2022</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O126" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="79">
+        <v>2023</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O127" s="20" t="str">
+        <f t="shared" ref="O127:O128" si="7">IF(OR(AND(K127&gt;1,K127&lt;&gt;"-"),AND(L127&gt;1,L127&lt;&gt;"-"),AND(M127&gt;1,M127&lt;&gt;"-"),AND(N127&gt;1,N127&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="79">
+        <v>2024</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O128" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="79">
+        <v>2025</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J129" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O129" s="20" t="str">
+        <f t="shared" ref="O129" si="8">IF(OR(AND(K129&gt;1,K129&lt;&gt;"-"),AND(L129&gt;1,L129&lt;&gt;"-"),AND(M129&gt;1,M129&lt;&gt;"-"),AND(N129&gt;1,N129&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -33215,12 +33758,12 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K38:K45 L38:L40 M45:M48 N13:N19 K23:M23 N21:N78 K68:M74 L21:M22 L49:M51 K82:N90 K24 M24 L43:L48 K66:K67 M52:M67 K76:M78 K75 M75 K81 M80:N81 K92:N95 K91 M91:N91 K97:N100 K96 M96:N96 K102:N122 K101 M101:N101 K124:N124">
-    <cfRule type="containsText" dxfId="166" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:K45 L38:L40 M45:M48 N13:N19 K23:M23 N21:N78 K68:M74 L21:M22 L49:M51 K82:N90 K24 M24 L43:L48 K66:K67 M52:M67 K76:M78 K75 M75 K81 M80:N81 K92:N95 K91 M91:N91 K97:N100 K96 M96:N96 K102:N122 K101 M101:N101 K124:N124">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -33232,12 +33775,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14 L13 K3:L6 M14:M15 K25 K27 K29 K34 L28:M28 M27 K30:M30 K31:L32 M31:M34 L19 L16:M17 M10:M12 K7:K12 M18">
-    <cfRule type="containsText" dxfId="165" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14 L13 K3:L6 M14:M15 K25 K27 K29 K34 L28:M28 M27 K30:M30 K31:L32 M31:M34 L19 L16:M17 M10:M12 K7:K12 M18">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -33249,11 +33792,130 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="164" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N12 M3:M6">
+    <cfRule type="containsText" dxfId="174" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N12 M3:M6">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="containsText" dxfId="173" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="containsText" dxfId="172" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="containsText" dxfId="171" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="containsText" dxfId="170" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="containsText" dxfId="169" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="168" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33265,80 +33927,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N12 M3:M6">
-    <cfRule type="containsText" dxfId="163" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N12 M3:M6">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="162" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="161" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="160" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="159" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="containsText" dxfId="167" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33350,12 +33944,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="158" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
+  <conditionalFormatting sqref="L26">
+    <cfRule type="containsText" dxfId="166" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33367,12 +33961,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="157" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="L27">
+    <cfRule type="containsText" dxfId="165" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33384,12 +33978,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="containsText" dxfId="156" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="L29">
+    <cfRule type="containsText" dxfId="164" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33401,12 +33995,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="containsText" dxfId="155" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="L34">
+    <cfRule type="containsText" dxfId="163" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33418,12 +34012,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="154" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="M25">
+    <cfRule type="containsText" dxfId="162" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33435,12 +34029,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="containsText" dxfId="153" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="M26">
+    <cfRule type="containsText" dxfId="161" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33452,12 +34046,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
-    <cfRule type="containsText" dxfId="152" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="M29">
+    <cfRule type="containsText" dxfId="160" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33469,12 +34063,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="containsText" dxfId="151" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="159" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33486,12 +34080,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="containsText" dxfId="150" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
+  <conditionalFormatting sqref="K35">
+    <cfRule type="containsText" dxfId="158" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33503,12 +34097,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
-    <cfRule type="containsText" dxfId="149" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
+  <conditionalFormatting sqref="K37">
+    <cfRule type="containsText" dxfId="157" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33520,12 +34114,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="148" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="M39:M44">
+    <cfRule type="containsText" dxfId="156" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="containsText" dxfId="155" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33537,12 +34136,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="147" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
+  <conditionalFormatting sqref="M35">
+    <cfRule type="containsText" dxfId="154" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33554,12 +34153,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="146" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="L36:M36">
+    <cfRule type="containsText" dxfId="153" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:M36">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33571,17 +34170,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M39:M44">
-    <cfRule type="containsText" dxfId="145" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="144" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+  <conditionalFormatting sqref="L37">
+    <cfRule type="containsText" dxfId="152" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33593,12 +34187,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
-    <cfRule type="containsText" dxfId="143" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
+  <conditionalFormatting sqref="L42">
+    <cfRule type="containsText" dxfId="151" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33610,12 +34204,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:M36">
-    <cfRule type="containsText" dxfId="142" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36:M36">
+  <conditionalFormatting sqref="M37">
+    <cfRule type="containsText" dxfId="150" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33627,12 +34221,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="141" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
+  <conditionalFormatting sqref="M38">
+    <cfRule type="containsText" dxfId="149" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33644,46 +34238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="containsText" dxfId="140" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
-    <cfRule type="containsText" dxfId="139" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
-    <cfRule type="containsText" dxfId="138" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
+  <conditionalFormatting sqref="M39:M44">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33695,7 +34250,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M39:M44">
+  <conditionalFormatting sqref="L20:N20">
+    <cfRule type="containsText" dxfId="148" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:N20">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125">
+    <cfRule type="containsText" dxfId="147" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N125))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33707,12 +34284,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:N20">
-    <cfRule type="containsText" dxfId="137" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:N20">
+  <conditionalFormatting sqref="K125">
+    <cfRule type="containsText" dxfId="146" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K125))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K125">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33724,13 +34301,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="containsText" dxfId="136" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N125))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="L125">
+    <cfRule type="containsText" dxfId="145" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L125))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L125">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -33741,12 +34318,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K125">
-    <cfRule type="containsText" dxfId="135" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K125))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K125">
+  <conditionalFormatting sqref="M125">
+    <cfRule type="containsText" dxfId="144" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M125))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M125">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33758,12 +34335,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L125">
-    <cfRule type="containsText" dxfId="134" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L125))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L125">
+  <conditionalFormatting sqref="K13:K17">
+    <cfRule type="containsText" dxfId="143" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K17">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33775,12 +34352,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M125">
-    <cfRule type="containsText" dxfId="133" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M125))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M125">
+  <conditionalFormatting sqref="K18:K22">
+    <cfRule type="containsText" dxfId="142" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K22">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="141" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33792,12 +34386,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K17">
-    <cfRule type="containsText" dxfId="132" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K17">
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="140" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33809,12 +34403,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K22">
-    <cfRule type="containsText" dxfId="131" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K22">
+  <conditionalFormatting sqref="K46:K50">
+    <cfRule type="containsText" dxfId="139" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:K50">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33826,12 +34420,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="130" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K51:K55">
+    <cfRule type="containsText" dxfId="138" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:K55">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33843,12 +34437,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="129" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
+  <conditionalFormatting sqref="K56:K60">
+    <cfRule type="containsText" dxfId="137" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K56))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:K60">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33860,12 +34454,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:K50">
-    <cfRule type="containsText" dxfId="128" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K46))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:K50">
+  <conditionalFormatting sqref="K61:K65">
+    <cfRule type="containsText" dxfId="136" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K61))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:K65">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33877,12 +34471,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:K55">
-    <cfRule type="containsText" dxfId="127" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:K55">
+  <conditionalFormatting sqref="K80:L80">
+    <cfRule type="containsText" dxfId="135" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K80:L80">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33894,12 +34488,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:K60">
-    <cfRule type="containsText" dxfId="126" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K56))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:K60">
+  <conditionalFormatting sqref="N79">
+    <cfRule type="containsText" dxfId="134" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N79">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33911,12 +34505,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:K65">
-    <cfRule type="containsText" dxfId="125" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K61))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61:K65">
+  <conditionalFormatting sqref="K79">
+    <cfRule type="containsText" dxfId="133" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33928,12 +34522,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:L80">
-    <cfRule type="containsText" dxfId="124" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K80:L80">
+  <conditionalFormatting sqref="L79">
+    <cfRule type="containsText" dxfId="132" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33945,12 +34539,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N79">
-    <cfRule type="containsText" dxfId="123" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N79">
+  <conditionalFormatting sqref="M79">
+    <cfRule type="containsText" dxfId="131" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33962,12 +34556,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79">
-    <cfRule type="containsText" dxfId="122" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K79">
+  <conditionalFormatting sqref="L7:L12">
+    <cfRule type="containsText" dxfId="130" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L12">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33979,12 +34573,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="121" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
+  <conditionalFormatting sqref="L18">
+    <cfRule type="containsText" dxfId="129" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -33996,12 +34590,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M79">
-    <cfRule type="containsText" dxfId="120" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M79">
+  <conditionalFormatting sqref="L24">
+    <cfRule type="containsText" dxfId="128" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -34013,12 +34607,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L12">
-    <cfRule type="containsText" dxfId="119" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L12">
+  <conditionalFormatting sqref="L33">
+    <cfRule type="containsText" dxfId="127" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -34030,12 +34624,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="118" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L41">
+    <cfRule type="containsText" dxfId="126" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -34047,13 +34641,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="containsText" dxfId="117" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="L101">
+    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L101))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L101">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -34064,12 +34658,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
-    <cfRule type="containsText" dxfId="116" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
+  <conditionalFormatting sqref="L52">
+    <cfRule type="containsText" dxfId="124" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -34081,12 +34675,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
-    <cfRule type="containsText" dxfId="115" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
+  <conditionalFormatting sqref="L53:L56">
+    <cfRule type="containsText" dxfId="123" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:L56">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -34098,12 +34692,182 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L101">
-    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L101))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L101">
+  <conditionalFormatting sqref="L57">
+    <cfRule type="containsText" dxfId="122" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:L61">
+    <cfRule type="containsText" dxfId="121" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:L61">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62">
+    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L62))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63:L67">
+    <cfRule type="containsText" dxfId="119" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63:L67">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75">
+    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81">
+    <cfRule type="containsText" dxfId="117" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L91">
+    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L91">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L96">
+    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L96))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L96">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123:N123">
+    <cfRule type="containsText" dxfId="114" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K123))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123:N123">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127:N127 K129:N129">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K127))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127:N127 K129:N129">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K126:N126">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K126))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K126:N126">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -34115,182 +34879,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="containsText" dxfId="113" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53:L56">
-    <cfRule type="containsText" dxfId="112" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53:L56">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="containsText" dxfId="111" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L57))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58:L61">
-    <cfRule type="containsText" dxfId="110" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58:L61">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="109" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L62))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L62">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L63:L67">
-    <cfRule type="containsText" dxfId="108" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L63:L67">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
-    <cfRule type="containsText" dxfId="107" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L75))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L81">
-    <cfRule type="containsText" dxfId="106" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L81">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L91">
-    <cfRule type="containsText" dxfId="105" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L91))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L91">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L96">
-    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L96))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L96">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K123:N123">
-    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K123))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K123:N123">
+  <conditionalFormatting sqref="K128:N128">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K128))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128:N128">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -34319,10 +34913,10 @@
   <dimension ref="A1:W139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H124" sqref="H124"/>
+      <selection pane="bottomRight" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -34339,30 +34933,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1327</v>
       </c>
       <c r="B1" s="76"/>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="92" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="93" t="s">
         <v>1326</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="97" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="98" t="s">
         <v>1359</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="98"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="77" t="s">
         <v>1444</v>
       </c>
@@ -37827,10 +38421,10 @@
         <v>1398</v>
       </c>
       <c r="E81" s="41"/>
-      <c r="F81" s="104" t="s">
+      <c r="F81" s="105" t="s">
         <v>1157</v>
       </c>
-      <c r="G81" s="106" t="s">
+      <c r="G81" s="107" t="s">
         <v>1158</v>
       </c>
       <c r="H81" s="47" t="s">
@@ -37839,10 +38433,10 @@
       <c r="I81" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="102">
-        <v>0</v>
-      </c>
-      <c r="K81" s="102">
+      <c r="J81" s="103">
+        <v>0</v>
+      </c>
+      <c r="K81" s="103">
         <v>0</v>
       </c>
       <c r="L81" s="33" t="s">
@@ -37872,16 +38466,16 @@
         <v>1398</v>
       </c>
       <c r="E82" s="41"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="103"/>
+      <c r="F82" s="106"/>
+      <c r="G82" s="104"/>
       <c r="H82" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="I82" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
       <c r="L82" s="33" t="s">
         <v>3</v>
       </c>
@@ -40068,8 +40662,12 @@
       </c>
       <c r="D131" s="41"/>
       <c r="E131" s="41"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
+      <c r="F131" s="31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>1462</v>
+      </c>
       <c r="H131" s="47" t="s">
         <v>1338</v>
       </c>
@@ -40193,7 +40791,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="J50:L54 J39:J49 J55:K55 K46:K49 L44:L49 M13:M20 J56:L79 L82 J84:L126 J81:L81">
-    <cfRule type="containsText" dxfId="102" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40210,7 +40808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17 K14:K16 L3:L17 M3:M12 J18:L19 L32:L34 J23:L26 J20">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="104" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40227,7 +40825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M79 M84:M126 M81:M82">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40244,7 +40842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="99" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40261,7 +40859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="98" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40278,7 +40876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="97" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40295,7 +40893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="96" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40312,7 +40910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="95" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40329,7 +40927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="94" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40346,7 +40944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K8">
-    <cfRule type="containsText" dxfId="93" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40363,7 +40961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J38">
-    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40380,7 +40978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K38">
-    <cfRule type="containsText" dxfId="91" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40397,7 +40995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="containsText" dxfId="90" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40414,7 +41012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="89" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40431,7 +41029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K44 L39:L42">
-    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40448,7 +41046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="87" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40465,7 +41063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:L31">
-    <cfRule type="containsText" dxfId="86" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40482,7 +41080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="85" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40499,7 +41097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="containsText" dxfId="84" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40516,7 +41114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="83" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40533,7 +41131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="containsText" dxfId="82" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40550,7 +41148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="containsText" dxfId="81" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40567,7 +41165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L22">
-    <cfRule type="containsText" dxfId="80" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40584,7 +41182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="containsText" dxfId="79" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40601,7 +41199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="78" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40618,7 +41216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40635,7 +41233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="76" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40652,7 +41250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="75" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40669,7 +41267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="74" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40686,7 +41284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="73" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40703,7 +41301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="72" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40720,7 +41318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:L83">
-    <cfRule type="containsText" dxfId="71" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40737,7 +41335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40754,7 +41352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:L80">
-    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40771,7 +41369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M80">
-    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40788,7 +41386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:L127">
-    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40805,7 +41403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M127">
-    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M127))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40822,7 +41420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:L128">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40839,7 +41437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M128">
-    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M128))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40856,7 +41454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129:L129">
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40873,7 +41471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40890,7 +41488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J130:L130">
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40907,7 +41505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M130">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M130))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40924,7 +41522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131:L131">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40941,7 +41539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M131))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40958,7 +41556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132:L132">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J132))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40975,7 +41573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M132))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41005,13 +41603,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U103"/>
+  <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S75" sqref="S75"/>
+      <selection pane="bottomRight" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -41027,29 +41625,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1327</v>
       </c>
       <c r="B1" s="76"/>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>1372</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="93" t="s">
         <v>1326</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="97" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="98" t="s">
         <v>1358</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="98"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="77" t="s">
         <v>1444</v>
       </c>
@@ -45634,6 +46232,1098 @@
       <c r="U103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="79">
+        <v>2000</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L104" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M104" s="20" t="str">
+        <f t="shared" ref="M104:M105" si="6">IF(OR(AND(I104&gt;1,I104&lt;&gt;"-"),AND(J104&gt;1,J104&lt;&gt;"-"),AND(K104&gt;1,K104&lt;&gt;"-"),AND(L104&gt;1,L104&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="79">
+        <v>2001</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M105" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="79">
+        <v>2002</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M106" s="20" t="str">
+        <f t="shared" ref="M106:M129" si="7">IF(OR(AND(I106&gt;1,I106&lt;&gt;"-"),AND(J106&gt;1,J106&lt;&gt;"-"),AND(K106&gt;1,K106&lt;&gt;"-"),AND(L106&gt;1,L106&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="79">
+        <v>2003</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K107" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L107" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M107" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="79">
+        <v>2004</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M108" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="79">
+        <v>2005</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L109" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M109" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="79">
+        <v>2006</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J110" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L110" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M110" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="79">
+        <v>2007</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L111" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M111" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="79">
+        <v>2008</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M112" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="79">
+        <v>2009</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I113" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M113" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="79">
+        <v>2010</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M114" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="79">
+        <v>2011</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L115" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M115" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="79">
+        <v>2012</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M116" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="79">
+        <v>2013</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J117" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L117" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M117" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="79">
+        <v>2014</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J118" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L118" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M118" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="79">
+        <v>2015</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J119" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K119" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L119" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M119" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="79">
+        <v>2016</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J120" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L120" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M120" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="79">
+        <v>2017</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L121" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M121" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="79">
+        <v>2018</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J122" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K122" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L122" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M122" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="79">
+        <v>2019</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J123" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L123" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M123" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="79">
+        <v>2020</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I124" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K124" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L124" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M124" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="79">
+        <v>2021</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I125" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J125" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K125" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L125" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M125" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="79">
+        <v>2022</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L126" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M126" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="79">
+        <v>2023</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L127" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M127" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="79">
+        <v>2024</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L128" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M128" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="79">
+        <v>2025</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M129" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -45645,12 +47335,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I40:K74 I82:K82 I78:K78 I85:K103 K84 J75:K76 K81 I77 K77 J83:K83">
-    <cfRule type="containsText" dxfId="55" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:K74 I82:K82 I78:K78 I85:K103 K84 J75:K76 K81 I77 K77 J83:K83">
-    <cfRule type="colorScale" priority="166">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -45662,12 +47352,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24 I25 I28:I29 I32 I31:J31 K39 K26:K32 J26 J30 I39">
-    <cfRule type="containsText" dxfId="54" priority="160" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="164" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24 I25 I28:I29 I32 I31:J31 K39 K26:K32 J26 J30 I39">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -45679,12 +47369,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L78 L81:L103">
-    <cfRule type="containsText" dxfId="53" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L78 L81:L103">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -45696,11 +47386,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="52" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45712,12 +47419,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="51" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="61" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45729,12 +47436,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="50" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="L7">
+    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45746,12 +47453,216 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="49" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="59" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="58" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I23">
+    <cfRule type="containsText" dxfId="57" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I23">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J23">
+    <cfRule type="containsText" dxfId="56" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J23">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="containsText" dxfId="55" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="54" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="containsText" dxfId="53" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="containsText" dxfId="52" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K23">
+    <cfRule type="containsText" dxfId="51" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K23">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="containsText" dxfId="50" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="containsText" dxfId="49" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I37">
+    <cfRule type="containsText" dxfId="48" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I37">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="containsText" dxfId="47" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45763,199 +47674,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="48" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="47" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I23">
-    <cfRule type="containsText" dxfId="46" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I23">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J23">
-    <cfRule type="containsText" dxfId="45" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J23">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="44" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="43" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="42" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="41" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K23">
-    <cfRule type="containsText" dxfId="40" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K23">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="39" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="38" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I37">
-    <cfRule type="containsText" dxfId="37" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I37">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="46" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45967,12 +47691,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="36" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="45" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -45984,12 +47708,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="35" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="J32:J37">
+    <cfRule type="containsText" dxfId="44" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J37">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46001,12 +47725,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="34" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="J39">
+    <cfRule type="containsText" dxfId="43" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46018,12 +47742,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J37">
-    <cfRule type="containsText" dxfId="33" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J37">
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="42" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46035,12 +47759,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
+  <conditionalFormatting sqref="K33:K37">
+    <cfRule type="containsText" dxfId="41" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K37">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46052,12 +47776,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="K38">
+    <cfRule type="containsText" dxfId="40" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46069,13 +47793,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K37">
-    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K37">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="39" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46086,13 +47810,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="J80:K80">
+    <cfRule type="containsText" dxfId="38" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80:K80">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46103,12 +47827,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="L80">
+    <cfRule type="containsText" dxfId="37" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46120,12 +47844,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J80:K80">
-    <cfRule type="containsText" dxfId="27" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80:K80">
+  <conditionalFormatting sqref="I79:K79">
+    <cfRule type="containsText" dxfId="36" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:K79">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46137,12 +47861,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="26" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
+  <conditionalFormatting sqref="L79">
+    <cfRule type="containsText" dxfId="35" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46154,29 +47878,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:K79">
-    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:K79">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L79))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="34" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46188,13 +47895,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="23" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="33" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46205,12 +47912,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="I75">
+    <cfRule type="containsText" dxfId="32" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46222,13 +47929,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I75))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46239,13 +47946,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -46256,12 +47963,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46273,12 +47997,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46290,12 +48014,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I76">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46307,29 +48031,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
+  <conditionalFormatting sqref="I84">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46341,12 +48048,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46358,12 +48082,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="J77">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46375,12 +48099,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="J81">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46392,12 +48116,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
+  <conditionalFormatting sqref="J84">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J84))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46409,12 +48133,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
+  <conditionalFormatting sqref="I80">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46426,12 +48150,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J84))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
+  <conditionalFormatting sqref="I81">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I81))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46443,29 +48167,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
+  <conditionalFormatting sqref="I83">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I83))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46477,12 +48184,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
+  <conditionalFormatting sqref="I104:K129">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I104))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104:K129">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104:L129">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L104))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104:L129">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -46511,10 +48235,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
